--- a/libs/standard.xlsx
+++ b/libs/standard.xlsx
@@ -8,13 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Fires\Desktop\sensor_seg\libs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5CF4EDD5-304B-4C2D-B5C1-CA28F481F955}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D60BA275-47D7-4908-AF22-B536104DF799}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{2E73714D-80D0-4596-A3F2-0D3CAF1C561D}"/>
+    <workbookView xWindow="5505" yWindow="960" windowWidth="20640" windowHeight="11280" activeTab="1" xr2:uid="{2E73714D-80D0-4596-A3F2-0D3CAF1C561D}"/>
   </bookViews>
   <sheets>
     <sheet name="温度传感器" sheetId="1" r:id="rId1"/>
-    <sheet name="温度变送器 " sheetId="2" r:id="rId2"/>
+    <sheet name="温度变送器" sheetId="2" r:id="rId2"/>
     <sheet name="保护套管" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029"/>
@@ -2577,8 +2577,23 @@
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -2589,14 +2604,14 @@
     <xf numFmtId="0" fontId="13" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -2604,29 +2619,23 @@
     <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -2634,11 +2643,14 @@
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -2649,23 +2661,11 @@
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -2983,7 +2983,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9315037E-38C6-43C1-8CB9-FAF24E20A72B}">
   <dimension ref="A1:D74"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A46" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+    <sheetView topLeftCell="A46" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
       <selection activeCell="J10" sqref="J10"/>
     </sheetView>
   </sheetViews>
@@ -2997,24 +2997,24 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" ht="46.5">
-      <c r="A1" s="26" t="s">
+      <c r="A1" s="31" t="s">
         <v>131</v>
       </c>
-      <c r="B1" s="27"/>
-      <c r="C1" s="28"/>
-      <c r="D1" s="28"/>
+      <c r="B1" s="32"/>
+      <c r="C1" s="33"/>
+      <c r="D1" s="33"/>
     </row>
     <row r="2" spans="1:4" ht="25.5">
-      <c r="A2" s="51" t="s">
+      <c r="A2" s="25" t="s">
         <v>504</v>
       </c>
-      <c r="B2" s="51" t="s">
+      <c r="B2" s="25" t="s">
         <v>500</v>
       </c>
-      <c r="C2" s="51" t="s">
+      <c r="C2" s="25" t="s">
         <v>497</v>
       </c>
-      <c r="D2" s="51" t="s">
+      <c r="D2" s="25" t="s">
         <v>503</v>
       </c>
     </row>
@@ -3041,7 +3041,7 @@
       <c r="D4" s="8"/>
     </row>
     <row r="5" spans="1:4" ht="24.75">
-      <c r="A5" s="25" t="s">
+      <c r="A5" s="29" t="s">
         <v>6</v>
       </c>
       <c r="B5" s="7" t="s">
@@ -3053,7 +3053,7 @@
       <c r="D5" s="8"/>
     </row>
     <row r="6" spans="1:4" ht="24.75">
-      <c r="A6" s="25"/>
+      <c r="A6" s="29"/>
       <c r="B6" s="7" t="s">
         <v>9</v>
       </c>
@@ -3063,7 +3063,7 @@
       <c r="D6" s="8"/>
     </row>
     <row r="7" spans="1:4" ht="24.75">
-      <c r="A7" s="25" t="s">
+      <c r="A7" s="29" t="s">
         <v>11</v>
       </c>
       <c r="B7" s="7">
@@ -3075,7 +3075,7 @@
       <c r="D7" s="8"/>
     </row>
     <row r="8" spans="1:4" ht="24.75">
-      <c r="A8" s="25"/>
+      <c r="A8" s="29"/>
       <c r="B8" s="7">
         <v>4</v>
       </c>
@@ -3085,7 +3085,7 @@
       <c r="D8" s="8"/>
     </row>
     <row r="9" spans="1:4" ht="24.75">
-      <c r="A9" s="25"/>
+      <c r="A9" s="29"/>
       <c r="B9" s="7">
         <v>5</v>
       </c>
@@ -3095,7 +3095,7 @@
       <c r="D9" s="8"/>
     </row>
     <row r="10" spans="1:4" ht="24.75">
-      <c r="A10" s="25"/>
+      <c r="A10" s="29"/>
       <c r="B10" s="7">
         <v>6</v>
       </c>
@@ -3105,7 +3105,7 @@
       <c r="D10" s="8"/>
     </row>
     <row r="11" spans="1:4" ht="24.75">
-      <c r="A11" s="25"/>
+      <c r="A11" s="29"/>
       <c r="B11" s="7">
         <v>8</v>
       </c>
@@ -3115,7 +3115,7 @@
       <c r="D11" s="8"/>
     </row>
     <row r="12" spans="1:4" ht="24.75">
-      <c r="A12" s="25"/>
+      <c r="A12" s="29"/>
       <c r="B12" s="7">
         <v>10</v>
       </c>
@@ -3125,7 +3125,7 @@
       <c r="D12" s="8"/>
     </row>
     <row r="13" spans="1:4" ht="24.75">
-      <c r="A13" s="25"/>
+      <c r="A13" s="29"/>
       <c r="B13" s="7" t="s">
         <v>18</v>
       </c>
@@ -3135,7 +3135,7 @@
       <c r="D13" s="8"/>
     </row>
     <row r="14" spans="1:4" ht="24.75">
-      <c r="A14" s="25" t="s">
+      <c r="A14" s="29" t="s">
         <v>20</v>
       </c>
       <c r="B14" s="7" t="s">
@@ -3147,7 +3147,7 @@
       <c r="D14" s="8"/>
     </row>
     <row r="15" spans="1:4" ht="24.75">
-      <c r="A15" s="25"/>
+      <c r="A15" s="29"/>
       <c r="B15" s="7" t="s">
         <v>23</v>
       </c>
@@ -3157,7 +3157,7 @@
       <c r="D15" s="8"/>
     </row>
     <row r="16" spans="1:4" ht="24.75">
-      <c r="A16" s="25"/>
+      <c r="A16" s="29"/>
       <c r="B16" s="7" t="s">
         <v>25</v>
       </c>
@@ -3167,7 +3167,7 @@
       <c r="D16" s="8"/>
     </row>
     <row r="17" spans="1:4" ht="24.75">
-      <c r="A17" s="25"/>
+      <c r="A17" s="29"/>
       <c r="B17" s="7" t="s">
         <v>27</v>
       </c>
@@ -3177,7 +3177,7 @@
       <c r="D17" s="8"/>
     </row>
     <row r="18" spans="1:4" ht="24.75">
-      <c r="A18" s="25"/>
+      <c r="A18" s="29"/>
       <c r="B18" s="7" t="s">
         <v>18</v>
       </c>
@@ -3187,7 +3187,7 @@
       <c r="D18" s="8"/>
     </row>
     <row r="19" spans="1:4" ht="24.75">
-      <c r="A19" s="25" t="s">
+      <c r="A19" s="29" t="s">
         <v>29</v>
       </c>
       <c r="B19" s="7">
@@ -3199,7 +3199,7 @@
       <c r="D19" s="8"/>
     </row>
     <row r="20" spans="1:4" ht="24.75">
-      <c r="A20" s="25"/>
+      <c r="A20" s="29"/>
       <c r="B20" s="7">
         <v>100</v>
       </c>
@@ -3209,7 +3209,7 @@
       <c r="D20" s="8"/>
     </row>
     <row r="21" spans="1:4" ht="24.75">
-      <c r="A21" s="25"/>
+      <c r="A21" s="29"/>
       <c r="B21" s="7">
         <v>150</v>
       </c>
@@ -3219,7 +3219,7 @@
       <c r="D21" s="8"/>
     </row>
     <row r="22" spans="1:4" ht="24.75">
-      <c r="A22" s="25"/>
+      <c r="A22" s="29"/>
       <c r="B22" s="7">
         <v>200</v>
       </c>
@@ -3229,7 +3229,7 @@
       <c r="D22" s="8"/>
     </row>
     <row r="23" spans="1:4" ht="24.75">
-      <c r="A23" s="25"/>
+      <c r="A23" s="29"/>
       <c r="B23" s="7" t="s">
         <v>34</v>
       </c>
@@ -3239,7 +3239,7 @@
       <c r="D23" s="8"/>
     </row>
     <row r="24" spans="1:4" ht="24.75">
-      <c r="A24" s="25" t="s">
+      <c r="A24" s="29" t="s">
         <v>36</v>
       </c>
       <c r="B24" s="7">
@@ -3251,7 +3251,7 @@
       <c r="D24" s="8"/>
     </row>
     <row r="25" spans="1:4" ht="24.75">
-      <c r="A25" s="25"/>
+      <c r="A25" s="29"/>
       <c r="B25" s="7">
         <v>4</v>
       </c>
@@ -3261,7 +3261,7 @@
       <c r="D25" s="8"/>
     </row>
     <row r="26" spans="1:4" ht="24.75">
-      <c r="A26" s="25"/>
+      <c r="A26" s="29"/>
       <c r="B26" s="7" t="s">
         <v>39</v>
       </c>
@@ -3271,7 +3271,7 @@
       <c r="D26" s="8"/>
     </row>
     <row r="27" spans="1:4" ht="24.75">
-      <c r="A27" s="25"/>
+      <c r="A27" s="29"/>
       <c r="B27" s="7" t="s">
         <v>41</v>
       </c>
@@ -3281,7 +3281,7 @@
       <c r="D27" s="8"/>
     </row>
     <row r="28" spans="1:4" ht="24.75">
-      <c r="A28" s="25"/>
+      <c r="A28" s="29"/>
       <c r="B28" s="7" t="s">
         <v>43</v>
       </c>
@@ -3291,7 +3291,7 @@
       <c r="D28" s="8"/>
     </row>
     <row r="29" spans="1:4" ht="24.75">
-      <c r="A29" s="25"/>
+      <c r="A29" s="29"/>
       <c r="B29" s="7" t="s">
         <v>45</v>
       </c>
@@ -3301,7 +3301,7 @@
       <c r="D29" s="8"/>
     </row>
     <row r="30" spans="1:4" ht="24.75">
-      <c r="A30" s="25"/>
+      <c r="A30" s="29"/>
       <c r="B30" s="7" t="s">
         <v>18</v>
       </c>
@@ -3311,7 +3311,7 @@
       <c r="D30" s="8"/>
     </row>
     <row r="31" spans="1:4" ht="24.75">
-      <c r="A31" s="25" t="s">
+      <c r="A31" s="29" t="s">
         <v>47</v>
       </c>
       <c r="B31" s="7">
@@ -3323,7 +3323,7 @@
       <c r="D31" s="8"/>
     </row>
     <row r="32" spans="1:4" ht="24.75">
-      <c r="A32" s="25"/>
+      <c r="A32" s="29"/>
       <c r="B32" s="7">
         <v>-2</v>
       </c>
@@ -3333,7 +3333,7 @@
       <c r="D32" s="8"/>
     </row>
     <row r="33" spans="1:4" ht="24.75">
-      <c r="A33" s="25"/>
+      <c r="A33" s="29"/>
       <c r="B33" s="7">
         <v>-3</v>
       </c>
@@ -3343,7 +3343,7 @@
       <c r="D33" s="8"/>
     </row>
     <row r="34" spans="1:4" ht="24.75">
-      <c r="A34" s="25" t="s">
+      <c r="A34" s="29" t="s">
         <v>51</v>
       </c>
       <c r="B34" s="7">
@@ -3355,7 +3355,7 @@
       <c r="D34" s="8"/>
     </row>
     <row r="35" spans="1:4" ht="24.75">
-      <c r="A35" s="25"/>
+      <c r="A35" s="29"/>
       <c r="B35" s="7">
         <v>2</v>
       </c>
@@ -3365,7 +3365,7 @@
       <c r="D35" s="8"/>
     </row>
     <row r="36" spans="1:4" ht="24.75">
-      <c r="A36" s="25" t="s">
+      <c r="A36" s="29" t="s">
         <v>54</v>
       </c>
       <c r="B36" s="7">
@@ -3377,7 +3377,7 @@
       <c r="D36" s="8"/>
     </row>
     <row r="37" spans="1:4" ht="24.75">
-      <c r="A37" s="25"/>
+      <c r="A37" s="29"/>
       <c r="B37" s="7">
         <v>1</v>
       </c>
@@ -3387,7 +3387,7 @@
       <c r="D37" s="8"/>
     </row>
     <row r="38" spans="1:4" ht="24.75">
-      <c r="A38" s="25"/>
+      <c r="A38" s="29"/>
       <c r="B38" s="7">
         <v>2</v>
       </c>
@@ -3397,7 +3397,7 @@
       <c r="D38" s="8"/>
     </row>
     <row r="39" spans="1:4" ht="24.75">
-      <c r="A39" s="25"/>
+      <c r="A39" s="29"/>
       <c r="B39" s="7">
         <v>3</v>
       </c>
@@ -3407,7 +3407,7 @@
       <c r="D39" s="8"/>
     </row>
     <row r="40" spans="1:4" ht="24.75">
-      <c r="A40" s="25"/>
+      <c r="A40" s="29"/>
       <c r="B40" s="7">
         <v>4</v>
       </c>
@@ -3417,7 +3417,7 @@
       <c r="D40" s="8"/>
     </row>
     <row r="41" spans="1:4" ht="24.75">
-      <c r="A41" s="25"/>
+      <c r="A41" s="29"/>
       <c r="B41" s="7">
         <v>5</v>
       </c>
@@ -3427,7 +3427,7 @@
       <c r="D41" s="8"/>
     </row>
     <row r="42" spans="1:4" ht="24.75">
-      <c r="A42" s="25"/>
+      <c r="A42" s="29"/>
       <c r="B42" s="7">
         <v>6</v>
       </c>
@@ -3449,7 +3449,7 @@
       <c r="D43" s="8"/>
     </row>
     <row r="44" spans="1:4" ht="148.5">
-      <c r="A44" s="25" t="s">
+      <c r="A44" s="29" t="s">
         <v>65</v>
       </c>
       <c r="B44" s="7" t="s">
@@ -3461,7 +3461,7 @@
       <c r="D44" s="8"/>
     </row>
     <row r="45" spans="1:4" ht="148.5">
-      <c r="A45" s="25"/>
+      <c r="A45" s="29"/>
       <c r="B45" s="7" t="s">
         <v>68</v>
       </c>
@@ -3471,7 +3471,7 @@
       <c r="D45" s="8"/>
     </row>
     <row r="46" spans="1:4" ht="24.75">
-      <c r="A46" s="25"/>
+      <c r="A46" s="29"/>
       <c r="B46" s="7" t="s">
         <v>70</v>
       </c>
@@ -3481,7 +3481,7 @@
       <c r="D46" s="8"/>
     </row>
     <row r="47" spans="1:4" ht="24.75">
-      <c r="A47" s="25"/>
+      <c r="A47" s="29"/>
       <c r="B47" s="7" t="s">
         <v>72</v>
       </c>
@@ -3491,7 +3491,7 @@
       <c r="D47" s="8"/>
     </row>
     <row r="48" spans="1:4" ht="24.75">
-      <c r="A48" s="25"/>
+      <c r="A48" s="29"/>
       <c r="B48" s="7" t="s">
         <v>74</v>
       </c>
@@ -3501,7 +3501,7 @@
       <c r="D48" s="8"/>
     </row>
     <row r="49" spans="1:4" ht="24.75">
-      <c r="A49" s="25"/>
+      <c r="A49" s="29"/>
       <c r="B49" s="7" t="s">
         <v>76</v>
       </c>
@@ -3519,16 +3519,16 @@
       <c r="D52" s="30"/>
     </row>
     <row r="53" spans="1:4" ht="25.5">
-      <c r="A53" s="51" t="s">
+      <c r="A53" s="25" t="s">
         <v>504</v>
       </c>
-      <c r="B53" s="51" t="s">
+      <c r="B53" s="25" t="s">
         <v>500</v>
       </c>
-      <c r="C53" s="51" t="s">
+      <c r="C53" s="25" t="s">
         <v>497</v>
       </c>
-      <c r="D53" s="51" t="s">
+      <c r="D53" s="25" t="s">
         <v>503</v>
       </c>
     </row>
@@ -3555,7 +3555,7 @@
       <c r="D55" s="8"/>
     </row>
     <row r="56" spans="1:4">
-      <c r="A56" s="29" t="s">
+      <c r="A56" s="28" t="s">
         <v>82</v>
       </c>
       <c r="B56" s="9" t="s">
@@ -3567,7 +3567,7 @@
       <c r="D56" s="8"/>
     </row>
     <row r="57" spans="1:4">
-      <c r="A57" s="29"/>
+      <c r="A57" s="28"/>
       <c r="B57" s="9" t="s">
         <v>9</v>
       </c>
@@ -3577,7 +3577,7 @@
       <c r="D57" s="8"/>
     </row>
     <row r="58" spans="1:4">
-      <c r="A58" s="29" t="s">
+      <c r="A58" s="28" t="s">
         <v>85</v>
       </c>
       <c r="B58" s="9">
@@ -3589,7 +3589,7 @@
       <c r="D58" s="8"/>
     </row>
     <row r="59" spans="1:4">
-      <c r="A59" s="29"/>
+      <c r="A59" s="28"/>
       <c r="B59" s="9">
         <v>5</v>
       </c>
@@ -3599,7 +3599,7 @@
       <c r="D59" s="8"/>
     </row>
     <row r="60" spans="1:4">
-      <c r="A60" s="29"/>
+      <c r="A60" s="28"/>
       <c r="B60" s="9">
         <v>6</v>
       </c>
@@ -3609,7 +3609,7 @@
       <c r="D60" s="8"/>
     </row>
     <row r="61" spans="1:4">
-      <c r="A61" s="29" t="s">
+      <c r="A61" s="28" t="s">
         <v>89</v>
       </c>
       <c r="B61" s="9" t="s">
@@ -3621,7 +3621,7 @@
       <c r="D61" s="8"/>
     </row>
     <row r="62" spans="1:4">
-      <c r="A62" s="29"/>
+      <c r="A62" s="28"/>
       <c r="B62" s="9" t="s">
         <v>91</v>
       </c>
@@ -3631,7 +3631,7 @@
       <c r="D62" s="8"/>
     </row>
     <row r="63" spans="1:4">
-      <c r="A63" s="29"/>
+      <c r="A63" s="28"/>
       <c r="B63" s="9" t="s">
         <v>23</v>
       </c>
@@ -3641,7 +3641,7 @@
       <c r="D63" s="8"/>
     </row>
     <row r="64" spans="1:4">
-      <c r="A64" s="29" t="s">
+      <c r="A64" s="28" t="s">
         <v>94</v>
       </c>
       <c r="B64" s="9">
@@ -3653,7 +3653,7 @@
       <c r="D64" s="8"/>
     </row>
     <row r="65" spans="1:4">
-      <c r="A65" s="29"/>
+      <c r="A65" s="28"/>
       <c r="B65" s="9">
         <v>4</v>
       </c>
@@ -3663,7 +3663,7 @@
       <c r="D65" s="8"/>
     </row>
     <row r="66" spans="1:4">
-      <c r="A66" s="29"/>
+      <c r="A66" s="28"/>
       <c r="B66" s="9" t="s">
         <v>39</v>
       </c>
@@ -3673,7 +3673,7 @@
       <c r="D66" s="8"/>
     </row>
     <row r="67" spans="1:4">
-      <c r="A67" s="29"/>
+      <c r="A67" s="28"/>
       <c r="B67" s="9" t="s">
         <v>43</v>
       </c>
@@ -3695,7 +3695,7 @@
       <c r="D68" s="8"/>
     </row>
     <row r="69" spans="1:4">
-      <c r="A69" s="29" t="s">
+      <c r="A69" s="28" t="s">
         <v>100</v>
       </c>
       <c r="B69" s="9" t="s">
@@ -3707,7 +3707,7 @@
       <c r="D69" s="8"/>
     </row>
     <row r="70" spans="1:4">
-      <c r="A70" s="29"/>
+      <c r="A70" s="28"/>
       <c r="B70" s="9" t="s">
         <v>102</v>
       </c>
@@ -3754,6 +3754,14 @@
     </row>
   </sheetData>
   <mergeCells count="16">
+    <mergeCell ref="A24:A30"/>
+    <mergeCell ref="A31:A33"/>
+    <mergeCell ref="A34:A35"/>
+    <mergeCell ref="A1:D1"/>
+    <mergeCell ref="A5:A6"/>
+    <mergeCell ref="A7:A13"/>
+    <mergeCell ref="A14:A18"/>
+    <mergeCell ref="A19:A23"/>
     <mergeCell ref="A69:A70"/>
     <mergeCell ref="A36:A42"/>
     <mergeCell ref="A44:A49"/>
@@ -3762,14 +3770,6 @@
     <mergeCell ref="A61:A63"/>
     <mergeCell ref="A64:A67"/>
     <mergeCell ref="A52:D52"/>
-    <mergeCell ref="A24:A30"/>
-    <mergeCell ref="A31:A33"/>
-    <mergeCell ref="A34:A35"/>
-    <mergeCell ref="A1:D1"/>
-    <mergeCell ref="A5:A6"/>
-    <mergeCell ref="A7:A13"/>
-    <mergeCell ref="A14:A18"/>
-    <mergeCell ref="A19:A23"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -3780,8 +3780,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{17B63BF4-D215-4CE9-8F3E-45898E4D033A}">
   <dimension ref="A1:F115"/>
   <sheetViews>
-    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="F33" sqref="F33"/>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection sqref="A1:D1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="18"/>
@@ -3794,24 +3794,24 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" ht="35.25">
-      <c r="A1" s="32" t="s">
+      <c r="A1" s="37" t="s">
         <v>305</v>
       </c>
-      <c r="B1" s="33"/>
-      <c r="C1" s="33"/>
-      <c r="D1" s="33"/>
-    </row>
-    <row r="2" spans="1:4" s="52" customFormat="1" ht="25.5">
-      <c r="A2" s="51" t="s">
+      <c r="B1" s="38"/>
+      <c r="C1" s="38"/>
+      <c r="D1" s="38"/>
+    </row>
+    <row r="2" spans="1:4" s="26" customFormat="1" ht="25.5">
+      <c r="A2" s="25" t="s">
         <v>504</v>
       </c>
-      <c r="B2" s="51" t="s">
+      <c r="B2" s="25" t="s">
         <v>110</v>
       </c>
-      <c r="C2" s="51" t="s">
+      <c r="C2" s="25" t="s">
         <v>1</v>
       </c>
-      <c r="D2" s="51" t="s">
+      <c r="D2" s="25" t="s">
         <v>0</v>
       </c>
     </row>
@@ -3834,7 +3834,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="5" spans="1:4" ht="324">
+    <row r="5" spans="1:4" ht="270">
       <c r="A5" s="10" t="s">
         <v>120</v>
       </c>
@@ -3845,7 +3845,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="6" spans="1:4" ht="270">
+    <row r="6" spans="1:4" ht="198">
       <c r="A6" s="10" t="s">
         <v>120</v>
       </c>
@@ -3857,28 +3857,28 @@
       </c>
     </row>
     <row r="8" spans="1:4" ht="35.25">
-      <c r="A8" s="32" t="s">
+      <c r="A8" s="37" t="s">
         <v>306</v>
       </c>
-      <c r="B8" s="33"/>
-      <c r="C8" s="33"/>
-      <c r="D8" s="33"/>
-    </row>
-    <row r="9" spans="1:4" s="52" customFormat="1" ht="25.5">
-      <c r="A9" s="51" t="s">
+      <c r="B8" s="38"/>
+      <c r="C8" s="38"/>
+      <c r="D8" s="38"/>
+    </row>
+    <row r="9" spans="1:4" s="26" customFormat="1" ht="25.5">
+      <c r="A9" s="25" t="s">
         <v>504</v>
       </c>
-      <c r="B9" s="51" t="s">
+      <c r="B9" s="25" t="s">
         <v>110</v>
       </c>
-      <c r="C9" s="51" t="s">
+      <c r="C9" s="25" t="s">
         <v>1</v>
       </c>
-      <c r="D9" s="51" t="s">
+      <c r="D9" s="25" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:4" ht="162">
+    <row r="10" spans="1:4" ht="252">
       <c r="A10" s="13" t="s">
         <v>124</v>
       </c>
@@ -3892,8 +3892,8 @@
         <v>309</v>
       </c>
     </row>
-    <row r="11" spans="1:4" ht="36">
-      <c r="A11" s="34" t="s">
+    <row r="11" spans="1:4">
+      <c r="A11" s="44" t="s">
         <v>112</v>
       </c>
       <c r="B11" s="13" t="s">
@@ -3903,8 +3903,8 @@
         <v>127</v>
       </c>
     </row>
-    <row r="12" spans="1:4" ht="36">
-      <c r="A12" s="34"/>
+    <row r="12" spans="1:4">
+      <c r="A12" s="44"/>
       <c r="B12" s="14" t="s">
         <v>128</v>
       </c>
@@ -3912,8 +3912,8 @@
         <v>310</v>
       </c>
     </row>
-    <row r="13" spans="1:4" ht="306">
-      <c r="A13" s="34" t="s">
+    <row r="13" spans="1:4" ht="162">
+      <c r="A13" s="44" t="s">
         <v>119</v>
       </c>
       <c r="B13" s="13" t="s">
@@ -3923,8 +3923,8 @@
         <v>129</v>
       </c>
     </row>
-    <row r="14" spans="1:4" ht="234">
-      <c r="A14" s="34"/>
+    <row r="14" spans="1:4" ht="126">
+      <c r="A14" s="44"/>
       <c r="B14" s="13" t="s">
         <v>115</v>
       </c>
@@ -3932,8 +3932,8 @@
         <v>311</v>
       </c>
     </row>
-    <row r="15" spans="1:4" ht="288">
-      <c r="A15" s="34"/>
+    <row r="15" spans="1:4" ht="144">
+      <c r="A15" s="44"/>
       <c r="B15" s="13" t="s">
         <v>130</v>
       </c>
@@ -3942,24 +3942,24 @@
       </c>
     </row>
     <row r="16" spans="1:4" ht="35.25">
-      <c r="A16" s="32" t="s">
+      <c r="A16" s="37" t="s">
         <v>415</v>
       </c>
-      <c r="B16" s="33"/>
-      <c r="C16" s="33"/>
-      <c r="D16" s="33"/>
-    </row>
-    <row r="17" spans="1:4" s="52" customFormat="1" ht="25.5">
-      <c r="A17" s="51" t="s">
+      <c r="B16" s="38"/>
+      <c r="C16" s="38"/>
+      <c r="D16" s="38"/>
+    </row>
+    <row r="17" spans="1:4" s="26" customFormat="1" ht="25.5">
+      <c r="A17" s="25" t="s">
         <v>504</v>
       </c>
-      <c r="B17" s="51" t="s">
+      <c r="B17" s="25" t="s">
         <v>110</v>
       </c>
-      <c r="C17" s="51" t="s">
+      <c r="C17" s="25" t="s">
         <v>1</v>
       </c>
-      <c r="D17" s="51" t="s">
+      <c r="D17" s="25" t="s">
         <v>0</v>
       </c>
     </row>
@@ -4012,24 +4012,24 @@
       <c r="D21" s="15"/>
     </row>
     <row r="22" spans="1:4" ht="35.25">
-      <c r="A22" s="32" t="s">
+      <c r="A22" s="37" t="s">
         <v>416</v>
       </c>
-      <c r="B22" s="33"/>
-      <c r="C22" s="33"/>
-      <c r="D22" s="33"/>
-    </row>
-    <row r="23" spans="1:4" s="52" customFormat="1" ht="25.5">
-      <c r="A23" s="51" t="s">
+      <c r="B22" s="38"/>
+      <c r="C22" s="38"/>
+      <c r="D22" s="38"/>
+    </row>
+    <row r="23" spans="1:4" s="26" customFormat="1" ht="25.5">
+      <c r="A23" s="25" t="s">
         <v>504</v>
       </c>
-      <c r="B23" s="51" t="s">
+      <c r="B23" s="25" t="s">
         <v>110</v>
       </c>
-      <c r="C23" s="51" t="s">
+      <c r="C23" s="25" t="s">
         <v>1</v>
       </c>
-      <c r="D23" s="51" t="s">
+      <c r="D23" s="25" t="s">
         <v>0</v>
       </c>
     </row>
@@ -4081,7 +4081,7 @@
       </c>
       <c r="D27" s="15"/>
     </row>
-    <row r="28" spans="1:4" ht="36.75" thickBot="1">
+    <row r="28" spans="1:4" ht="54.75" thickBot="1">
       <c r="A28" s="15" t="s">
         <v>425</v>
       </c>
@@ -4095,7 +4095,7 @@
         <v>454</v>
       </c>
     </row>
-    <row r="29" spans="1:4" ht="18.75" thickBot="1">
+    <row r="29" spans="1:4" ht="36.75" thickBot="1">
       <c r="A29" s="17" t="s">
         <v>428</v>
       </c>
@@ -4107,7 +4107,7 @@
       </c>
       <c r="D29" s="15"/>
     </row>
-    <row r="30" spans="1:4" ht="18.75" thickBot="1">
+    <row r="30" spans="1:4" ht="36.75" thickBot="1">
       <c r="A30" s="18" t="s">
         <v>428</v>
       </c>
@@ -4119,7 +4119,7 @@
       </c>
       <c r="D30" s="15"/>
     </row>
-    <row r="31" spans="1:4" ht="18.75" thickBot="1">
+    <row r="31" spans="1:4" ht="36.75" thickBot="1">
       <c r="A31" s="17" t="s">
         <v>431</v>
       </c>
@@ -4131,7 +4131,7 @@
       </c>
       <c r="D31" s="15"/>
     </row>
-    <row r="32" spans="1:4" ht="18.75" thickBot="1">
+    <row r="32" spans="1:4" ht="36.75" thickBot="1">
       <c r="A32" s="18" t="s">
         <v>431</v>
       </c>
@@ -4191,7 +4191,7 @@
       </c>
       <c r="D36" s="15"/>
     </row>
-    <row r="37" spans="1:5" ht="18.75" thickBot="1">
+    <row r="37" spans="1:5" ht="36.75" thickBot="1">
       <c r="A37" s="18" t="s">
         <v>441</v>
       </c>
@@ -4255,7 +4255,7 @@
       </c>
       <c r="D41" s="15"/>
     </row>
-    <row r="42" spans="1:5" ht="18.75" thickBot="1">
+    <row r="42" spans="1:5" ht="36.75" thickBot="1">
       <c r="A42" s="18" t="s">
         <v>446</v>
       </c>
@@ -4267,7 +4267,7 @@
       </c>
       <c r="D42" s="15"/>
     </row>
-    <row r="43" spans="1:5" ht="18.75" thickBot="1">
+    <row r="43" spans="1:5" ht="36.75" thickBot="1">
       <c r="A43" s="17" t="s">
         <v>119</v>
       </c>
@@ -4280,25 +4280,25 @@
       <c r="D43" s="15"/>
     </row>
     <row r="44" spans="1:5" ht="35.25">
-      <c r="A44" s="32" t="s">
+      <c r="A44" s="37" t="s">
         <v>485</v>
       </c>
-      <c r="B44" s="33"/>
-      <c r="C44" s="33"/>
-      <c r="D44" s="33"/>
-    </row>
-    <row r="45" spans="1:5" s="52" customFormat="1" ht="39.6" customHeight="1">
-      <c r="A45" s="51" t="s">
+      <c r="B44" s="38"/>
+      <c r="C44" s="38"/>
+      <c r="D44" s="38"/>
+    </row>
+    <row r="45" spans="1:5" s="26" customFormat="1" ht="39.6" customHeight="1">
+      <c r="A45" s="25" t="s">
         <v>504</v>
       </c>
-      <c r="B45" s="53" t="s">
+      <c r="B45" s="27" t="s">
         <v>501</v>
       </c>
-      <c r="C45" s="54" t="s">
+      <c r="C45" s="39" t="s">
         <v>502</v>
       </c>
-      <c r="D45" s="54"/>
-      <c r="E45" s="53" t="s">
+      <c r="D45" s="39"/>
+      <c r="E45" s="27" t="s">
         <v>313</v>
       </c>
     </row>
@@ -4309,53 +4309,53 @@
       <c r="B46" s="19" t="s">
         <v>432</v>
       </c>
-      <c r="C46" s="35" t="s">
+      <c r="C46" s="40" t="s">
         <v>456</v>
       </c>
-      <c r="D46" s="35"/>
-      <c r="E46" s="39" t="s">
+      <c r="D46" s="40"/>
+      <c r="E46" s="41" t="s">
         <v>457</v>
       </c>
     </row>
     <row r="47" spans="1:5">
-      <c r="A47" s="35" t="s">
+      <c r="A47" s="40" t="s">
         <v>355</v>
       </c>
       <c r="B47" s="19" t="s">
         <v>356</v>
       </c>
-      <c r="C47" s="35" t="s">
+      <c r="C47" s="40" t="s">
         <v>458</v>
       </c>
       <c r="D47" s="19" t="s">
         <v>459</v>
       </c>
-      <c r="E47" s="35"/>
+      <c r="E47" s="40"/>
     </row>
     <row r="48" spans="1:5">
-      <c r="A48" s="35"/>
+      <c r="A48" s="40"/>
       <c r="B48" s="19" t="s">
         <v>460</v>
       </c>
-      <c r="C48" s="35"/>
+      <c r="C48" s="40"/>
       <c r="D48" s="19" t="s">
         <v>461</v>
       </c>
-      <c r="E48" s="35"/>
+      <c r="E48" s="40"/>
     </row>
     <row r="49" spans="1:5">
-      <c r="A49" s="35"/>
+      <c r="A49" s="40"/>
       <c r="B49" s="19" t="s">
         <v>357</v>
       </c>
-      <c r="C49" s="35"/>
+      <c r="C49" s="40"/>
       <c r="D49" s="19" t="s">
         <v>462</v>
       </c>
-      <c r="E49" s="35"/>
+      <c r="E49" s="40"/>
     </row>
     <row r="50" spans="1:5">
-      <c r="A50" s="35"/>
+      <c r="A50" s="40"/>
       <c r="B50" s="19" t="s">
         <v>463</v>
       </c>
@@ -4365,10 +4365,10 @@
       <c r="D50" s="19" t="s">
         <v>465</v>
       </c>
-      <c r="E50" s="35"/>
+      <c r="E50" s="40"/>
     </row>
     <row r="51" spans="1:5">
-      <c r="A51" s="35"/>
+      <c r="A51" s="40"/>
       <c r="B51" s="19" t="s">
         <v>358</v>
       </c>
@@ -4378,7 +4378,7 @@
       <c r="D51" s="19" t="s">
         <v>467</v>
       </c>
-      <c r="E51" s="35"/>
+      <c r="E51" s="40"/>
     </row>
     <row r="52" spans="1:5">
       <c r="A52" s="19" t="s">
@@ -4387,37 +4387,37 @@
       <c r="B52" s="19" t="s">
         <v>469</v>
       </c>
-      <c r="C52" s="35" t="s">
+      <c r="C52" s="40" t="s">
         <v>359</v>
       </c>
-      <c r="D52" s="35"/>
-      <c r="E52" s="35"/>
+      <c r="D52" s="40"/>
+      <c r="E52" s="40"/>
     </row>
     <row r="53" spans="1:5">
-      <c r="A53" s="35" t="s">
+      <c r="A53" s="40" t="s">
         <v>470</v>
       </c>
       <c r="B53" s="19" t="s">
         <v>362</v>
       </c>
-      <c r="C53" s="35" t="s">
+      <c r="C53" s="40" t="s">
         <v>361</v>
       </c>
       <c r="D53" s="19" t="s">
         <v>471</v>
       </c>
-      <c r="E53" s="35"/>
+      <c r="E53" s="40"/>
     </row>
     <row r="54" spans="1:5">
-      <c r="A54" s="35"/>
+      <c r="A54" s="40"/>
       <c r="B54" s="19" t="s">
         <v>363</v>
       </c>
-      <c r="C54" s="35"/>
+      <c r="C54" s="40"/>
       <c r="D54" s="19" t="s">
         <v>472</v>
       </c>
-      <c r="E54" s="35"/>
+      <c r="E54" s="40"/>
     </row>
     <row r="55" spans="1:5">
       <c r="A55" s="19" t="s">
@@ -4426,11 +4426,11 @@
       <c r="B55" s="19" t="s">
         <v>474</v>
       </c>
-      <c r="C55" s="35" t="s">
+      <c r="C55" s="40" t="s">
         <v>475</v>
       </c>
-      <c r="D55" s="35"/>
-      <c r="E55" s="35"/>
+      <c r="D55" s="40"/>
+      <c r="E55" s="40"/>
     </row>
     <row r="56" spans="1:5">
       <c r="A56" s="19" t="s">
@@ -4439,11 +4439,11 @@
       <c r="B56" s="19" t="s">
         <v>365</v>
       </c>
-      <c r="C56" s="35" t="s">
+      <c r="C56" s="40" t="s">
         <v>364</v>
       </c>
-      <c r="D56" s="35"/>
-      <c r="E56" s="35"/>
+      <c r="D56" s="40"/>
+      <c r="E56" s="40"/>
     </row>
     <row r="57" spans="1:5">
       <c r="A57" s="19" t="s">
@@ -4452,11 +4452,11 @@
       <c r="B57" s="19" t="s">
         <v>477</v>
       </c>
-      <c r="C57" s="35" t="s">
+      <c r="C57" s="40" t="s">
         <v>478</v>
       </c>
-      <c r="D57" s="35"/>
-      <c r="E57" s="35"/>
+      <c r="D57" s="40"/>
+      <c r="E57" s="40"/>
     </row>
     <row r="58" spans="1:5">
       <c r="A58" s="19" t="s">
@@ -4465,60 +4465,60 @@
       <c r="B58" s="19" t="s">
         <v>369</v>
       </c>
-      <c r="C58" s="35" t="s">
+      <c r="C58" s="40" t="s">
         <v>480</v>
       </c>
-      <c r="D58" s="35"/>
-      <c r="E58" s="35"/>
+      <c r="D58" s="40"/>
+      <c r="E58" s="40"/>
     </row>
     <row r="59" spans="1:5">
-      <c r="A59" s="35" t="s">
+      <c r="A59" s="40" t="s">
         <v>481</v>
       </c>
       <c r="B59" s="19" t="s">
         <v>482</v>
       </c>
-      <c r="C59" s="35" t="s">
+      <c r="C59" s="40" t="s">
         <v>483</v>
       </c>
-      <c r="D59" s="35"/>
-      <c r="E59" s="35"/>
+      <c r="D59" s="40"/>
+      <c r="E59" s="40"/>
     </row>
     <row r="60" spans="1:5">
-      <c r="A60" s="35"/>
+      <c r="A60" s="40"/>
       <c r="B60" s="19" t="s">
         <v>370</v>
       </c>
-      <c r="C60" s="35" t="s">
+      <c r="C60" s="40" t="s">
         <v>484</v>
       </c>
-      <c r="D60" s="35"/>
-      <c r="E60" s="35"/>
+      <c r="D60" s="40"/>
+      <c r="E60" s="40"/>
     </row>
     <row r="61" spans="1:5" ht="35.25">
-      <c r="A61" s="32" t="s">
+      <c r="A61" s="37" t="s">
         <v>489</v>
       </c>
-      <c r="B61" s="33"/>
-      <c r="C61" s="33"/>
-      <c r="D61" s="33"/>
-    </row>
-    <row r="62" spans="1:5" s="52" customFormat="1" ht="25.5">
-      <c r="A62" s="51" t="s">
+      <c r="B61" s="38"/>
+      <c r="C61" s="38"/>
+      <c r="D61" s="38"/>
+    </row>
+    <row r="62" spans="1:5" s="26" customFormat="1" ht="25.5">
+      <c r="A62" s="25" t="s">
         <v>504</v>
       </c>
-      <c r="B62" s="51" t="s">
+      <c r="B62" s="25" t="s">
         <v>110</v>
       </c>
-      <c r="C62" s="51" t="s">
+      <c r="C62" s="25" t="s">
         <v>1</v>
       </c>
-      <c r="D62" s="51" t="s">
+      <c r="D62" s="25" t="s">
         <v>0</v>
       </c>
     </row>
     <row r="63" spans="1:5" ht="135" customHeight="1">
-      <c r="A63" s="35" t="s">
+      <c r="A63" s="40" t="s">
         <v>490</v>
       </c>
       <c r="B63" s="19" t="s">
@@ -4532,7 +4532,7 @@
       </c>
     </row>
     <row r="64" spans="1:5" ht="409.5">
-      <c r="A64" s="35"/>
+      <c r="A64" s="40"/>
       <c r="B64" s="19" t="s">
         <v>402</v>
       </c>
@@ -4542,7 +4542,7 @@
       <c r="D64" s="19"/>
     </row>
     <row r="65" spans="1:4" ht="409.5">
-      <c r="A65" s="35"/>
+      <c r="A65" s="40"/>
       <c r="B65" s="19" t="s">
         <v>403</v>
       </c>
@@ -4552,28 +4552,28 @@
       <c r="D65" s="19"/>
     </row>
     <row r="66" spans="1:4" ht="35.25">
-      <c r="A66" s="31" t="s">
+      <c r="A66" s="43" t="s">
         <v>486</v>
       </c>
-      <c r="B66" s="31"/>
-      <c r="C66" s="31"/>
-      <c r="D66" s="31"/>
-    </row>
-    <row r="67" spans="1:4" s="52" customFormat="1" ht="25.5">
-      <c r="A67" s="51" t="s">
+      <c r="B66" s="43"/>
+      <c r="C66" s="43"/>
+      <c r="D66" s="43"/>
+    </row>
+    <row r="67" spans="1:4" s="26" customFormat="1" ht="25.5">
+      <c r="A67" s="25" t="s">
         <v>504</v>
       </c>
-      <c r="B67" s="51" t="s">
+      <c r="B67" s="25" t="s">
         <v>110</v>
       </c>
-      <c r="C67" s="51" t="s">
+      <c r="C67" s="25" t="s">
         <v>1</v>
       </c>
-      <c r="D67" s="51" t="s">
+      <c r="D67" s="25" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="68" spans="1:4" ht="36">
+    <row r="68" spans="1:4" ht="54">
       <c r="A68" s="10" t="s">
         <v>314</v>
       </c>
@@ -4808,26 +4808,26 @@
       </c>
     </row>
     <row r="90" spans="1:6" ht="35.25">
-      <c r="A90" s="32" t="s">
+      <c r="A90" s="37" t="s">
         <v>487</v>
       </c>
-      <c r="B90" s="33"/>
-      <c r="C90" s="33"/>
-      <c r="D90" s="33"/>
+      <c r="B90" s="38"/>
+      <c r="C90" s="38"/>
+      <c r="D90" s="38"/>
       <c r="F90" s="21"/>
     </row>
-    <row r="91" spans="1:6" s="52" customFormat="1" ht="39.6" customHeight="1">
-      <c r="A91" s="51" t="s">
+    <row r="91" spans="1:6" s="26" customFormat="1" ht="39.6" customHeight="1">
+      <c r="A91" s="25" t="s">
         <v>504</v>
       </c>
-      <c r="B91" s="53" t="s">
+      <c r="B91" s="27" t="s">
         <v>501</v>
       </c>
-      <c r="C91" s="54" t="s">
+      <c r="C91" s="39" t="s">
         <v>502</v>
       </c>
-      <c r="D91" s="54"/>
-      <c r="E91" s="53" t="s">
+      <c r="D91" s="39"/>
+      <c r="E91" s="27" t="s">
         <v>313</v>
       </c>
     </row>
@@ -4838,53 +4838,53 @@
       <c r="B92" s="23" t="s">
         <v>325</v>
       </c>
-      <c r="C92" s="36" t="s">
+      <c r="C92" s="42" t="s">
         <v>371</v>
       </c>
-      <c r="D92" s="36"/>
-      <c r="E92" s="50" t="s">
+      <c r="D92" s="42"/>
+      <c r="E92" s="34" t="s">
         <v>498</v>
       </c>
     </row>
     <row r="93" spans="1:6" ht="18.75">
-      <c r="A93" s="36" t="s">
+      <c r="A93" s="42" t="s">
         <v>355</v>
       </c>
       <c r="B93" s="23" t="s">
         <v>356</v>
       </c>
-      <c r="C93" s="36" t="s">
+      <c r="C93" s="42" t="s">
         <v>372</v>
       </c>
       <c r="D93" s="23" t="s">
         <v>373</v>
       </c>
-      <c r="E93" s="50"/>
-    </row>
-    <row r="94" spans="1:6" ht="18.75">
-      <c r="A94" s="36"/>
+      <c r="E93" s="34"/>
+    </row>
+    <row r="94" spans="1:6" ht="37.5">
+      <c r="A94" s="42"/>
       <c r="B94" s="23" t="s">
         <v>375</v>
       </c>
-      <c r="C94" s="36"/>
+      <c r="C94" s="42"/>
       <c r="D94" s="23" t="s">
         <v>374</v>
       </c>
-      <c r="E94" s="50"/>
+      <c r="E94" s="34"/>
     </row>
     <row r="95" spans="1:6" ht="18.75">
-      <c r="A95" s="36"/>
+      <c r="A95" s="42"/>
       <c r="B95" s="23" t="s">
         <v>357</v>
       </c>
-      <c r="C95" s="36"/>
+      <c r="C95" s="42"/>
       <c r="D95" s="23" t="s">
         <v>376</v>
       </c>
-      <c r="E95" s="50"/>
+      <c r="E95" s="34"/>
     </row>
     <row r="96" spans="1:6" ht="37.5">
-      <c r="A96" s="36"/>
+      <c r="A96" s="42"/>
       <c r="B96" s="23" t="s">
         <v>379</v>
       </c>
@@ -4894,10 +4894,10 @@
       <c r="D96" s="23" t="s">
         <v>378</v>
       </c>
-      <c r="E96" s="50"/>
+      <c r="E96" s="34"/>
     </row>
     <row r="97" spans="1:5" ht="66" customHeight="1">
-      <c r="A97" s="36"/>
+      <c r="A97" s="42"/>
       <c r="B97" s="23" t="s">
         <v>358</v>
       </c>
@@ -4907,59 +4907,59 @@
       <c r="D97" s="23" t="s">
         <v>381</v>
       </c>
-      <c r="E97" s="50"/>
-    </row>
-    <row r="98" spans="1:5" ht="37.5">
+      <c r="E97" s="34"/>
+    </row>
+    <row r="98" spans="1:5" ht="93.75">
       <c r="A98" s="23" t="s">
         <v>382</v>
       </c>
       <c r="B98" s="23" t="s">
         <v>383</v>
       </c>
-      <c r="C98" s="36" t="s">
+      <c r="C98" s="42" t="s">
         <v>359</v>
       </c>
-      <c r="D98" s="36"/>
-      <c r="E98" s="50"/>
-    </row>
-    <row r="99" spans="1:5" ht="37.5">
-      <c r="A99" s="36" t="s">
+      <c r="D98" s="42"/>
+      <c r="E98" s="34"/>
+    </row>
+    <row r="99" spans="1:5" ht="56.25">
+      <c r="A99" s="42" t="s">
         <v>360</v>
       </c>
       <c r="B99" s="23" t="s">
         <v>362</v>
       </c>
-      <c r="C99" s="36" t="s">
+      <c r="C99" s="42" t="s">
         <v>361</v>
       </c>
       <c r="D99" s="23" t="s">
         <v>384</v>
       </c>
-      <c r="E99" s="50"/>
+      <c r="E99" s="34"/>
     </row>
     <row r="100" spans="1:5" ht="39.6" customHeight="1">
-      <c r="A100" s="36"/>
+      <c r="A100" s="42"/>
       <c r="B100" s="23" t="s">
         <v>363</v>
       </c>
-      <c r="C100" s="36"/>
+      <c r="C100" s="42"/>
       <c r="D100" s="23" t="s">
         <v>385</v>
       </c>
-      <c r="E100" s="50"/>
-    </row>
-    <row r="101" spans="1:5" ht="18.75">
+      <c r="E100" s="34"/>
+    </row>
+    <row r="101" spans="1:5" ht="37.5">
       <c r="A101" s="23" t="s">
         <v>386</v>
       </c>
       <c r="B101" s="23" t="s">
         <v>388</v>
       </c>
-      <c r="C101" s="36" t="s">
+      <c r="C101" s="42" t="s">
         <v>387</v>
       </c>
-      <c r="D101" s="36"/>
-      <c r="E101" s="50"/>
+      <c r="D101" s="42"/>
+      <c r="E101" s="34"/>
     </row>
     <row r="102" spans="1:5" ht="26.45" customHeight="1">
       <c r="A102" s="23" t="s">
@@ -4968,11 +4968,11 @@
       <c r="B102" s="23" t="s">
         <v>365</v>
       </c>
-      <c r="C102" s="36" t="s">
+      <c r="C102" s="42" t="s">
         <v>389</v>
       </c>
-      <c r="D102" s="36"/>
-      <c r="E102" s="50"/>
+      <c r="D102" s="42"/>
+      <c r="E102" s="34"/>
     </row>
     <row r="103" spans="1:5" ht="26.45" customHeight="1">
       <c r="A103" s="23" t="s">
@@ -4981,11 +4981,11 @@
       <c r="B103" s="23" t="s">
         <v>392</v>
       </c>
-      <c r="C103" s="36" t="s">
+      <c r="C103" s="42" t="s">
         <v>391</v>
       </c>
-      <c r="D103" s="36"/>
-      <c r="E103" s="50"/>
+      <c r="D103" s="42"/>
+      <c r="E103" s="34"/>
     </row>
     <row r="104" spans="1:5" ht="26.45" customHeight="1">
       <c r="A104" s="23" t="s">
@@ -4994,11 +4994,11 @@
       <c r="B104" s="23" t="s">
         <v>367</v>
       </c>
-      <c r="C104" s="36" t="s">
+      <c r="C104" s="42" t="s">
         <v>393</v>
       </c>
-      <c r="D104" s="36"/>
-      <c r="E104" s="50"/>
+      <c r="D104" s="42"/>
+      <c r="E104" s="34"/>
     </row>
     <row r="105" spans="1:5" ht="26.45" customHeight="1">
       <c r="A105" s="23" t="s">
@@ -5007,60 +5007,60 @@
       <c r="B105" s="23" t="s">
         <v>369</v>
       </c>
-      <c r="C105" s="36" t="s">
+      <c r="C105" s="42" t="s">
         <v>394</v>
       </c>
-      <c r="D105" s="36"/>
-      <c r="E105" s="50"/>
+      <c r="D105" s="42"/>
+      <c r="E105" s="34"/>
     </row>
     <row r="106" spans="1:5" ht="39.6" customHeight="1">
-      <c r="A106" s="36" t="s">
+      <c r="A106" s="42" t="s">
         <v>395</v>
       </c>
       <c r="B106" s="23" t="s">
         <v>397</v>
       </c>
-      <c r="C106" s="36" t="s">
+      <c r="C106" s="42" t="s">
         <v>396</v>
       </c>
-      <c r="D106" s="36"/>
-      <c r="E106" s="50"/>
-    </row>
-    <row r="107" spans="1:5" ht="37.5">
-      <c r="A107" s="36"/>
+      <c r="D106" s="42"/>
+      <c r="E106" s="34"/>
+    </row>
+    <row r="107" spans="1:5" ht="18.75">
+      <c r="A107" s="42"/>
       <c r="B107" s="23" t="s">
         <v>370</v>
       </c>
-      <c r="C107" s="36" t="s">
+      <c r="C107" s="42" t="s">
         <v>398</v>
       </c>
-      <c r="D107" s="36"/>
-      <c r="E107" s="50"/>
+      <c r="D107" s="42"/>
+      <c r="E107" s="34"/>
     </row>
     <row r="109" spans="1:5" ht="35.25">
-      <c r="A109" s="32" t="s">
+      <c r="A109" s="37" t="s">
         <v>488</v>
       </c>
-      <c r="B109" s="33"/>
-      <c r="C109" s="33"/>
-      <c r="D109" s="33"/>
-    </row>
-    <row r="110" spans="1:5" s="52" customFormat="1" ht="25.5">
-      <c r="A110" s="51" t="s">
+      <c r="B109" s="38"/>
+      <c r="C109" s="38"/>
+      <c r="D109" s="38"/>
+    </row>
+    <row r="110" spans="1:5" s="26" customFormat="1" ht="25.5">
+      <c r="A110" s="25" t="s">
         <v>504</v>
       </c>
-      <c r="B110" s="51" t="s">
+      <c r="B110" s="25" t="s">
         <v>110</v>
       </c>
-      <c r="C110" s="51" t="s">
+      <c r="C110" s="25" t="s">
         <v>1</v>
       </c>
-      <c r="D110" s="51" t="s">
+      <c r="D110" s="25" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="111" spans="1:5" ht="198">
-      <c r="A111" s="37" t="s">
+    <row r="111" spans="1:5" ht="126">
+      <c r="A111" s="35" t="s">
         <v>399</v>
       </c>
       <c r="B111" s="24" t="s">
@@ -5073,8 +5073,8 @@
         <v>499</v>
       </c>
     </row>
-    <row r="112" spans="1:5" ht="409.5">
-      <c r="A112" s="38"/>
+    <row r="112" spans="1:5" ht="234">
+      <c r="A112" s="36"/>
       <c r="B112" s="24" t="s">
         <v>402</v>
       </c>
@@ -5082,8 +5082,8 @@
         <v>404</v>
       </c>
     </row>
-    <row r="113" spans="1:4" ht="409.5">
-      <c r="A113" s="38"/>
+    <row r="113" spans="1:4" ht="234">
+      <c r="A113" s="36"/>
       <c r="B113" s="24" t="s">
         <v>403</v>
       </c>
@@ -5104,6 +5104,34 @@
     </row>
   </sheetData>
   <mergeCells count="44">
+    <mergeCell ref="A22:D22"/>
+    <mergeCell ref="C60:D60"/>
+    <mergeCell ref="A61:D61"/>
+    <mergeCell ref="A63:A65"/>
+    <mergeCell ref="A1:D1"/>
+    <mergeCell ref="A8:D8"/>
+    <mergeCell ref="A13:A15"/>
+    <mergeCell ref="A11:A12"/>
+    <mergeCell ref="A16:D16"/>
+    <mergeCell ref="A109:D109"/>
+    <mergeCell ref="C101:D101"/>
+    <mergeCell ref="C102:D102"/>
+    <mergeCell ref="C103:D103"/>
+    <mergeCell ref="C104:D104"/>
+    <mergeCell ref="C105:D105"/>
+    <mergeCell ref="C106:D106"/>
+    <mergeCell ref="C59:D59"/>
+    <mergeCell ref="C107:D107"/>
+    <mergeCell ref="A106:A107"/>
+    <mergeCell ref="C92:D92"/>
+    <mergeCell ref="C91:D91"/>
+    <mergeCell ref="A90:D90"/>
+    <mergeCell ref="A93:A97"/>
+    <mergeCell ref="C93:C95"/>
+    <mergeCell ref="C98:D98"/>
+    <mergeCell ref="A99:A100"/>
+    <mergeCell ref="C99:C100"/>
+    <mergeCell ref="A66:D66"/>
     <mergeCell ref="E92:E107"/>
     <mergeCell ref="A111:A113"/>
     <mergeCell ref="A44:D44"/>
@@ -5120,34 +5148,6 @@
     <mergeCell ref="C57:D57"/>
     <mergeCell ref="C58:D58"/>
     <mergeCell ref="A59:A60"/>
-    <mergeCell ref="C59:D59"/>
-    <mergeCell ref="C107:D107"/>
-    <mergeCell ref="A106:A107"/>
-    <mergeCell ref="C92:D92"/>
-    <mergeCell ref="C91:D91"/>
-    <mergeCell ref="A109:D109"/>
-    <mergeCell ref="C101:D101"/>
-    <mergeCell ref="C102:D102"/>
-    <mergeCell ref="C103:D103"/>
-    <mergeCell ref="C104:D104"/>
-    <mergeCell ref="C105:D105"/>
-    <mergeCell ref="C106:D106"/>
-    <mergeCell ref="A90:D90"/>
-    <mergeCell ref="A93:A97"/>
-    <mergeCell ref="C93:C95"/>
-    <mergeCell ref="C98:D98"/>
-    <mergeCell ref="A99:A100"/>
-    <mergeCell ref="C99:C100"/>
-    <mergeCell ref="A66:D66"/>
-    <mergeCell ref="A1:D1"/>
-    <mergeCell ref="A8:D8"/>
-    <mergeCell ref="A13:A15"/>
-    <mergeCell ref="A11:A12"/>
-    <mergeCell ref="A16:D16"/>
-    <mergeCell ref="A22:D22"/>
-    <mergeCell ref="C60:D60"/>
-    <mergeCell ref="A61:D61"/>
-    <mergeCell ref="A63:A65"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -5172,24 +5172,24 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" ht="20.25">
-      <c r="A1" s="42" t="s">
+      <c r="A1" s="45" t="s">
         <v>297</v>
       </c>
-      <c r="B1" s="43"/>
-      <c r="C1" s="43"/>
-      <c r="D1" s="43"/>
-    </row>
-    <row r="2" spans="1:4" s="52" customFormat="1" ht="25.5">
-      <c r="A2" s="51" t="s">
+      <c r="B1" s="46"/>
+      <c r="C1" s="46"/>
+      <c r="D1" s="46"/>
+    </row>
+    <row r="2" spans="1:4" s="26" customFormat="1" ht="25.5">
+      <c r="A2" s="25" t="s">
         <v>504</v>
       </c>
-      <c r="B2" s="51" t="s">
+      <c r="B2" s="25" t="s">
         <v>110</v>
       </c>
-      <c r="C2" s="51" t="s">
+      <c r="C2" s="25" t="s">
         <v>1</v>
       </c>
-      <c r="D2" s="51" t="s">
+      <c r="D2" s="25" t="s">
         <v>0</v>
       </c>
     </row>
@@ -5206,7 +5206,7 @@
       </c>
     </row>
     <row r="4" spans="1:4">
-      <c r="A4" s="41" t="s">
+      <c r="A4" s="49" t="s">
         <v>135</v>
       </c>
       <c r="B4" s="2" t="s">
@@ -5215,32 +5215,32 @@
       <c r="C4" s="1" t="s">
         <v>137</v>
       </c>
-      <c r="D4" s="40" t="s">
+      <c r="D4" s="48" t="s">
         <v>505</v>
       </c>
     </row>
     <row r="5" spans="1:4">
-      <c r="A5" s="41"/>
+      <c r="A5" s="49"/>
       <c r="B5" s="2" t="s">
         <v>138</v>
       </c>
       <c r="C5" s="1" t="s">
         <v>139</v>
       </c>
-      <c r="D5" s="40"/>
+      <c r="D5" s="48"/>
     </row>
     <row r="6" spans="1:4">
-      <c r="A6" s="41"/>
+      <c r="A6" s="49"/>
       <c r="B6" s="2" t="s">
         <v>140</v>
       </c>
       <c r="C6" s="1" t="s">
         <v>141</v>
       </c>
-      <c r="D6" s="40"/>
+      <c r="D6" s="48"/>
     </row>
     <row r="7" spans="1:4">
-      <c r="A7" s="41" t="s">
+      <c r="A7" s="49" t="s">
         <v>142</v>
       </c>
       <c r="B7" s="2" t="s">
@@ -5249,30 +5249,30 @@
       <c r="C7" s="1" t="s">
         <v>137</v>
       </c>
-      <c r="D7" s="40"/>
+      <c r="D7" s="48"/>
     </row>
     <row r="8" spans="1:4">
-      <c r="A8" s="41"/>
+      <c r="A8" s="49"/>
       <c r="B8" s="2" t="s">
         <v>144</v>
       </c>
       <c r="C8" s="1" t="s">
         <v>139</v>
       </c>
-      <c r="D8" s="40"/>
+      <c r="D8" s="48"/>
     </row>
     <row r="9" spans="1:4">
-      <c r="A9" s="41"/>
+      <c r="A9" s="49"/>
       <c r="B9" s="2" t="s">
         <v>145</v>
       </c>
       <c r="C9" s="1" t="s">
         <v>141</v>
       </c>
-      <c r="D9" s="40"/>
+      <c r="D9" s="48"/>
     </row>
     <row r="10" spans="1:4">
-      <c r="A10" s="41" t="s">
+      <c r="A10" s="49" t="s">
         <v>146</v>
       </c>
       <c r="B10" s="2" t="s">
@@ -5281,30 +5281,30 @@
       <c r="C10" s="1" t="s">
         <v>137</v>
       </c>
-      <c r="D10" s="40"/>
+      <c r="D10" s="48"/>
     </row>
     <row r="11" spans="1:4">
-      <c r="A11" s="41"/>
+      <c r="A11" s="49"/>
       <c r="B11" s="2" t="s">
         <v>148</v>
       </c>
       <c r="C11" s="1" t="s">
         <v>139</v>
       </c>
-      <c r="D11" s="40"/>
+      <c r="D11" s="48"/>
     </row>
     <row r="12" spans="1:4">
-      <c r="A12" s="41"/>
+      <c r="A12" s="49"/>
       <c r="B12" s="2" t="s">
         <v>149</v>
       </c>
       <c r="C12" s="1" t="s">
         <v>141</v>
       </c>
-      <c r="D12" s="40"/>
+      <c r="D12" s="48"/>
     </row>
     <row r="13" spans="1:4">
-      <c r="A13" s="41" t="s">
+      <c r="A13" s="49" t="s">
         <v>150</v>
       </c>
       <c r="B13" s="2" t="s">
@@ -5313,30 +5313,30 @@
       <c r="C13" s="1" t="s">
         <v>137</v>
       </c>
-      <c r="D13" s="40"/>
+      <c r="D13" s="48"/>
     </row>
     <row r="14" spans="1:4">
-      <c r="A14" s="41"/>
+      <c r="A14" s="49"/>
       <c r="B14" s="2" t="s">
         <v>152</v>
       </c>
       <c r="C14" s="1" t="s">
         <v>139</v>
       </c>
-      <c r="D14" s="40"/>
+      <c r="D14" s="48"/>
     </row>
     <row r="15" spans="1:4">
-      <c r="A15" s="41"/>
+      <c r="A15" s="49"/>
       <c r="B15" s="2" t="s">
         <v>153</v>
       </c>
       <c r="C15" s="1" t="s">
         <v>141</v>
       </c>
-      <c r="D15" s="40"/>
+      <c r="D15" s="48"/>
     </row>
     <row r="16" spans="1:4">
-      <c r="A16" s="41" t="s">
+      <c r="A16" s="49" t="s">
         <v>154</v>
       </c>
       <c r="B16" s="2" t="s">
@@ -5345,27 +5345,27 @@
       <c r="C16" s="1" t="s">
         <v>156</v>
       </c>
-      <c r="D16" s="40"/>
+      <c r="D16" s="48"/>
     </row>
     <row r="17" spans="1:4">
-      <c r="A17" s="41"/>
+      <c r="A17" s="49"/>
       <c r="B17" s="2" t="s">
         <v>157</v>
       </c>
       <c r="C17" s="1" t="s">
         <v>158</v>
       </c>
-      <c r="D17" s="40"/>
+      <c r="D17" s="48"/>
     </row>
     <row r="18" spans="1:4">
-      <c r="A18" s="41"/>
+      <c r="A18" s="49"/>
       <c r="B18" s="2" t="s">
         <v>159</v>
       </c>
       <c r="C18" s="1" t="s">
         <v>160</v>
       </c>
-      <c r="D18" s="40"/>
+      <c r="D18" s="48"/>
     </row>
     <row r="19" spans="1:4">
       <c r="A19" s="1"/>
@@ -5374,24 +5374,24 @@
       <c r="D19" s="1"/>
     </row>
     <row r="20" spans="1:4" ht="20.25">
-      <c r="A20" s="42" t="s">
+      <c r="A20" s="45" t="s">
         <v>298</v>
       </c>
-      <c r="B20" s="43"/>
-      <c r="C20" s="43"/>
-      <c r="D20" s="43"/>
-    </row>
-    <row r="21" spans="1:4" s="52" customFormat="1" ht="25.5">
-      <c r="A21" s="51" t="s">
+      <c r="B20" s="46"/>
+      <c r="C20" s="46"/>
+      <c r="D20" s="46"/>
+    </row>
+    <row r="21" spans="1:4" s="26" customFormat="1" ht="25.5">
+      <c r="A21" s="25" t="s">
         <v>504</v>
       </c>
-      <c r="B21" s="51" t="s">
+      <c r="B21" s="25" t="s">
         <v>110</v>
       </c>
-      <c r="C21" s="51" t="s">
+      <c r="C21" s="25" t="s">
         <v>1</v>
       </c>
-      <c r="D21" s="51" t="s">
+      <c r="D21" s="25" t="s">
         <v>0</v>
       </c>
     </row>
@@ -5405,12 +5405,12 @@
       <c r="C22" s="1" t="s">
         <v>133</v>
       </c>
-      <c r="D22" s="45" t="s">
+      <c r="D22" s="53" t="s">
         <v>162</v>
       </c>
     </row>
     <row r="23" spans="1:4">
-      <c r="A23" s="44" t="s">
+      <c r="A23" s="54" t="s">
         <v>161</v>
       </c>
       <c r="B23" s="1" t="s">
@@ -5419,30 +5419,30 @@
       <c r="C23" s="1" t="s">
         <v>163</v>
       </c>
-      <c r="D23" s="45"/>
+      <c r="D23" s="53"/>
     </row>
     <row r="24" spans="1:4">
-      <c r="A24" s="44"/>
+      <c r="A24" s="54"/>
       <c r="B24" s="1" t="s">
         <v>164</v>
       </c>
       <c r="C24" s="1" t="s">
         <v>165</v>
       </c>
-      <c r="D24" s="45"/>
+      <c r="D24" s="53"/>
     </row>
     <row r="25" spans="1:4">
-      <c r="A25" s="44"/>
+      <c r="A25" s="54"/>
       <c r="B25" s="1" t="s">
         <v>166</v>
       </c>
       <c r="C25" s="1" t="s">
         <v>167</v>
       </c>
-      <c r="D25" s="45"/>
+      <c r="D25" s="53"/>
     </row>
     <row r="26" spans="1:4">
-      <c r="A26" s="40" t="s">
+      <c r="A26" s="48" t="s">
         <v>168</v>
       </c>
       <c r="B26" s="1">
@@ -5451,60 +5451,60 @@
       <c r="C26" s="1" t="s">
         <v>169</v>
       </c>
-      <c r="D26" s="45"/>
+      <c r="D26" s="53"/>
     </row>
     <row r="27" spans="1:4">
-      <c r="A27" s="41"/>
+      <c r="A27" s="49"/>
       <c r="B27" s="1">
         <v>2</v>
       </c>
       <c r="C27" s="1" t="s">
         <v>170</v>
       </c>
-      <c r="D27" s="45"/>
+      <c r="D27" s="53"/>
     </row>
     <row r="28" spans="1:4">
-      <c r="A28" s="41"/>
+      <c r="A28" s="49"/>
       <c r="B28" s="1">
         <v>3</v>
       </c>
       <c r="C28" s="1" t="s">
         <v>171</v>
       </c>
-      <c r="D28" s="45"/>
+      <c r="D28" s="53"/>
     </row>
     <row r="29" spans="1:4">
-      <c r="A29" s="41"/>
+      <c r="A29" s="49"/>
       <c r="B29" s="1">
         <v>4</v>
       </c>
       <c r="C29" s="1" t="s">
         <v>59</v>
       </c>
-      <c r="D29" s="45"/>
+      <c r="D29" s="53"/>
     </row>
     <row r="30" spans="1:4">
-      <c r="A30" s="41"/>
+      <c r="A30" s="49"/>
       <c r="B30" s="1">
         <v>5</v>
       </c>
       <c r="C30" s="1" t="s">
         <v>172</v>
       </c>
-      <c r="D30" s="45"/>
+      <c r="D30" s="53"/>
     </row>
     <row r="31" spans="1:4">
-      <c r="A31" s="41"/>
+      <c r="A31" s="49"/>
       <c r="B31" s="1">
         <v>6</v>
       </c>
       <c r="C31" s="1" t="s">
         <v>61</v>
       </c>
-      <c r="D31" s="45"/>
+      <c r="D31" s="53"/>
     </row>
     <row r="32" spans="1:4">
-      <c r="A32" s="41" t="s">
+      <c r="A32" s="49" t="s">
         <v>173</v>
       </c>
       <c r="B32" s="1">
@@ -5513,97 +5513,97 @@
       <c r="C32" s="1" t="s">
         <v>174</v>
       </c>
-      <c r="D32" s="45"/>
+      <c r="D32" s="53"/>
     </row>
     <row r="33" spans="1:4">
-      <c r="A33" s="41"/>
+      <c r="A33" s="49"/>
       <c r="B33" s="1">
         <v>-34</v>
       </c>
       <c r="C33" s="1" t="s">
         <v>175</v>
       </c>
-      <c r="D33" s="45"/>
+      <c r="D33" s="53"/>
     </row>
     <row r="34" spans="1:4">
-      <c r="A34" s="41"/>
+      <c r="A34" s="49"/>
       <c r="B34" s="1">
         <v>-10</v>
       </c>
       <c r="C34" s="1" t="s">
         <v>176</v>
       </c>
-      <c r="D34" s="45"/>
+      <c r="D34" s="53"/>
     </row>
     <row r="35" spans="1:4">
-      <c r="A35" s="41"/>
+      <c r="A35" s="49"/>
       <c r="B35" s="1">
         <v>-20</v>
       </c>
       <c r="C35" s="1" t="s">
         <v>177</v>
       </c>
-      <c r="D35" s="45"/>
+      <c r="D35" s="53"/>
     </row>
     <row r="36" spans="1:4">
-      <c r="A36" s="41"/>
+      <c r="A36" s="49"/>
       <c r="B36" s="1">
         <v>-27</v>
       </c>
       <c r="C36" s="1" t="s">
         <v>171</v>
       </c>
-      <c r="D36" s="45"/>
+      <c r="D36" s="53"/>
     </row>
     <row r="37" spans="1:4">
-      <c r="A37" s="41"/>
+      <c r="A37" s="49"/>
       <c r="B37" s="1">
         <v>-33</v>
       </c>
       <c r="C37" s="1" t="s">
         <v>178</v>
       </c>
-      <c r="D37" s="45"/>
+      <c r="D37" s="53"/>
     </row>
     <row r="38" spans="1:4">
-      <c r="A38" s="41"/>
+      <c r="A38" s="49"/>
       <c r="B38" s="1" t="s">
         <v>179</v>
       </c>
       <c r="C38" s="1" t="s">
         <v>180</v>
       </c>
-      <c r="D38" s="45"/>
+      <c r="D38" s="53"/>
     </row>
     <row r="39" spans="1:4">
-      <c r="A39" s="41"/>
+      <c r="A39" s="49"/>
       <c r="B39" s="1" t="s">
         <v>181</v>
       </c>
       <c r="C39" s="1" t="s">
         <v>182</v>
       </c>
-      <c r="D39" s="45"/>
+      <c r="D39" s="53"/>
     </row>
     <row r="40" spans="1:4">
-      <c r="A40" s="41"/>
+      <c r="A40" s="49"/>
       <c r="B40" s="1" t="s">
         <v>183</v>
       </c>
       <c r="C40" s="1" t="s">
         <v>184</v>
       </c>
-      <c r="D40" s="45"/>
+      <c r="D40" s="53"/>
     </row>
     <row r="41" spans="1:4">
-      <c r="A41" s="41"/>
+      <c r="A41" s="49"/>
       <c r="B41" s="1" t="s">
         <v>185</v>
       </c>
       <c r="C41" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="D41" s="45"/>
+      <c r="D41" s="53"/>
     </row>
     <row r="42" spans="1:4">
       <c r="A42" s="1" t="s">
@@ -5615,7 +5615,7 @@
       <c r="C42" s="1" t="s">
         <v>188</v>
       </c>
-      <c r="D42" s="45"/>
+      <c r="D42" s="53"/>
     </row>
     <row r="43" spans="1:4">
       <c r="A43" s="1" t="s">
@@ -5627,7 +5627,7 @@
       <c r="C43" s="1" t="s">
         <v>190</v>
       </c>
-      <c r="D43" s="45"/>
+      <c r="D43" s="53"/>
     </row>
     <row r="44" spans="1:4">
       <c r="A44" s="1" t="s">
@@ -5639,7 +5639,7 @@
       <c r="C44" s="1" t="s">
         <v>190</v>
       </c>
-      <c r="D44" s="45"/>
+      <c r="D44" s="53"/>
     </row>
     <row r="45" spans="1:4">
       <c r="A45" s="1" t="s">
@@ -5651,7 +5651,7 @@
       <c r="C45" s="1" t="s">
         <v>194</v>
       </c>
-      <c r="D45" s="45"/>
+      <c r="D45" s="53"/>
     </row>
     <row r="46" spans="1:4">
       <c r="A46" s="1" t="s">
@@ -5663,10 +5663,10 @@
       <c r="C46" s="1" t="s">
         <v>197</v>
       </c>
-      <c r="D46" s="45"/>
+      <c r="D46" s="53"/>
     </row>
     <row r="47" spans="1:4">
-      <c r="A47" s="44" t="s">
+      <c r="A47" s="54" t="s">
         <v>161</v>
       </c>
       <c r="B47" s="1" t="s">
@@ -5675,77 +5675,77 @@
       <c r="C47" s="1" t="s">
         <v>73</v>
       </c>
-      <c r="D47" s="45"/>
+      <c r="D47" s="53"/>
     </row>
     <row r="48" spans="1:4">
-      <c r="A48" s="44"/>
+      <c r="A48" s="54"/>
       <c r="B48" s="1" t="s">
         <v>198</v>
       </c>
       <c r="C48" s="1" t="s">
         <v>199</v>
       </c>
-      <c r="D48" s="45"/>
+      <c r="D48" s="53"/>
     </row>
     <row r="49" spans="1:4">
-      <c r="A49" s="44"/>
+      <c r="A49" s="54"/>
       <c r="B49" s="1" t="s">
         <v>200</v>
       </c>
       <c r="C49" s="1" t="s">
         <v>201</v>
       </c>
-      <c r="D49" s="45"/>
+      <c r="D49" s="53"/>
     </row>
     <row r="50" spans="1:4">
-      <c r="A50" s="44"/>
+      <c r="A50" s="54"/>
       <c r="B50" s="1" t="s">
         <v>202</v>
       </c>
       <c r="C50" s="1" t="s">
         <v>203</v>
       </c>
-      <c r="D50" s="45"/>
+      <c r="D50" s="53"/>
     </row>
     <row r="51" spans="1:4">
-      <c r="A51" s="44"/>
+      <c r="A51" s="54"/>
       <c r="B51" s="1" t="s">
         <v>204</v>
       </c>
       <c r="C51" s="1" t="s">
         <v>205</v>
       </c>
-      <c r="D51" s="45"/>
+      <c r="D51" s="53"/>
     </row>
     <row r="52" spans="1:4">
-      <c r="A52" s="44"/>
+      <c r="A52" s="54"/>
       <c r="B52" s="1" t="s">
         <v>206</v>
       </c>
       <c r="C52" s="1" t="s">
         <v>207</v>
       </c>
-      <c r="D52" s="45"/>
+      <c r="D52" s="53"/>
     </row>
     <row r="53" spans="1:4">
-      <c r="A53" s="44"/>
+      <c r="A53" s="54"/>
       <c r="B53" s="1" t="s">
         <v>208</v>
       </c>
       <c r="C53" s="1" t="s">
         <v>209</v>
       </c>
-      <c r="D53" s="45"/>
+      <c r="D53" s="53"/>
     </row>
     <row r="54" spans="1:4">
-      <c r="A54" s="44"/>
+      <c r="A54" s="54"/>
       <c r="B54" s="1" t="s">
         <v>210</v>
       </c>
       <c r="C54" s="1" t="s">
         <v>211</v>
       </c>
-      <c r="D54" s="45"/>
+      <c r="D54" s="53"/>
     </row>
     <row r="55" spans="1:4">
       <c r="A55" s="1"/>
@@ -5754,24 +5754,24 @@
       <c r="D55" s="1"/>
     </row>
     <row r="56" spans="1:4" ht="20.25">
-      <c r="A56" s="42" t="s">
+      <c r="A56" s="45" t="s">
         <v>299</v>
       </c>
-      <c r="B56" s="43"/>
-      <c r="C56" s="43"/>
-      <c r="D56" s="43"/>
-    </row>
-    <row r="57" spans="1:4" s="52" customFormat="1" ht="25.5">
-      <c r="A57" s="51" t="s">
+      <c r="B56" s="46"/>
+      <c r="C56" s="46"/>
+      <c r="D56" s="46"/>
+    </row>
+    <row r="57" spans="1:4" s="26" customFormat="1" ht="25.5">
+      <c r="A57" s="25" t="s">
         <v>504</v>
       </c>
-      <c r="B57" s="51" t="s">
+      <c r="B57" s="25" t="s">
         <v>110</v>
       </c>
-      <c r="C57" s="51" t="s">
+      <c r="C57" s="25" t="s">
         <v>1</v>
       </c>
-      <c r="D57" s="51" t="s">
+      <c r="D57" s="25" t="s">
         <v>0</v>
       </c>
     </row>
@@ -5785,12 +5785,12 @@
       <c r="C58" s="1" t="s">
         <v>133</v>
       </c>
-      <c r="D58" s="40" t="s">
+      <c r="D58" s="48" t="s">
         <v>213</v>
       </c>
     </row>
     <row r="59" spans="1:4">
-      <c r="A59" s="44" t="s">
+      <c r="A59" s="54" t="s">
         <v>161</v>
       </c>
       <c r="B59" s="1" t="s">
@@ -5799,30 +5799,30 @@
       <c r="C59" s="1" t="s">
         <v>215</v>
       </c>
-      <c r="D59" s="40"/>
+      <c r="D59" s="48"/>
     </row>
     <row r="60" spans="1:4">
-      <c r="A60" s="44"/>
+      <c r="A60" s="54"/>
       <c r="B60" s="1" t="s">
         <v>216</v>
       </c>
       <c r="C60" s="1" t="s">
         <v>217</v>
       </c>
-      <c r="D60" s="40"/>
+      <c r="D60" s="48"/>
     </row>
     <row r="61" spans="1:4">
-      <c r="A61" s="44"/>
+      <c r="A61" s="54"/>
       <c r="B61" s="1" t="s">
         <v>128</v>
       </c>
       <c r="C61" s="1" t="s">
         <v>218</v>
       </c>
-      <c r="D61" s="40"/>
+      <c r="D61" s="48"/>
     </row>
     <row r="62" spans="1:4">
-      <c r="A62" s="40" t="s">
+      <c r="A62" s="48" t="s">
         <v>219</v>
       </c>
       <c r="B62" s="1">
@@ -5831,57 +5831,57 @@
       <c r="C62" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="D62" s="40"/>
+      <c r="D62" s="48"/>
     </row>
     <row r="63" spans="1:4">
-      <c r="A63" s="41"/>
+      <c r="A63" s="49"/>
       <c r="B63" s="1">
         <v>2</v>
       </c>
       <c r="C63" s="1" t="s">
         <v>57</v>
       </c>
-      <c r="D63" s="40"/>
+      <c r="D63" s="48"/>
     </row>
     <row r="64" spans="1:4">
-      <c r="A64" s="41"/>
+      <c r="A64" s="49"/>
       <c r="B64" s="1">
         <v>3</v>
       </c>
       <c r="C64" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="D64" s="40"/>
+      <c r="D64" s="48"/>
     </row>
     <row r="65" spans="1:4">
-      <c r="A65" s="41"/>
+      <c r="A65" s="49"/>
       <c r="B65" s="1">
         <v>4</v>
       </c>
       <c r="C65" s="1" t="s">
         <v>59</v>
       </c>
-      <c r="D65" s="40"/>
+      <c r="D65" s="48"/>
     </row>
     <row r="66" spans="1:4">
-      <c r="A66" s="41"/>
+      <c r="A66" s="49"/>
       <c r="B66" s="1">
         <v>5</v>
       </c>
       <c r="C66" s="1" t="s">
         <v>172</v>
       </c>
-      <c r="D66" s="40"/>
+      <c r="D66" s="48"/>
     </row>
     <row r="67" spans="1:4">
-      <c r="A67" s="41"/>
+      <c r="A67" s="49"/>
       <c r="B67" s="1">
         <v>6</v>
       </c>
       <c r="C67" s="1" t="s">
         <v>61</v>
       </c>
-      <c r="D67" s="40"/>
+      <c r="D67" s="48"/>
     </row>
     <row r="68" spans="1:4">
       <c r="A68" s="1" t="s">
@@ -5893,7 +5893,7 @@
       <c r="C68" s="1" t="s">
         <v>221</v>
       </c>
-      <c r="D68" s="40"/>
+      <c r="D68" s="48"/>
     </row>
     <row r="69" spans="1:4">
       <c r="A69" s="1" t="s">
@@ -5905,7 +5905,7 @@
       <c r="C69" s="1" t="s">
         <v>188</v>
       </c>
-      <c r="D69" s="40"/>
+      <c r="D69" s="48"/>
     </row>
     <row r="70" spans="1:4">
       <c r="A70" s="1" t="s">
@@ -5917,10 +5917,10 @@
       <c r="C70" s="1" t="s">
         <v>99</v>
       </c>
-      <c r="D70" s="40"/>
+      <c r="D70" s="48"/>
     </row>
     <row r="71" spans="1:4">
-      <c r="A71" s="41" t="s">
+      <c r="A71" s="49" t="s">
         <v>224</v>
       </c>
       <c r="B71" s="1" t="s">
@@ -5929,37 +5929,37 @@
       <c r="C71" s="1" t="s">
         <v>226</v>
       </c>
-      <c r="D71" s="40"/>
+      <c r="D71" s="48"/>
     </row>
     <row r="72" spans="1:4">
-      <c r="A72" s="41"/>
+      <c r="A72" s="49"/>
       <c r="B72" s="1" t="s">
         <v>227</v>
       </c>
       <c r="C72" s="1" t="s">
         <v>228</v>
       </c>
-      <c r="D72" s="40"/>
+      <c r="D72" s="48"/>
     </row>
     <row r="73" spans="1:4">
-      <c r="A73" s="41"/>
+      <c r="A73" s="49"/>
       <c r="B73" s="1" t="s">
         <v>229</v>
       </c>
       <c r="C73" s="1" t="s">
         <v>230</v>
       </c>
-      <c r="D73" s="40"/>
+      <c r="D73" s="48"/>
     </row>
     <row r="74" spans="1:4">
-      <c r="A74" s="41"/>
+      <c r="A74" s="49"/>
       <c r="B74" s="1" t="s">
         <v>231</v>
       </c>
       <c r="C74" s="1" t="s">
         <v>232</v>
       </c>
-      <c r="D74" s="40"/>
+      <c r="D74" s="48"/>
     </row>
     <row r="75" spans="1:4">
       <c r="A75" s="1" t="s">
@@ -5971,10 +5971,10 @@
       <c r="C75" s="1" t="s">
         <v>99</v>
       </c>
-      <c r="D75" s="40"/>
+      <c r="D75" s="48"/>
     </row>
     <row r="76" spans="1:4">
-      <c r="A76" s="41" t="s">
+      <c r="A76" s="49" t="s">
         <v>195</v>
       </c>
       <c r="B76" s="1" t="s">
@@ -5983,67 +5983,67 @@
       <c r="C76" s="1" t="s">
         <v>199</v>
       </c>
-      <c r="D76" s="40"/>
+      <c r="D76" s="48"/>
     </row>
     <row r="77" spans="1:4">
-      <c r="A77" s="41"/>
+      <c r="A77" s="49"/>
       <c r="B77" s="1" t="s">
         <v>200</v>
       </c>
       <c r="C77" s="1" t="s">
         <v>201</v>
       </c>
-      <c r="D77" s="40"/>
+      <c r="D77" s="48"/>
     </row>
     <row r="78" spans="1:4">
-      <c r="A78" s="41"/>
+      <c r="A78" s="49"/>
       <c r="B78" s="1" t="s">
         <v>202</v>
       </c>
       <c r="C78" s="1" t="s">
         <v>203</v>
       </c>
-      <c r="D78" s="40"/>
+      <c r="D78" s="48"/>
     </row>
     <row r="79" spans="1:4">
-      <c r="A79" s="41"/>
+      <c r="A79" s="49"/>
       <c r="B79" s="1" t="s">
         <v>204</v>
       </c>
       <c r="C79" s="1" t="s">
         <v>205</v>
       </c>
-      <c r="D79" s="40"/>
+      <c r="D79" s="48"/>
     </row>
     <row r="80" spans="1:4">
-      <c r="A80" s="41"/>
+      <c r="A80" s="49"/>
       <c r="B80" s="1" t="s">
         <v>206</v>
       </c>
       <c r="C80" s="1" t="s">
         <v>207</v>
       </c>
-      <c r="D80" s="40"/>
+      <c r="D80" s="48"/>
     </row>
     <row r="81" spans="1:4">
-      <c r="A81" s="41"/>
+      <c r="A81" s="49"/>
       <c r="B81" s="1" t="s">
         <v>208</v>
       </c>
       <c r="C81" s="1" t="s">
         <v>209</v>
       </c>
-      <c r="D81" s="40"/>
+      <c r="D81" s="48"/>
     </row>
     <row r="82" spans="1:4">
-      <c r="A82" s="41"/>
+      <c r="A82" s="49"/>
       <c r="B82" s="1" t="s">
         <v>210</v>
       </c>
       <c r="C82" s="1" t="s">
         <v>211</v>
       </c>
-      <c r="D82" s="40"/>
+      <c r="D82" s="48"/>
     </row>
     <row r="83" spans="1:4">
       <c r="A83" s="1"/>
@@ -6052,24 +6052,24 @@
       <c r="D83" s="1"/>
     </row>
     <row r="84" spans="1:4" ht="20.25">
-      <c r="A84" s="42" t="s">
+      <c r="A84" s="45" t="s">
         <v>300</v>
       </c>
-      <c r="B84" s="43"/>
-      <c r="C84" s="43"/>
-      <c r="D84" s="43"/>
-    </row>
-    <row r="85" spans="1:4" s="52" customFormat="1" ht="25.5">
-      <c r="A85" s="51" t="s">
+      <c r="B84" s="46"/>
+      <c r="C84" s="46"/>
+      <c r="D84" s="46"/>
+    </row>
+    <row r="85" spans="1:4" s="26" customFormat="1" ht="25.5">
+      <c r="A85" s="25" t="s">
         <v>504</v>
       </c>
-      <c r="B85" s="51" t="s">
+      <c r="B85" s="25" t="s">
         <v>110</v>
       </c>
-      <c r="C85" s="51" t="s">
+      <c r="C85" s="25" t="s">
         <v>1</v>
       </c>
-      <c r="D85" s="51" t="s">
+      <c r="D85" s="25" t="s">
         <v>0</v>
       </c>
     </row>
@@ -6083,12 +6083,12 @@
       <c r="C86" s="1" t="s">
         <v>133</v>
       </c>
-      <c r="D86" s="40" t="s">
+      <c r="D86" s="48" t="s">
         <v>234</v>
       </c>
     </row>
     <row r="87" spans="1:4">
-      <c r="A87" s="44" t="s">
+      <c r="A87" s="54" t="s">
         <v>161</v>
       </c>
       <c r="B87" s="1" t="s">
@@ -6097,30 +6097,30 @@
       <c r="C87" s="1" t="s">
         <v>236</v>
       </c>
-      <c r="D87" s="40"/>
+      <c r="D87" s="48"/>
     </row>
     <row r="88" spans="1:4">
-      <c r="A88" s="44"/>
+      <c r="A88" s="54"/>
       <c r="B88" s="1" t="s">
         <v>237</v>
       </c>
       <c r="C88" s="1" t="s">
         <v>238</v>
       </c>
-      <c r="D88" s="40"/>
+      <c r="D88" s="48"/>
     </row>
     <row r="89" spans="1:4">
-      <c r="A89" s="44"/>
+      <c r="A89" s="54"/>
       <c r="B89" s="1" t="s">
         <v>239</v>
       </c>
       <c r="C89" s="1" t="s">
         <v>240</v>
       </c>
-      <c r="D89" s="40"/>
+      <c r="D89" s="48"/>
     </row>
     <row r="90" spans="1:4">
-      <c r="A90" s="41" t="s">
+      <c r="A90" s="49" t="s">
         <v>241</v>
       </c>
       <c r="B90" s="1">
@@ -6129,60 +6129,60 @@
       <c r="C90" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="D90" s="40"/>
+      <c r="D90" s="48"/>
     </row>
     <row r="91" spans="1:4">
-      <c r="A91" s="41"/>
+      <c r="A91" s="49"/>
       <c r="B91" s="1">
         <v>2</v>
       </c>
       <c r="C91" s="1" t="s">
         <v>57</v>
       </c>
-      <c r="D91" s="40"/>
+      <c r="D91" s="48"/>
     </row>
     <row r="92" spans="1:4">
-      <c r="A92" s="41"/>
+      <c r="A92" s="49"/>
       <c r="B92" s="1">
         <v>3</v>
       </c>
       <c r="C92" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="D92" s="40"/>
+      <c r="D92" s="48"/>
     </row>
     <row r="93" spans="1:4">
-      <c r="A93" s="41"/>
+      <c r="A93" s="49"/>
       <c r="B93" s="1">
         <v>4</v>
       </c>
       <c r="C93" s="1" t="s">
         <v>59</v>
       </c>
-      <c r="D93" s="40"/>
+      <c r="D93" s="48"/>
     </row>
     <row r="94" spans="1:4">
-      <c r="A94" s="41"/>
+      <c r="A94" s="49"/>
       <c r="B94" s="1">
         <v>5</v>
       </c>
       <c r="C94" s="1" t="s">
         <v>172</v>
       </c>
-      <c r="D94" s="40"/>
+      <c r="D94" s="48"/>
     </row>
     <row r="95" spans="1:4">
-      <c r="A95" s="41"/>
+      <c r="A95" s="49"/>
       <c r="B95" s="1">
         <v>6</v>
       </c>
       <c r="C95" s="1" t="s">
         <v>61</v>
       </c>
-      <c r="D95" s="40"/>
+      <c r="D95" s="48"/>
     </row>
     <row r="96" spans="1:4">
-      <c r="A96" s="41" t="s">
+      <c r="A96" s="49" t="s">
         <v>242</v>
       </c>
       <c r="B96" s="1" t="s">
@@ -6191,50 +6191,50 @@
       <c r="C96" s="1" t="s">
         <v>243</v>
       </c>
-      <c r="D96" s="40"/>
+      <c r="D96" s="48"/>
     </row>
     <row r="97" spans="1:4">
-      <c r="A97" s="41"/>
+      <c r="A97" s="49"/>
       <c r="B97" s="1" t="s">
         <v>9</v>
       </c>
       <c r="C97" s="1" t="s">
         <v>244</v>
       </c>
-      <c r="D97" s="40"/>
+      <c r="D97" s="48"/>
     </row>
     <row r="98" spans="1:4">
-      <c r="A98" s="41"/>
+      <c r="A98" s="49"/>
       <c r="B98" s="1" t="s">
         <v>214</v>
       </c>
       <c r="C98" s="1" t="s">
         <v>245</v>
       </c>
-      <c r="D98" s="40"/>
+      <c r="D98" s="48"/>
     </row>
     <row r="99" spans="1:4">
-      <c r="A99" s="41"/>
+      <c r="A99" s="49"/>
       <c r="B99" s="1" t="s">
         <v>216</v>
       </c>
       <c r="C99" s="1" t="s">
         <v>246</v>
       </c>
-      <c r="D99" s="40"/>
+      <c r="D99" s="48"/>
     </row>
     <row r="100" spans="1:4">
-      <c r="A100" s="41"/>
+      <c r="A100" s="49"/>
       <c r="B100" s="1" t="s">
         <v>185</v>
       </c>
       <c r="C100" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="D100" s="40"/>
+      <c r="D100" s="48"/>
     </row>
     <row r="101" spans="1:4">
-      <c r="A101" s="41" t="s">
+      <c r="A101" s="49" t="s">
         <v>247</v>
       </c>
       <c r="B101" s="1">
@@ -6243,40 +6243,40 @@
       <c r="C101" s="1" t="s">
         <v>248</v>
       </c>
-      <c r="D101" s="40"/>
+      <c r="D101" s="48"/>
     </row>
     <row r="102" spans="1:4">
-      <c r="A102" s="41"/>
+      <c r="A102" s="49"/>
       <c r="B102" s="1">
         <v>2</v>
       </c>
       <c r="C102" s="1" t="s">
         <v>249</v>
       </c>
-      <c r="D102" s="40"/>
+      <c r="D102" s="48"/>
     </row>
     <row r="103" spans="1:4">
-      <c r="A103" s="41"/>
+      <c r="A103" s="49"/>
       <c r="B103" s="1">
         <v>3</v>
       </c>
       <c r="C103" s="1" t="s">
         <v>250</v>
       </c>
-      <c r="D103" s="40"/>
+      <c r="D103" s="48"/>
     </row>
     <row r="104" spans="1:4">
-      <c r="A104" s="41"/>
+      <c r="A104" s="49"/>
       <c r="B104" s="1" t="s">
         <v>18</v>
       </c>
       <c r="C104" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="D104" s="40"/>
+      <c r="D104" s="48"/>
     </row>
     <row r="105" spans="1:4">
-      <c r="A105" s="41" t="s">
+      <c r="A105" s="49" t="s">
         <v>251</v>
       </c>
       <c r="B105" s="1">
@@ -6285,117 +6285,117 @@
       <c r="C105" s="1" t="s">
         <v>252</v>
       </c>
-      <c r="D105" s="40"/>
+      <c r="D105" s="48"/>
     </row>
     <row r="106" spans="1:4">
-      <c r="A106" s="41"/>
+      <c r="A106" s="49"/>
       <c r="B106" s="1">
         <v>2</v>
       </c>
       <c r="C106" s="1" t="s">
         <v>253</v>
       </c>
-      <c r="D106" s="40"/>
+      <c r="D106" s="48"/>
     </row>
     <row r="107" spans="1:4">
-      <c r="A107" s="41"/>
+      <c r="A107" s="49"/>
       <c r="B107" s="1">
         <v>3</v>
       </c>
       <c r="C107" s="1" t="s">
         <v>254</v>
       </c>
-      <c r="D107" s="40"/>
+      <c r="D107" s="48"/>
     </row>
     <row r="108" spans="1:4">
-      <c r="A108" s="41"/>
+      <c r="A108" s="49"/>
       <c r="B108" s="1">
         <v>4</v>
       </c>
       <c r="C108" s="1" t="s">
         <v>255</v>
       </c>
-      <c r="D108" s="40"/>
+      <c r="D108" s="48"/>
     </row>
     <row r="109" spans="1:4">
-      <c r="A109" s="41"/>
+      <c r="A109" s="49"/>
       <c r="B109" s="1">
         <v>5</v>
       </c>
       <c r="C109" s="1" t="s">
         <v>256</v>
       </c>
-      <c r="D109" s="40"/>
+      <c r="D109" s="48"/>
     </row>
     <row r="110" spans="1:4">
-      <c r="A110" s="41"/>
+      <c r="A110" s="49"/>
       <c r="B110" s="1">
         <v>6</v>
       </c>
       <c r="C110" s="1" t="s">
         <v>257</v>
       </c>
-      <c r="D110" s="40"/>
+      <c r="D110" s="48"/>
     </row>
     <row r="111" spans="1:4">
-      <c r="A111" s="41"/>
+      <c r="A111" s="49"/>
       <c r="B111" s="1">
         <v>7</v>
       </c>
       <c r="C111" s="1" t="s">
         <v>258</v>
       </c>
-      <c r="D111" s="40"/>
+      <c r="D111" s="48"/>
     </row>
     <row r="112" spans="1:4">
-      <c r="A112" s="41"/>
+      <c r="A112" s="49"/>
       <c r="B112" s="1">
         <v>8</v>
       </c>
       <c r="C112" s="1" t="s">
         <v>259</v>
       </c>
-      <c r="D112" s="40"/>
+      <c r="D112" s="48"/>
     </row>
     <row r="113" spans="1:4">
-      <c r="A113" s="41"/>
+      <c r="A113" s="49"/>
       <c r="B113" s="1">
         <v>9</v>
       </c>
       <c r="C113" s="1" t="s">
         <v>260</v>
       </c>
-      <c r="D113" s="40"/>
+      <c r="D113" s="48"/>
     </row>
     <row r="114" spans="1:4">
-      <c r="A114" s="41"/>
+      <c r="A114" s="49"/>
       <c r="B114" s="1">
         <v>10</v>
       </c>
       <c r="C114" s="1" t="s">
         <v>261</v>
       </c>
-      <c r="D114" s="40"/>
+      <c r="D114" s="48"/>
     </row>
     <row r="115" spans="1:4">
-      <c r="A115" s="41"/>
+      <c r="A115" s="49"/>
       <c r="B115" s="1">
         <v>11</v>
       </c>
       <c r="C115" s="1" t="s">
         <v>262</v>
       </c>
-      <c r="D115" s="40"/>
+      <c r="D115" s="48"/>
     </row>
     <row r="116" spans="1:4">
-      <c r="A116" s="41"/>
+      <c r="A116" s="49"/>
       <c r="B116" s="1" t="s">
         <v>18</v>
       </c>
       <c r="C116" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="D116" s="40"/>
+      <c r="D116" s="48"/>
     </row>
     <row r="117" spans="1:4">
       <c r="A117" s="1" t="s">
@@ -6407,7 +6407,7 @@
       <c r="C117" s="1" t="s">
         <v>188</v>
       </c>
-      <c r="D117" s="40"/>
+      <c r="D117" s="48"/>
     </row>
     <row r="118" spans="1:4">
       <c r="A118" s="1" t="s">
@@ -6419,7 +6419,7 @@
       <c r="C118" s="1" t="s">
         <v>99</v>
       </c>
-      <c r="D118" s="40"/>
+      <c r="D118" s="48"/>
     </row>
     <row r="119" spans="1:4">
       <c r="A119" s="1" t="s">
@@ -6431,10 +6431,10 @@
       <c r="C119" s="1" t="s">
         <v>188</v>
       </c>
-      <c r="D119" s="40"/>
+      <c r="D119" s="48"/>
     </row>
     <row r="120" spans="1:4">
-      <c r="A120" s="41" t="s">
+      <c r="A120" s="49" t="s">
         <v>222</v>
       </c>
       <c r="B120" s="1">
@@ -6443,30 +6443,30 @@
       <c r="C120" s="1" t="s">
         <v>230</v>
       </c>
-      <c r="D120" s="40"/>
+      <c r="D120" s="48"/>
     </row>
     <row r="121" spans="1:4">
-      <c r="A121" s="41"/>
+      <c r="A121" s="49"/>
       <c r="B121" s="1">
         <v>-27</v>
       </c>
       <c r="C121" s="1" t="s">
         <v>265</v>
       </c>
-      <c r="D121" s="40"/>
+      <c r="D121" s="48"/>
     </row>
     <row r="122" spans="1:4">
-      <c r="A122" s="41"/>
+      <c r="A122" s="49"/>
       <c r="B122" s="1" t="s">
         <v>63</v>
       </c>
       <c r="C122" s="1" t="s">
         <v>99</v>
       </c>
-      <c r="D122" s="40"/>
+      <c r="D122" s="48"/>
     </row>
     <row r="123" spans="1:4">
-      <c r="A123" s="41" t="s">
+      <c r="A123" s="49" t="s">
         <v>224</v>
       </c>
       <c r="B123" s="1">
@@ -6475,40 +6475,40 @@
       <c r="C123" s="1" t="s">
         <v>226</v>
       </c>
-      <c r="D123" s="40"/>
+      <c r="D123" s="48"/>
     </row>
     <row r="124" spans="1:4">
-      <c r="A124" s="41"/>
+      <c r="A124" s="49"/>
       <c r="B124" s="1">
         <v>-18</v>
       </c>
       <c r="C124" s="1" t="s">
         <v>228</v>
       </c>
-      <c r="D124" s="40"/>
+      <c r="D124" s="48"/>
     </row>
     <row r="125" spans="1:4">
-      <c r="A125" s="41"/>
+      <c r="A125" s="49"/>
       <c r="B125" s="1">
         <v>-22</v>
       </c>
       <c r="C125" s="1" t="s">
         <v>230</v>
       </c>
-      <c r="D125" s="40"/>
+      <c r="D125" s="48"/>
     </row>
     <row r="126" spans="1:4">
-      <c r="A126" s="41"/>
+      <c r="A126" s="49"/>
       <c r="B126" s="1" t="s">
         <v>63</v>
       </c>
       <c r="C126" s="1" t="s">
         <v>232</v>
       </c>
-      <c r="D126" s="40"/>
+      <c r="D126" s="48"/>
     </row>
     <row r="127" spans="1:4">
-      <c r="A127" s="41" t="s">
+      <c r="A127" s="49" t="s">
         <v>195</v>
       </c>
       <c r="B127" s="1" t="s">
@@ -6517,67 +6517,67 @@
       <c r="C127" s="1" t="s">
         <v>199</v>
       </c>
-      <c r="D127" s="40"/>
+      <c r="D127" s="48"/>
     </row>
     <row r="128" spans="1:4">
-      <c r="A128" s="41"/>
+      <c r="A128" s="49"/>
       <c r="B128" s="1" t="s">
         <v>200</v>
       </c>
       <c r="C128" s="1" t="s">
         <v>201</v>
       </c>
-      <c r="D128" s="40"/>
+      <c r="D128" s="48"/>
     </row>
     <row r="129" spans="1:4">
-      <c r="A129" s="41"/>
+      <c r="A129" s="49"/>
       <c r="B129" s="1" t="s">
         <v>202</v>
       </c>
       <c r="C129" s="1" t="s">
         <v>203</v>
       </c>
-      <c r="D129" s="40"/>
+      <c r="D129" s="48"/>
     </row>
     <row r="130" spans="1:4">
-      <c r="A130" s="41"/>
+      <c r="A130" s="49"/>
       <c r="B130" s="1" t="s">
         <v>204</v>
       </c>
       <c r="C130" s="1" t="s">
         <v>205</v>
       </c>
-      <c r="D130" s="40"/>
+      <c r="D130" s="48"/>
     </row>
     <row r="131" spans="1:4">
-      <c r="A131" s="41"/>
+      <c r="A131" s="49"/>
       <c r="B131" s="1" t="s">
         <v>206</v>
       </c>
       <c r="C131" s="1" t="s">
         <v>207</v>
       </c>
-      <c r="D131" s="40"/>
+      <c r="D131" s="48"/>
     </row>
     <row r="132" spans="1:4">
-      <c r="A132" s="41"/>
+      <c r="A132" s="49"/>
       <c r="B132" s="1" t="s">
         <v>208</v>
       </c>
       <c r="C132" s="1" t="s">
         <v>209</v>
       </c>
-      <c r="D132" s="40"/>
+      <c r="D132" s="48"/>
     </row>
     <row r="133" spans="1:4">
-      <c r="A133" s="41"/>
+      <c r="A133" s="49"/>
       <c r="B133" s="1" t="s">
         <v>210</v>
       </c>
       <c r="C133" s="1" t="s">
         <v>211</v>
       </c>
-      <c r="D133" s="40"/>
+      <c r="D133" s="48"/>
     </row>
     <row r="134" spans="1:4">
       <c r="A134" s="1"/>
@@ -6586,32 +6586,32 @@
       <c r="D134" s="1"/>
     </row>
     <row r="135" spans="1:4" ht="20.25">
-      <c r="A135" s="42" t="s">
+      <c r="A135" s="45" t="s">
         <v>301</v>
       </c>
-      <c r="B135" s="43"/>
-      <c r="C135" s="43"/>
-      <c r="D135" s="43"/>
+      <c r="B135" s="46"/>
+      <c r="C135" s="46"/>
+      <c r="D135" s="46"/>
     </row>
     <row r="136" spans="1:4" ht="20.25">
-      <c r="A136" s="42" t="s">
+      <c r="A136" s="45" t="s">
         <v>302</v>
       </c>
-      <c r="B136" s="43"/>
-      <c r="C136" s="43"/>
-      <c r="D136" s="43"/>
-    </row>
-    <row r="137" spans="1:4" s="52" customFormat="1" ht="25.5">
-      <c r="A137" s="51" t="s">
+      <c r="B136" s="46"/>
+      <c r="C136" s="46"/>
+      <c r="D136" s="46"/>
+    </row>
+    <row r="137" spans="1:4" s="26" customFormat="1" ht="25.5">
+      <c r="A137" s="25" t="s">
         <v>504</v>
       </c>
-      <c r="B137" s="51" t="s">
+      <c r="B137" s="25" t="s">
         <v>110</v>
       </c>
-      <c r="C137" s="51" t="s">
+      <c r="C137" s="25" t="s">
         <v>1</v>
       </c>
-      <c r="D137" s="51" t="s">
+      <c r="D137" s="25" t="s">
         <v>0</v>
       </c>
     </row>
@@ -6625,7 +6625,7 @@
       <c r="C138" s="1" t="s">
         <v>133</v>
       </c>
-      <c r="D138" s="40" t="s">
+      <c r="D138" s="48" t="s">
         <v>266</v>
       </c>
     </row>
@@ -6639,7 +6639,7 @@
       <c r="C139" s="1" t="s">
         <v>268</v>
       </c>
-      <c r="D139" s="40"/>
+      <c r="D139" s="48"/>
     </row>
     <row r="140" spans="1:4">
       <c r="A140" s="1" t="s">
@@ -6651,7 +6651,7 @@
       <c r="C140" s="1" t="s">
         <v>99</v>
       </c>
-      <c r="D140" s="40"/>
+      <c r="D140" s="48"/>
     </row>
     <row r="141" spans="1:4">
       <c r="A141" s="1" t="s">
@@ -6663,10 +6663,10 @@
       <c r="C141" s="1" t="s">
         <v>269</v>
       </c>
-      <c r="D141" s="40"/>
+      <c r="D141" s="48"/>
     </row>
     <row r="142" spans="1:4">
-      <c r="A142" s="41" t="s">
+      <c r="A142" s="49" t="s">
         <v>270</v>
       </c>
       <c r="B142" s="1">
@@ -6675,40 +6675,40 @@
       <c r="C142" s="1" t="s">
         <v>271</v>
       </c>
-      <c r="D142" s="40"/>
+      <c r="D142" s="48"/>
     </row>
     <row r="143" spans="1:4">
-      <c r="A143" s="41"/>
+      <c r="A143" s="49"/>
       <c r="B143" s="1">
         <v>-16</v>
       </c>
       <c r="C143" s="1" t="s">
         <v>226</v>
       </c>
-      <c r="D143" s="40"/>
+      <c r="D143" s="48"/>
     </row>
     <row r="144" spans="1:4">
-      <c r="A144" s="41"/>
+      <c r="A144" s="49"/>
       <c r="B144" s="1">
         <v>-20</v>
       </c>
       <c r="C144" s="1" t="s">
         <v>272</v>
       </c>
-      <c r="D144" s="40"/>
+      <c r="D144" s="48"/>
     </row>
     <row r="145" spans="1:4">
-      <c r="A145" s="41"/>
+      <c r="A145" s="49"/>
       <c r="B145" s="1" t="s">
         <v>63</v>
       </c>
       <c r="C145" s="1" t="s">
         <v>232</v>
       </c>
-      <c r="D145" s="40"/>
+      <c r="D145" s="48"/>
     </row>
     <row r="146" spans="1:4">
-      <c r="A146" s="41" t="s">
+      <c r="A146" s="49" t="s">
         <v>195</v>
       </c>
       <c r="B146" s="1" t="s">
@@ -6717,27 +6717,27 @@
       <c r="C146" s="1" t="s">
         <v>201</v>
       </c>
-      <c r="D146" s="40"/>
+      <c r="D146" s="48"/>
     </row>
     <row r="147" spans="1:4">
-      <c r="A147" s="41"/>
+      <c r="A147" s="49"/>
       <c r="B147" s="1" t="s">
         <v>206</v>
       </c>
       <c r="C147" s="1" t="s">
         <v>207</v>
       </c>
-      <c r="D147" s="40"/>
+      <c r="D147" s="48"/>
     </row>
     <row r="148" spans="1:4">
-      <c r="A148" s="41"/>
+      <c r="A148" s="49"/>
       <c r="B148" s="1" t="s">
         <v>210</v>
       </c>
       <c r="C148" s="1" t="s">
         <v>211</v>
       </c>
-      <c r="D148" s="40"/>
+      <c r="D148" s="48"/>
     </row>
     <row r="149" spans="1:4">
       <c r="A149" s="1"/>
@@ -6746,24 +6746,24 @@
       <c r="D149" s="1"/>
     </row>
     <row r="150" spans="1:4" ht="20.25">
-      <c r="A150" s="42" t="s">
+      <c r="A150" s="45" t="s">
         <v>303</v>
       </c>
-      <c r="B150" s="43"/>
-      <c r="C150" s="43"/>
-      <c r="D150" s="43"/>
-    </row>
-    <row r="151" spans="1:4" s="52" customFormat="1" ht="25.5">
-      <c r="A151" s="51" t="s">
+      <c r="B150" s="46"/>
+      <c r="C150" s="46"/>
+      <c r="D150" s="46"/>
+    </row>
+    <row r="151" spans="1:4" s="26" customFormat="1" ht="25.5">
+      <c r="A151" s="25" t="s">
         <v>504</v>
       </c>
-      <c r="B151" s="51" t="s">
+      <c r="B151" s="25" t="s">
         <v>110</v>
       </c>
-      <c r="C151" s="51" t="s">
+      <c r="C151" s="25" t="s">
         <v>1</v>
       </c>
-      <c r="D151" s="51" t="s">
+      <c r="D151" s="25" t="s">
         <v>0</v>
       </c>
     </row>
@@ -6777,7 +6777,7 @@
       <c r="C152" s="1" t="s">
         <v>133</v>
       </c>
-      <c r="D152" s="40" t="s">
+      <c r="D152" s="48" t="s">
         <v>273</v>
       </c>
     </row>
@@ -6791,7 +6791,7 @@
       <c r="C153" s="1" t="s">
         <v>274</v>
       </c>
-      <c r="D153" s="40"/>
+      <c r="D153" s="48"/>
     </row>
     <row r="154" spans="1:4">
       <c r="A154" s="1" t="s">
@@ -6803,7 +6803,7 @@
       <c r="C154" s="1" t="s">
         <v>99</v>
       </c>
-      <c r="D154" s="40"/>
+      <c r="D154" s="48"/>
     </row>
     <row r="155" spans="1:4">
       <c r="A155" s="1" t="s">
@@ -6815,7 +6815,7 @@
       <c r="C155" s="1" t="s">
         <v>99</v>
       </c>
-      <c r="D155" s="40"/>
+      <c r="D155" s="48"/>
     </row>
     <row r="156" spans="1:4">
       <c r="A156" s="1" t="s">
@@ -6827,10 +6827,10 @@
       <c r="C156" s="1" t="s">
         <v>269</v>
       </c>
-      <c r="D156" s="40"/>
+      <c r="D156" s="48"/>
     </row>
     <row r="157" spans="1:4">
-      <c r="A157" s="41" t="s">
+      <c r="A157" s="49" t="s">
         <v>276</v>
       </c>
       <c r="B157" s="1">
@@ -6839,90 +6839,90 @@
       <c r="C157" s="1" t="s">
         <v>174</v>
       </c>
-      <c r="D157" s="40"/>
+      <c r="D157" s="48"/>
     </row>
     <row r="158" spans="1:4">
-      <c r="A158" s="41"/>
+      <c r="A158" s="49"/>
       <c r="B158" s="1">
         <v>34</v>
       </c>
       <c r="C158" s="1" t="s">
         <v>175</v>
       </c>
-      <c r="D158" s="40"/>
+      <c r="D158" s="48"/>
     </row>
     <row r="159" spans="1:4">
-      <c r="A159" s="41"/>
+      <c r="A159" s="49"/>
       <c r="B159" s="1">
         <v>10</v>
       </c>
       <c r="C159" s="1" t="s">
         <v>176</v>
       </c>
-      <c r="D159" s="40"/>
+      <c r="D159" s="48"/>
     </row>
     <row r="160" spans="1:4">
-      <c r="A160" s="41"/>
+      <c r="A160" s="49"/>
       <c r="B160" s="1">
         <v>14</v>
       </c>
       <c r="C160" s="1" t="s">
         <v>277</v>
       </c>
-      <c r="D160" s="40"/>
+      <c r="D160" s="48"/>
     </row>
     <row r="161" spans="1:4">
-      <c r="A161" s="41"/>
+      <c r="A161" s="49"/>
       <c r="B161" s="1">
         <v>15</v>
       </c>
       <c r="C161" s="1" t="s">
         <v>278</v>
       </c>
-      <c r="D161" s="40"/>
+      <c r="D161" s="48"/>
     </row>
     <row r="162" spans="1:4">
-      <c r="A162" s="41"/>
+      <c r="A162" s="49"/>
       <c r="B162" s="1">
         <v>20</v>
       </c>
       <c r="C162" s="1" t="s">
         <v>177</v>
       </c>
-      <c r="D162" s="40"/>
+      <c r="D162" s="48"/>
     </row>
     <row r="163" spans="1:4">
-      <c r="A163" s="41"/>
+      <c r="A163" s="49"/>
       <c r="B163" s="1">
         <v>27</v>
       </c>
       <c r="C163" s="1" t="s">
         <v>171</v>
       </c>
-      <c r="D163" s="40"/>
+      <c r="D163" s="48"/>
     </row>
     <row r="164" spans="1:4">
-      <c r="A164" s="41"/>
+      <c r="A164" s="49"/>
       <c r="B164" s="1">
         <v>33</v>
       </c>
       <c r="C164" s="1" t="s">
         <v>178</v>
       </c>
-      <c r="D164" s="40"/>
+      <c r="D164" s="48"/>
     </row>
     <row r="165" spans="1:4">
-      <c r="A165" s="41"/>
+      <c r="A165" s="49"/>
       <c r="B165" s="1" t="s">
         <v>18</v>
       </c>
       <c r="C165" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="D165" s="40"/>
+      <c r="D165" s="48"/>
     </row>
     <row r="166" spans="1:4">
-      <c r="A166" s="41" t="s">
+      <c r="A166" s="49" t="s">
         <v>279</v>
       </c>
       <c r="B166" s="1">
@@ -6931,40 +6931,40 @@
       <c r="C166" s="1" t="s">
         <v>271</v>
       </c>
-      <c r="D166" s="40"/>
+      <c r="D166" s="48"/>
     </row>
     <row r="167" spans="1:4">
-      <c r="A167" s="41"/>
+      <c r="A167" s="49"/>
       <c r="B167" s="1">
         <v>-16</v>
       </c>
       <c r="C167" s="1" t="s">
         <v>226</v>
       </c>
-      <c r="D167" s="40"/>
+      <c r="D167" s="48"/>
     </row>
     <row r="168" spans="1:4">
-      <c r="A168" s="41"/>
+      <c r="A168" s="49"/>
       <c r="B168" s="1">
         <v>-20</v>
       </c>
       <c r="C168" s="1" t="s">
         <v>272</v>
       </c>
-      <c r="D168" s="40"/>
+      <c r="D168" s="48"/>
     </row>
     <row r="169" spans="1:4">
-      <c r="A169" s="41"/>
+      <c r="A169" s="49"/>
       <c r="B169" s="1" t="s">
         <v>280</v>
       </c>
       <c r="C169" s="1" t="s">
         <v>232</v>
       </c>
-      <c r="D169" s="40"/>
+      <c r="D169" s="48"/>
     </row>
     <row r="170" spans="1:4">
-      <c r="A170" s="46" t="s">
+      <c r="A170" s="50" t="s">
         <v>195</v>
       </c>
       <c r="B170" s="1" t="s">
@@ -6973,37 +6973,37 @@
       <c r="C170" s="1" t="s">
         <v>73</v>
       </c>
-      <c r="D170" s="40"/>
+      <c r="D170" s="48"/>
     </row>
     <row r="171" spans="1:4">
-      <c r="A171" s="46"/>
+      <c r="A171" s="50"/>
       <c r="B171" s="1" t="s">
         <v>200</v>
       </c>
       <c r="C171" s="1" t="s">
         <v>201</v>
       </c>
-      <c r="D171" s="40"/>
+      <c r="D171" s="48"/>
     </row>
     <row r="172" spans="1:4">
-      <c r="A172" s="46"/>
+      <c r="A172" s="50"/>
       <c r="B172" s="1" t="s">
         <v>206</v>
       </c>
       <c r="C172" s="1" t="s">
         <v>207</v>
       </c>
-      <c r="D172" s="40"/>
+      <c r="D172" s="48"/>
     </row>
     <row r="173" spans="1:4">
-      <c r="A173" s="46"/>
+      <c r="A173" s="50"/>
       <c r="B173" s="1" t="s">
         <v>210</v>
       </c>
       <c r="C173" s="1" t="s">
         <v>211</v>
       </c>
-      <c r="D173" s="40"/>
+      <c r="D173" s="48"/>
     </row>
     <row r="174" spans="1:4">
       <c r="A174" s="1"/>
@@ -7012,24 +7012,24 @@
       <c r="D174" s="1"/>
     </row>
     <row r="175" spans="1:4" ht="20.25">
-      <c r="A175" s="47" t="s">
+      <c r="A175" s="51" t="s">
         <v>304</v>
       </c>
-      <c r="B175" s="48"/>
-      <c r="C175" s="48"/>
-      <c r="D175" s="48"/>
-    </row>
-    <row r="176" spans="1:4" s="52" customFormat="1" ht="25.5">
-      <c r="A176" s="51" t="s">
+      <c r="B175" s="52"/>
+      <c r="C175" s="52"/>
+      <c r="D175" s="52"/>
+    </row>
+    <row r="176" spans="1:4" s="26" customFormat="1" ht="25.5">
+      <c r="A176" s="25" t="s">
         <v>504</v>
       </c>
-      <c r="B176" s="51" t="s">
+      <c r="B176" s="25" t="s">
         <v>110</v>
       </c>
-      <c r="C176" s="51" t="s">
+      <c r="C176" s="25" t="s">
         <v>1</v>
       </c>
-      <c r="D176" s="51" t="s">
+      <c r="D176" s="25" t="s">
         <v>0</v>
       </c>
     </row>
@@ -7043,7 +7043,7 @@
       <c r="C177" s="1" t="s">
         <v>133</v>
       </c>
-      <c r="D177" s="41" t="s">
+      <c r="D177" s="49" t="s">
         <v>281</v>
       </c>
     </row>
@@ -7057,7 +7057,7 @@
       <c r="C178" s="1" t="s">
         <v>282</v>
       </c>
-      <c r="D178" s="41"/>
+      <c r="D178" s="49"/>
     </row>
     <row r="179" spans="1:4">
       <c r="A179" s="1" t="s">
@@ -7069,7 +7069,7 @@
       <c r="C179" s="1" t="s">
         <v>99</v>
       </c>
-      <c r="D179" s="41"/>
+      <c r="D179" s="49"/>
     </row>
     <row r="180" spans="1:4">
       <c r="A180" s="1" t="s">
@@ -7081,7 +7081,7 @@
       <c r="C180" s="1" t="s">
         <v>99</v>
       </c>
-      <c r="D180" s="41"/>
+      <c r="D180" s="49"/>
     </row>
     <row r="181" spans="1:4">
       <c r="A181" s="1" t="s">
@@ -7093,10 +7093,10 @@
       <c r="C181" s="1" t="s">
         <v>269</v>
       </c>
-      <c r="D181" s="41"/>
+      <c r="D181" s="49"/>
     </row>
     <row r="182" spans="1:4">
-      <c r="A182" s="41" t="s">
+      <c r="A182" s="49" t="s">
         <v>270</v>
       </c>
       <c r="B182" s="1">
@@ -7105,40 +7105,40 @@
       <c r="C182" s="1" t="s">
         <v>271</v>
       </c>
-      <c r="D182" s="41"/>
+      <c r="D182" s="49"/>
     </row>
     <row r="183" spans="1:4">
-      <c r="A183" s="41"/>
+      <c r="A183" s="49"/>
       <c r="B183" s="1">
         <v>-16</v>
       </c>
       <c r="C183" s="1" t="s">
         <v>226</v>
       </c>
-      <c r="D183" s="41"/>
+      <c r="D183" s="49"/>
     </row>
     <row r="184" spans="1:4">
-      <c r="A184" s="41"/>
+      <c r="A184" s="49"/>
       <c r="B184" s="1">
         <v>-20</v>
       </c>
       <c r="C184" s="1" t="s">
         <v>272</v>
       </c>
-      <c r="D184" s="41"/>
+      <c r="D184" s="49"/>
     </row>
     <row r="185" spans="1:4">
-      <c r="A185" s="41"/>
+      <c r="A185" s="49"/>
       <c r="B185" s="1" t="s">
         <v>34</v>
       </c>
       <c r="C185" s="1" t="s">
         <v>232</v>
       </c>
-      <c r="D185" s="41"/>
+      <c r="D185" s="49"/>
     </row>
     <row r="186" spans="1:4">
-      <c r="A186" s="41" t="s">
+      <c r="A186" s="49" t="s">
         <v>242</v>
       </c>
       <c r="B186" s="1" t="s">
@@ -7147,50 +7147,50 @@
       <c r="C186" s="1" t="s">
         <v>243</v>
       </c>
-      <c r="D186" s="41"/>
+      <c r="D186" s="49"/>
     </row>
     <row r="187" spans="1:4">
-      <c r="A187" s="41"/>
+      <c r="A187" s="49"/>
       <c r="B187" s="1" t="s">
         <v>9</v>
       </c>
       <c r="C187" s="1" t="s">
         <v>244</v>
       </c>
-      <c r="D187" s="41"/>
+      <c r="D187" s="49"/>
     </row>
     <row r="188" spans="1:4">
-      <c r="A188" s="41"/>
+      <c r="A188" s="49"/>
       <c r="B188" s="1" t="s">
         <v>214</v>
       </c>
       <c r="C188" s="1" t="s">
         <v>284</v>
       </c>
-      <c r="D188" s="41"/>
+      <c r="D188" s="49"/>
     </row>
     <row r="189" spans="1:4">
-      <c r="A189" s="41"/>
+      <c r="A189" s="49"/>
       <c r="B189" s="1" t="s">
         <v>216</v>
       </c>
       <c r="C189" s="1" t="s">
         <v>246</v>
       </c>
-      <c r="D189" s="41"/>
+      <c r="D189" s="49"/>
     </row>
     <row r="190" spans="1:4">
-      <c r="A190" s="41"/>
+      <c r="A190" s="49"/>
       <c r="B190" s="1" t="s">
         <v>185</v>
       </c>
       <c r="C190" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="D190" s="41"/>
+      <c r="D190" s="49"/>
     </row>
     <row r="191" spans="1:4">
-      <c r="A191" s="41" t="s">
+      <c r="A191" s="49" t="s">
         <v>285</v>
       </c>
       <c r="B191" s="1">
@@ -7199,40 +7199,40 @@
       <c r="C191" s="1" t="s">
         <v>286</v>
       </c>
-      <c r="D191" s="41"/>
+      <c r="D191" s="49"/>
     </row>
     <row r="192" spans="1:4">
-      <c r="A192" s="41"/>
+      <c r="A192" s="49"/>
       <c r="B192" s="1">
         <v>2</v>
       </c>
       <c r="C192" s="1" t="s">
         <v>287</v>
       </c>
-      <c r="D192" s="41"/>
+      <c r="D192" s="49"/>
     </row>
     <row r="193" spans="1:4">
-      <c r="A193" s="41"/>
+      <c r="A193" s="49"/>
       <c r="B193" s="1">
         <v>3</v>
       </c>
       <c r="C193" s="1" t="s">
         <v>288</v>
       </c>
-      <c r="D193" s="41"/>
+      <c r="D193" s="49"/>
     </row>
     <row r="194" spans="1:4">
-      <c r="A194" s="41"/>
+      <c r="A194" s="49"/>
       <c r="B194" s="1" t="s">
         <v>18</v>
       </c>
       <c r="C194" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="D194" s="41"/>
+      <c r="D194" s="49"/>
     </row>
     <row r="195" spans="1:4">
-      <c r="A195" s="41" t="s">
+      <c r="A195" s="49" t="s">
         <v>251</v>
       </c>
       <c r="B195" s="1">
@@ -7241,80 +7241,80 @@
       <c r="C195" s="1" t="s">
         <v>252</v>
       </c>
-      <c r="D195" s="41"/>
+      <c r="D195" s="49"/>
     </row>
     <row r="196" spans="1:4">
-      <c r="A196" s="41"/>
+      <c r="A196" s="49"/>
       <c r="B196" s="1">
         <v>2</v>
       </c>
       <c r="C196" s="1" t="s">
         <v>253</v>
       </c>
-      <c r="D196" s="41"/>
+      <c r="D196" s="49"/>
     </row>
     <row r="197" spans="1:4">
-      <c r="A197" s="41"/>
+      <c r="A197" s="49"/>
       <c r="B197" s="1">
         <v>3</v>
       </c>
       <c r="C197" s="1" t="s">
         <v>258</v>
       </c>
-      <c r="D197" s="41"/>
+      <c r="D197" s="49"/>
     </row>
     <row r="198" spans="1:4">
-      <c r="A198" s="41"/>
+      <c r="A198" s="49"/>
       <c r="B198" s="1">
         <v>4</v>
       </c>
       <c r="C198" s="1" t="s">
         <v>259</v>
       </c>
-      <c r="D198" s="41"/>
+      <c r="D198" s="49"/>
     </row>
     <row r="199" spans="1:4">
-      <c r="A199" s="41"/>
+      <c r="A199" s="49"/>
       <c r="B199" s="1">
         <v>5</v>
       </c>
       <c r="C199" s="1" t="s">
         <v>260</v>
       </c>
-      <c r="D199" s="41"/>
+      <c r="D199" s="49"/>
     </row>
     <row r="200" spans="1:4">
-      <c r="A200" s="41"/>
+      <c r="A200" s="49"/>
       <c r="B200" s="1">
         <v>6</v>
       </c>
       <c r="C200" s="1" t="s">
         <v>261</v>
       </c>
-      <c r="D200" s="41"/>
+      <c r="D200" s="49"/>
     </row>
     <row r="201" spans="1:4">
-      <c r="A201" s="41"/>
+      <c r="A201" s="49"/>
       <c r="B201" s="1">
         <v>7</v>
       </c>
       <c r="C201" s="1" t="s">
         <v>262</v>
       </c>
-      <c r="D201" s="41"/>
+      <c r="D201" s="49"/>
     </row>
     <row r="202" spans="1:4">
-      <c r="A202" s="41"/>
+      <c r="A202" s="49"/>
       <c r="B202" s="1" t="s">
         <v>18</v>
       </c>
       <c r="C202" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="D202" s="41"/>
+      <c r="D202" s="49"/>
     </row>
     <row r="203" spans="1:4">
-      <c r="A203" s="41" t="s">
+      <c r="A203" s="49" t="s">
         <v>263</v>
       </c>
       <c r="B203" s="1" t="s">
@@ -7323,50 +7323,50 @@
       <c r="C203" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="D203" s="41"/>
+      <c r="D203" s="49"/>
     </row>
     <row r="204" spans="1:4">
-      <c r="A204" s="41"/>
+      <c r="A204" s="49"/>
       <c r="B204" s="1" t="s">
         <v>290</v>
       </c>
       <c r="C204" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="D204" s="41"/>
+      <c r="D204" s="49"/>
     </row>
     <row r="205" spans="1:4">
-      <c r="A205" s="41"/>
+      <c r="A205" s="49"/>
       <c r="B205" s="1" t="s">
         <v>291</v>
       </c>
       <c r="C205" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="D205" s="41"/>
+      <c r="D205" s="49"/>
     </row>
     <row r="206" spans="1:4">
-      <c r="A206" s="41"/>
+      <c r="A206" s="49"/>
       <c r="B206" s="1" t="s">
         <v>292</v>
       </c>
       <c r="C206" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="D206" s="41"/>
+      <c r="D206" s="49"/>
     </row>
     <row r="207" spans="1:4">
-      <c r="A207" s="41"/>
+      <c r="A207" s="49"/>
       <c r="B207" s="1" t="s">
         <v>18</v>
       </c>
       <c r="C207" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="D207" s="41"/>
+      <c r="D207" s="49"/>
     </row>
     <row r="208" spans="1:4">
-      <c r="A208" s="41" t="s">
+      <c r="A208" s="49" t="s">
         <v>195</v>
       </c>
       <c r="B208" s="1" t="s">
@@ -7375,27 +7375,27 @@
       <c r="C208" s="1" t="s">
         <v>201</v>
       </c>
-      <c r="D208" s="41"/>
+      <c r="D208" s="49"/>
     </row>
     <row r="209" spans="1:4">
-      <c r="A209" s="41"/>
+      <c r="A209" s="49"/>
       <c r="B209" s="1" t="s">
         <v>206</v>
       </c>
       <c r="C209" s="1" t="s">
         <v>207</v>
       </c>
-      <c r="D209" s="41"/>
+      <c r="D209" s="49"/>
     </row>
     <row r="210" spans="1:4">
-      <c r="A210" s="41"/>
+      <c r="A210" s="49"/>
       <c r="B210" s="1" t="s">
         <v>210</v>
       </c>
       <c r="C210" s="1" t="s">
         <v>211</v>
       </c>
-      <c r="D210" s="41"/>
+      <c r="D210" s="49"/>
     </row>
     <row r="211" spans="1:4">
       <c r="A211" s="1"/>
@@ -7404,24 +7404,24 @@
       <c r="D211" s="1"/>
     </row>
     <row r="212" spans="1:4" ht="20.25">
-      <c r="A212" s="49" t="s">
+      <c r="A212" s="47" t="s">
         <v>293</v>
       </c>
-      <c r="B212" s="49"/>
-      <c r="C212" s="49"/>
-      <c r="D212" s="49"/>
-    </row>
-    <row r="213" spans="1:4" s="52" customFormat="1" ht="25.5">
-      <c r="A213" s="51" t="s">
+      <c r="B212" s="47"/>
+      <c r="C212" s="47"/>
+      <c r="D212" s="47"/>
+    </row>
+    <row r="213" spans="1:4" s="26" customFormat="1" ht="25.5">
+      <c r="A213" s="25" t="s">
         <v>504</v>
       </c>
-      <c r="B213" s="51" t="s">
+      <c r="B213" s="25" t="s">
         <v>110</v>
       </c>
-      <c r="C213" s="51" t="s">
+      <c r="C213" s="25" t="s">
         <v>1</v>
       </c>
-      <c r="D213" s="51" t="s">
+      <c r="D213" s="25" t="s">
         <v>0</v>
       </c>
     </row>
@@ -7435,7 +7435,7 @@
       <c r="C214" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="D214" s="40" t="s">
+      <c r="D214" s="48" t="s">
         <v>294</v>
       </c>
     </row>
@@ -7449,10 +7449,10 @@
       <c r="C215" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="D215" s="40"/>
+      <c r="D215" s="48"/>
     </row>
     <row r="216" spans="1:4">
-      <c r="A216" s="41" t="s">
+      <c r="A216" s="49" t="s">
         <v>82</v>
       </c>
       <c r="B216" s="1" t="s">
@@ -7461,20 +7461,20 @@
       <c r="C216" s="1" t="s">
         <v>83</v>
       </c>
-      <c r="D216" s="40"/>
+      <c r="D216" s="48"/>
     </row>
     <row r="217" spans="1:4">
-      <c r="A217" s="41"/>
+      <c r="A217" s="49"/>
       <c r="B217" s="1" t="s">
         <v>9</v>
       </c>
       <c r="C217" s="1" t="s">
         <v>84</v>
       </c>
-      <c r="D217" s="40"/>
+      <c r="D217" s="48"/>
     </row>
     <row r="218" spans="1:4">
-      <c r="A218" s="41" t="s">
+      <c r="A218" s="49" t="s">
         <v>295</v>
       </c>
       <c r="B218" s="1">
@@ -7483,30 +7483,30 @@
       <c r="C218" s="1" t="s">
         <v>86</v>
       </c>
-      <c r="D218" s="40"/>
+      <c r="D218" s="48"/>
     </row>
     <row r="219" spans="1:4">
-      <c r="A219" s="41"/>
+      <c r="A219" s="49"/>
       <c r="B219" s="1">
         <v>5</v>
       </c>
       <c r="C219" s="1" t="s">
         <v>87</v>
       </c>
-      <c r="D219" s="40"/>
+      <c r="D219" s="48"/>
     </row>
     <row r="220" spans="1:4">
-      <c r="A220" s="41"/>
+      <c r="A220" s="49"/>
       <c r="B220" s="1">
         <v>6</v>
       </c>
       <c r="C220" s="1" t="s">
         <v>88</v>
       </c>
-      <c r="D220" s="40"/>
+      <c r="D220" s="48"/>
     </row>
     <row r="221" spans="1:4">
-      <c r="A221" s="41" t="s">
+      <c r="A221" s="49" t="s">
         <v>296</v>
       </c>
       <c r="B221" s="1" t="s">
@@ -7515,30 +7515,30 @@
       <c r="C221" s="1" t="s">
         <v>90</v>
       </c>
-      <c r="D221" s="40"/>
+      <c r="D221" s="48"/>
     </row>
     <row r="222" spans="1:4">
-      <c r="A222" s="41"/>
+      <c r="A222" s="49"/>
       <c r="B222" s="1" t="s">
         <v>91</v>
       </c>
       <c r="C222" s="1" t="s">
         <v>92</v>
       </c>
-      <c r="D222" s="40"/>
+      <c r="D222" s="48"/>
     </row>
     <row r="223" spans="1:4">
-      <c r="A223" s="41"/>
+      <c r="A223" s="49"/>
       <c r="B223" s="1" t="s">
         <v>23</v>
       </c>
       <c r="C223" s="1" t="s">
         <v>93</v>
       </c>
-      <c r="D223" s="40"/>
+      <c r="D223" s="48"/>
     </row>
     <row r="224" spans="1:4">
-      <c r="A224" s="41" t="s">
+      <c r="A224" s="49" t="s">
         <v>94</v>
       </c>
       <c r="B224" s="1">
@@ -7547,37 +7547,37 @@
       <c r="C224" s="1" t="s">
         <v>95</v>
       </c>
-      <c r="D224" s="40"/>
+      <c r="D224" s="48"/>
     </row>
     <row r="225" spans="1:4">
-      <c r="A225" s="41"/>
+      <c r="A225" s="49"/>
       <c r="B225" s="1">
         <v>4</v>
       </c>
       <c r="C225" s="1" t="s">
         <v>96</v>
       </c>
-      <c r="D225" s="40"/>
+      <c r="D225" s="48"/>
     </row>
     <row r="226" spans="1:4">
-      <c r="A226" s="41"/>
+      <c r="A226" s="49"/>
       <c r="B226" s="1" t="s">
         <v>39</v>
       </c>
       <c r="C226" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="D226" s="40"/>
+      <c r="D226" s="48"/>
     </row>
     <row r="227" spans="1:4">
-      <c r="A227" s="41"/>
+      <c r="A227" s="49"/>
       <c r="B227" s="1" t="s">
         <v>43</v>
       </c>
       <c r="C227" s="1" t="s">
         <v>97</v>
       </c>
-      <c r="D227" s="40"/>
+      <c r="D227" s="48"/>
     </row>
     <row r="228" spans="1:4">
       <c r="A228" s="1" t="s">
@@ -7589,10 +7589,10 @@
       <c r="C228" s="1" t="s">
         <v>99</v>
       </c>
-      <c r="D228" s="40"/>
+      <c r="D228" s="48"/>
     </row>
     <row r="229" spans="1:4">
-      <c r="A229" s="41" t="s">
+      <c r="A229" s="49" t="s">
         <v>100</v>
       </c>
       <c r="B229" s="1" t="s">
@@ -7601,17 +7601,17 @@
       <c r="C229" s="1" t="s">
         <v>101</v>
       </c>
-      <c r="D229" s="40"/>
+      <c r="D229" s="48"/>
     </row>
     <row r="230" spans="1:4">
-      <c r="A230" s="41"/>
+      <c r="A230" s="49"/>
       <c r="B230" s="1" t="s">
         <v>102</v>
       </c>
       <c r="C230" s="1" t="s">
         <v>103</v>
       </c>
-      <c r="D230" s="40"/>
+      <c r="D230" s="48"/>
     </row>
     <row r="231" spans="1:4">
       <c r="A231" s="1" t="s">
@@ -7623,7 +7623,7 @@
       <c r="C231" s="1" t="s">
         <v>105</v>
       </c>
-      <c r="D231" s="40"/>
+      <c r="D231" s="48"/>
     </row>
     <row r="232" spans="1:4">
       <c r="A232" s="1" t="s">
@@ -7635,10 +7635,48 @@
       <c r="C232" s="1" t="s">
         <v>105</v>
       </c>
-      <c r="D232" s="40"/>
+      <c r="D232" s="48"/>
     </row>
   </sheetData>
   <mergeCells count="54">
+    <mergeCell ref="D4:D18"/>
+    <mergeCell ref="A7:A9"/>
+    <mergeCell ref="A10:A12"/>
+    <mergeCell ref="A13:A15"/>
+    <mergeCell ref="A4:A6"/>
+    <mergeCell ref="A16:A18"/>
+    <mergeCell ref="D177:D210"/>
+    <mergeCell ref="A56:D56"/>
+    <mergeCell ref="D58:D82"/>
+    <mergeCell ref="A59:A61"/>
+    <mergeCell ref="A62:A67"/>
+    <mergeCell ref="A71:A74"/>
+    <mergeCell ref="A76:A82"/>
+    <mergeCell ref="A84:D84"/>
+    <mergeCell ref="D86:D133"/>
+    <mergeCell ref="A87:A89"/>
+    <mergeCell ref="A90:A95"/>
+    <mergeCell ref="A96:A100"/>
+    <mergeCell ref="A101:A104"/>
+    <mergeCell ref="A105:A116"/>
+    <mergeCell ref="A120:A122"/>
+    <mergeCell ref="A157:A165"/>
+    <mergeCell ref="A20:D20"/>
+    <mergeCell ref="D22:D54"/>
+    <mergeCell ref="A23:A25"/>
+    <mergeCell ref="A26:A31"/>
+    <mergeCell ref="A32:A41"/>
+    <mergeCell ref="A47:A54"/>
+    <mergeCell ref="A166:A169"/>
+    <mergeCell ref="A170:A173"/>
+    <mergeCell ref="A175:D175"/>
+    <mergeCell ref="A123:A126"/>
+    <mergeCell ref="A127:A133"/>
+    <mergeCell ref="A135:D135"/>
+    <mergeCell ref="A136:D136"/>
+    <mergeCell ref="D138:D148"/>
+    <mergeCell ref="A142:A145"/>
+    <mergeCell ref="A146:A148"/>
     <mergeCell ref="A1:D1"/>
     <mergeCell ref="A212:D212"/>
     <mergeCell ref="D214:D232"/>
@@ -7655,44 +7693,6 @@
     <mergeCell ref="A208:A210"/>
     <mergeCell ref="A150:D150"/>
     <mergeCell ref="D152:D173"/>
-    <mergeCell ref="A166:A169"/>
-    <mergeCell ref="A170:A173"/>
-    <mergeCell ref="A175:D175"/>
-    <mergeCell ref="A123:A126"/>
-    <mergeCell ref="A127:A133"/>
-    <mergeCell ref="A135:D135"/>
-    <mergeCell ref="A136:D136"/>
-    <mergeCell ref="D138:D148"/>
-    <mergeCell ref="A142:A145"/>
-    <mergeCell ref="A146:A148"/>
-    <mergeCell ref="A20:D20"/>
-    <mergeCell ref="D22:D54"/>
-    <mergeCell ref="A23:A25"/>
-    <mergeCell ref="A26:A31"/>
-    <mergeCell ref="A32:A41"/>
-    <mergeCell ref="A47:A54"/>
-    <mergeCell ref="D177:D210"/>
-    <mergeCell ref="A56:D56"/>
-    <mergeCell ref="D58:D82"/>
-    <mergeCell ref="A59:A61"/>
-    <mergeCell ref="A62:A67"/>
-    <mergeCell ref="A71:A74"/>
-    <mergeCell ref="A76:A82"/>
-    <mergeCell ref="A84:D84"/>
-    <mergeCell ref="D86:D133"/>
-    <mergeCell ref="A87:A89"/>
-    <mergeCell ref="A90:A95"/>
-    <mergeCell ref="A96:A100"/>
-    <mergeCell ref="A101:A104"/>
-    <mergeCell ref="A105:A116"/>
-    <mergeCell ref="A120:A122"/>
-    <mergeCell ref="A157:A165"/>
-    <mergeCell ref="D4:D18"/>
-    <mergeCell ref="A7:A9"/>
-    <mergeCell ref="A10:A12"/>
-    <mergeCell ref="A13:A15"/>
-    <mergeCell ref="A4:A6"/>
-    <mergeCell ref="A16:A18"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/libs/standard.xlsx
+++ b/libs/standard.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Fires\Desktop\sensor_seg\libs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A5609AB7-9BE8-41B1-9A0F-027FB39A1520}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F87920DE-7571-4A44-9AFB-60E7C84D827F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="2" xr2:uid="{2E73714D-80D0-4596-A3F2-0D3CAF1C561D}"/>
+    <workbookView xWindow="8220" yWindow="2430" windowWidth="20640" windowHeight="11280" xr2:uid="{2E73714D-80D0-4596-A3F2-0D3CAF1C561D}"/>
   </bookViews>
   <sheets>
     <sheet name="温度变送器" sheetId="2" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="867" uniqueCount="504">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="837" uniqueCount="498">
   <si>
     <t>备注</t>
   </si>
@@ -272,17 +272,6 @@
     <t>防水接线盒，材质不锈钢</t>
   </si>
   <si>
-    <t>*1：适用于PT1、PT2、PT3金属保护管时，选择000。
-*2：插入长度≤50mm，材质与外保护管一致，如需其他，请注明。
-*3：带外保护套管时，此项可省略。
-*4：仅适用于YTA50、YTA70。
-*5：仅适用于HR。
-*6：仅适用于NEPSI防爆/N2。
-*7：产品如带外保护套管，仍需防尘防爆认证。
-*9：仅适用于NEPSI防爆/NS2。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>SZ</t>
   </si>
   <si>
@@ -346,19 +335,10 @@
     <t>过程连接</t>
   </si>
   <si>
-    <t>抱箍式 (注1)</t>
-  </si>
-  <si>
     <t>-W</t>
   </si>
   <si>
-    <t>焊接式 (注2)</t>
-  </si>
-  <si>
     <t>补偿导线长度</t>
-  </si>
-  <si>
-    <t>单位mm (注3)</t>
   </si>
   <si>
     <t>铠套长度</t>
@@ -715,11 +695,6 @@
     <t>插入深度 (U)</t>
   </si>
   <si>
-    <t>例：TG-K2-H11PN-150GH-22/18 
-(1)需提供现场工况过程参数(温度,压力,介质密度,介质黏度,介质流速,管道尺寸)。 
-(2)粗糙度Ra=0.8,长度不超过500mm</t>
-  </si>
-  <si>
     <t>-K</t>
   </si>
   <si>
@@ -813,10 +788,6 @@
     <t>27mm（不适用于DN25（1"））</t>
   </si>
   <si>
-    <t>例：TG-PT1-200RN-16
-粗糙度Ra=0.8,长度不超过500mm</t>
-  </si>
-  <si>
     <t>套管形式</t>
   </si>
   <si>
@@ -835,12 +806,6 @@
     <t>20mm</t>
   </si>
   <si>
-    <t>例：TG-PT2-200/300RN27-16
-(1)：外径应小于连接螺纹的小径
-(2)默认长度H=50mm,材质与外保护管一致,如需其他,请注明。
-(3)粗糙度Ra=0.8,长度不超过500mm。</t>
-  </si>
-  <si>
     <t>螺纹安装金属保护管</t>
   </si>
   <si>
@@ -898,19 +863,6 @@
     <t>G</t>
   </si>
   <si>
-    <t>（1）采用抱箍将感温片固定在测温点，需提供现场管道直径。
-（2）将感温片焊接固定在测温点，需提供现场曲面半径。
-（3）铠套端预留螺纹接口，便于在隔爆安装环境下安装。
-（4）仅适用于SZ
-（5）仅适用于SR</t>
-  </si>
-  <si>
-    <t>铠套外径</t>
-  </si>
-  <si>
-    <t>铠套材质</t>
-  </si>
-  <si>
     <t>表1 保护套管部分（可选项）</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -939,41 +891,14 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t xml:space="preserve">包含FM 本安/非可燃性和 CENELEC ATEX本安许可 
-  （CENELEC ATEX 本安许可，见/KS2） 
-  [FM 本安/非可燃性许可] 
-  适用标准：FM 3600, FM 3610, FM 3611, FM 3810 
-  本安：I级，1区，A、B、C 和 D组 
-电源：Vmax=28V, Imax=120mA, Pmax=0.84W, Ci ≤1nF, Li≤ 10μH 
-  非可燃性 ：I级， 2区， A、 B、 C 和 D组 
-  危险 （分类） 户内/户外 （4型） 
-  电源：Vmax=35V, Imax=150mA, Ci=0μF, Li=10μH 
-  环境温度：T6 Ta=5℃, T4 Ta=80℃ </t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>-A</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t xml:space="preserve">*1：输出信号代码J可选HART5或者HART7型号.订货时指定HART5或者HART7（. HART通讯建议输出信号代码J） 
-*2：输出信号代码J适用规格与设备标记如下： 
-适用规格：EN 60079-0: 2009, EN 60079-11: 2007, EN 60079-26: 2007, EN 61241-11: 2006 II 1 G Ex ia IIC T6 或者 T4 Ga, II 1 D Ex ia IIIC Da, I M 1 Ex ia I Ma 
-*3：选项代码/DS2适用于输出信号代码-E 
-*4：输出信号代码J，适用标准如下： 
-适用标准：3600组，3610组，3611组，3810组，ANSI/ISA-60079-0 和 ANSI/ISA-60079-11 
-*5：输出信号代码J适用设备标记如下：Ex ia IIC T6 ... T4 Ga, Ex ia IIIC Da, Ex ia I Ma </t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>4 ~ 20mA DC 数字通讯（HART 5 / HART 7 协议） *1</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>包含FM 本安/非可燃性和 ATEX 本安许可* 3 （ATEX 本安许可，见 /KS2） [FM 本安/非可燃性许可] 适用标准 *4：FM 3600, FM 3610, FM 3611, FM 3810 本安： I级，1区， A、 B、C 和 D组 电源： Vmax=30V, Imax=120mA, Pmax=0.84W, Ci =0μF, Li=10μH 非可燃性： I级， 2区， A、 B、C和 D组 危险（分类）户内/户外（TYPE 4） 电源：Vmax=35V, Ci=0μF, Li=10μH 环境温度：T6 Ta=60℃, T4 Ta=85℃</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>备注</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -986,26 +911,14 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t xml:space="preserve">*1： 壁装时，请自备螺栓和螺母。 *2： 不能在中国以外的国家或地区销售。 *3： 中国国内生产的产品随附中文铭牌和中文IM手册。 </t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>-D</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>4~20 mA DC，BRAIN通信型</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>-J</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>4~20 mA DC，HART通信型</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>-F</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1186,10 +1099,6 @@
     <t>WCE</t>
   </si>
   <si>
-    <t>允许电流：最大6000 A（8×20μs），反复1000 A（8×20μs）100次</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>涂层颜色/涂层变更 (仅放大器盖*4)</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1238,14 +1147,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>将异常时的输出值设定在LOW侧(-5％，3.2 mA DC或以下) 将传感器断偶值设定在LOW侧(-2.5％，3.6 mA DC)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>将异常时的输出值设定在HIGH侧(110%，21.6 mA DC或以上) 将传感器断偶值设定在HIGH侧(110%，21.6 mA DC)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>数据标签 *3</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1301,9 +1202,6 @@
     <t>NEPSI*¹</t>
   </si>
   <si>
-    <t>4-20 mA和现场总线：防水和防尘隔爆认证 适用标准：GB3836.1-2010, GB3836.2-2010, GB12476.1-2013, GB12476.5-2013 证书编号：GYJ16.1396X Ex d IIC T6/T5 Gb, Ex tD A21 IP66/IP67 T70℃/T90℃ 气体环境温度：T6: -40 ~ 75℃, T5: -40 ~ 80℃ 粉尘环境温度：T70℃: -30 ~ 65℃, T90℃: -30 ~ 80℃ 外壳防护等级：IP66/IP67 电气接口：1/2NPT内螺纹和M20外螺纹</t>
-  </si>
-  <si>
     <t>NF2</t>
   </si>
   <si>
@@ -1313,9 +1211,6 @@
     <t>NS25</t>
   </si>
   <si>
-    <t>4-20 mA[本安认证] 适用标准：GB3836.1-2010, GB3836.4-2010, GB3836.20-2010, GB3836.19-2010, GB12476.1-2013, GB12476.4-2010 证书编号：GYJ16.1423X Ex ia IIC T4/T5 Ga Ex ic IIC T4/T5 Gc Ex iaD [iaD 20] 21 IP6X T135°C 环境温度： - T4：-40 ~ 70°C，T5：-40 ~ 50°C (Ex ia) - -30 ~ 70°C (Ex iaD) - T4：-30 ~ 70°C，T5：-30 ~ 50°C (Ex ic) 外壳防护等级：IP66/IP67 过电压类别：I 电气参数(Ex ia) 电源/输出电路端子：+、- Ui = 30 V, Ii = 200 mA, Pi = 1.0 W, Ci = 22 nF, Li = 0 mH 传感器电路端子：1、2、3、4、5 Uo = 6 V, Io = 90 mA, Po = 135 mW, Co = 10 μF, Lo = 3.9 mH 电气参数(Ex ic) 电源/输出电路端子：+、- Ui = 30 V, Ci = 22 nF, Li = 0 mH 传感器电路端子：1、2、3、4、5 Uo = 6 V, Io = 90 mA, Po = 135 mW, Co = 10 μF, Lo = 3.9 mH 介电强度：500 V a.c.r.m.s., 1分钟(不带/A)</t>
-  </si>
-  <si>
     <t>YTA70P</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1368,10 +1263,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>4~20 mA DC，HART 通信型</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>-F</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1468,10 +1359,6 @@
   </si>
   <si>
     <t>附加规格（需填写代号）</t>
-  </si>
-  <si>
-    <t xml:space="preserve">*1： 壁装时，请自备螺栓和螺母。 </t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t xml:space="preserve">*2： 不能在中国以外的国家或地区销售。 
@@ -1605,6 +1492,161 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>说明</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">*1：不能选择船级认证。 </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>规格代码</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>规格代码</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>说明</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>备注</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>温度变送器（顶部安装）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>4 ~ 20mA DC 数字通讯（HART 5 协议）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>M12 × 1.5</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>表5-3 PT3型——法兰安装金属保护管</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>表5-1 PT1型——无固定装置保护管</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>表5-2 PT2型——螺纹安装金属保护管</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>带避雷器 *5</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>表1 温度传感器</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>表2 表面热电阻/偶选型代码</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>热电阻</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>抱箍式 *1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>焊接式 *2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>单位mm *3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>型号</t>
+  </si>
+  <si>
+    <t>A 型螺纹连接锥形保护套管</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>外径 (d)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>说明</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">*1：输出信号代码J可选HART5或者HART7型号.订货时指定HART5或者HART7（. HART通讯建议输出信号代码J） 
+*2：输出信号代码J适用规格与设备标记如下： 
+适用规格：EN 60079-0: 2009， EN 60079-11: 2007， EN 60079-26: 2007， EN 61241-11: 2006 II 1 G Ex ia IIC T6 或者 T4 Ga， II 1 D Ex ia IIIC Da， I M 1 Ex ia I Ma 
+*3：选项代码/DS2适用于输出信号代码-E 
+*4：输出信号代码J，适用标准如下： 
+适用标准：3600组，3610组，3611组，3810组，ANSI/ISA-60079-0 和 ANSI/ISA-60079-11 
+*5：输出信号代码J适用设备标记如下：Ex ia IIC T6 ... T4 Ga， Ex ia IIIC Da， Ex ia I Ma </t>
+  </si>
+  <si>
+    <t xml:space="preserve">ATEX本安许可 *2 适用标准： EN 60079-0: 2006， EN 60079-11: 2007， EN 60079-26: 2007， EN 61241-0: 2006， EN 61241-11: 2006 认证： KEMA 10 ATEX0027 II 1G Ex ia IIC T4 或 T6， II 1D Ex iaD 密气情况下的环境温度T4：-40 ~ 85℃（-40 ~ 185˚F）， T6: -40 ~ 60℃（-40 ~ 140˚F） 防尘情况下的表面温度： T4: T105 C 环境温度：-40 ~ 85℃（-40 ~ 185˚F） T6: T85 C 环境温度： -40 ~ 60℃（-40 ~ 140˚F） 电源/输出电路： Ui=30V， Ii=120mA， Pi=0.84W， Ci=1nF， Li=10μH 传感器电路： Uo=9.6V， Io=28mA， Po=67mW， Co=3.5F， Lo=35mH </t>
+  </si>
+  <si>
+    <t>包含FM 本安/非可燃性和 ATEX 本安许可* 3 （ATEX 本安许可，见 /KS2） [FM 本安/非可燃性许可] 适用标准 *4：FM 3600， FM 3610， FM 3611， FM 3810 本安： I级，1区， A、 B、C 和 D组 电源： Vmax=30V， Imax=120mA， Pmax=0.84W， Ci =0μF， Li=10μH 非可燃性： I级， 2区， A、 B、C和 D组 危险（分类）户内/户外（TYPE 4） 电源：Vmax=35V， Ci=0μF， Li=10μH 环境温度：T6 Ta=60℃， T4 Ta=85℃</t>
+  </si>
+  <si>
+    <t>包含IECEx 本安 *5、FM 本安/非可燃性 和 ATEX 本安许可 （FM 和 ATEX 本安许可， 见/KS2 和 /DS2） IECEx 本安许可 适用标准：IEC 60079-0:2007-10， IEC 60079-11:2006， IEC 60079-26:2006， IEC 61241-11:2005 认证：IECEx KEM 10.0086 Ex ia IIC T4...T6 Ga， Ex ia IIIC T135℃...T80 C Da 环境温度：T4：-40 ~ 85℃ （-40 ~ 185˚F），T6： -40 ~ 45℃ （-40 ~ 113˚F） 电源/输出电路： Ui=30V， Ii=120mA， Pi=0.84W， Ci=1nF， Li=10μH 传感器电路：Uo=9.6V， Io=28mA， Po=67mW， Co=3.5μF ， Lo=35mH</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ATEX， FM， IECEx， 与CSA本安许可 
+ATEX 本安许可 
+适用标准: EN 60079-0:2012， EN 60079-11:2012， EN 60079-26:2007 
+证书: DEKRA 14ATEX0106 X 
+II 1 G Ex ia IIC T5 Ga 防护等级: IP20 环境温度: ‒40 ~ 60℃ 
+II 1 D Ex ia IIIC Da 防护等级：IP6X 环境温度: ‒40 ~ 85℃ 
+电源与输出电路:Ui=30V， Ii=120mA， Pi=0.84W， Ci=1nF， Li=10μH 
+传感器电路: Uo=9.6V， Io=28mA， Po=67.2mW， Co=3.5μF， Lo=35mH 
+FM本安许可 
+适用标准: 3600级， 3610级， 3611级， 3810级， 
+ANSI/ISA-60079-0， ANSI/ISA-60079-11 
+本安： I级， 1区， A， B， C &amp; D组 
+I级， Zone 0， AEx ia， IIC组， T6
+环境温度: ‒40 ~ 60℃ 
+实际参数: V Max=30V， I Max=120mA， Pi=0.84W， Ci=1nF， Li=10μH 
+Vt=9.6V， It=28mA， Po=67.2mW， Ca=3.5μF， La=35mH 
+IECEx 本安许可 
+适用标准: IEC 60079-0: 2011， IEC 60079-11:2011， IEC 60079-26:2006 
+证书: IECEx DEK 14.0058X 
+Ex ia IIC T5 Ga 外壳: IP20 环境温度: ‒40 ~ 60℃ 
+Ex ia IIIC Da 外壳: IP6X 环境温度: ‒40 ~ 85℃ 
+电源与输出电路:Ui=30V， Ii=120mA， Pi=0.84W， Ci=1nF， Li=10μH 
+传感器电路: Uo=9.6V， Io=28mA， Po=67.2mW， Co=3.5μF， Lo=35mH 
+CSA本安许可 
+证书: 70009864 
+适用标准: CAN/CSA-C22.2 No.0-10， 
+CSA Std C22.2 No.142-M1987 （R2009）， CSA Std C22.2 No.157-92 （R2012） 
+CAN/CSA-C22.2 No.60079-0:11， CAN/CSA- C22.2 E60079-11:11， 
+I级， 1区， A， B， C &amp; D组， Ex ia IIC， Ga 
+UL Std No. 913 Ed. 8 ， UL Std No. 916 Ed. 4， UL 60079-0 Ed 5， 
+UL Std No. 60079-11 Ed. 6 
+I级， 1区， A， B， C &amp; D组 
+I级， Zone 0， AEx ia IIC， Ga
+温度等级: T6 
+环境温度: ‒40 ~ 60℃ 
+输入实际参数: Ui（Vmax）=30V， Ii（I max）=120mA， Pi=0.84W， Ci=1nF， Li=10μH 
+输出实际参数: Uo（Uoc）=9.6V， Io（Isc）=28mA， Po（Pmax）=67.2mW， Co（Ca）=3.5μF， Lo
+（La）=35mH </t>
+  </si>
+  <si>
+    <t>4~20 mA DC，HART 通信型</t>
+  </si>
+  <si>
+    <t xml:space="preserve">*1： 壁装时，请自备螺栓和螺母。 </t>
+  </si>
+  <si>
     <t>4-20 mA和现场总线： 
 [防火和防尘隔爆认证] 
 适用标准：GB3836.1-2010、GB3836.2-2010、GB12476.1-2013、GB12476.5-2013 
@@ -1614,7 +1656,6 @@
 粉尘环境温度：T70℃：-30 ~ 65℃，T90℃：-30 ~ 80℃
 外壳防护等级：IP66/IP67 
 电气接口：1/2NPT内螺纹和M20外螺纹</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t xml:space="preserve">4-20 mA： 
@@ -1640,7 +1681,6 @@
 传感器电路：端子：1、2、3、4、5 
 Uo=6 V、Io=90 mA、Po=135 mW、Co=10 μF、Lo=3.9 mH
 介电强度：500 V a.c.r.m.s.，1分钟(不带/A) </t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t xml:space="preserve">现场总线： 
@@ -1667,85 +1707,102 @@
 传感器电路：端子：1、2、3、4、5 
 Uo=6 V、Io=90 mA、Po=135 mW、Co=10 μF、Lo=3.9 mH
 介电强度：500 V a.c.r.m.s.，1分钟(不带/A) </t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>说明</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>4~20 mA DC，BRAIN通信型</t>
+  </si>
+  <si>
+    <t>4~20 mA DC，HART通信型</t>
   </si>
   <si>
     <t>主铭牌显示的规格代码表示出厂时的状态，如出厂后发生规格更改，可能会出现规格代码与实物不符的情况。 *1： 不能与不锈钢壳体组合。 *2： 不能与X2或P□组合。 *3： 仅支持HART通信型。 *4： 变更部分以外为标准涂层颜色(薄荷绿)和标准涂层(聚酯硬化型聚酯粉末涂层)。 *5： 避雷器可拆装。 *6： 不支持现场总线通信型。 *7： 基本规格代码中文B和SG不能组合。 *8： 不带SG选项时为中国产品(随附英文铭牌和英文IM)。 *9： 必须选择SG。 *10：带SG的产品原则上为新加坡生产的产品。 *11：不能与SG组合。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">*1：不能选择船级认证。 </t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>规格代码</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>规格代码</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>说明</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>备注</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>温度变送器（顶部安装）</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>4 ~ 20mA DC 数字通讯（HART 5 协议）</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>例：TG-G2-050GH30/16-250
-(1)需提供现场工况过程参数(温度,压力,介质密度,介质黏度,介质流速,管道尺寸)。  
-(2)粗糙度Ra=0.8,长度不超过500mm。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">
-例：TG-A2-27GH22/16-250  
-(1)默认长度H=50mm,材质与外保护管一致,如需其他,请注明。
-(2)需提供现场工况过程参数(温度,压力,介质密度,介质黏度,介质流速,管道尺寸)。  
-(3)粗糙度Ra=0.8,长度不超过500mm。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>M12 × 1.5</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>### 表面热电阻/偶选型代码</t>
-  </si>
-  <si>
-    <t>表5-3 PT3型——法兰安装金属保护管</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>如需强度计算书，请在订货时加以注明。
+  </si>
+  <si>
+    <t>4-20 mA和现场总线：防水和防尘隔爆认证 适用标准：GB3836.1-2010， GB3836.2-2010， GB12476.1-2013， GB12476.5-2013 证书编号：GYJ16.1396X Ex d IIC T6/T5 Gb， Ex tD A21 IP66/IP67 T70℃/T90℃ 气体环境温度：T6: -40 ~ 75℃， T5: -40 ~ 80℃ 粉尘环境温度：T70℃: -30 ~ 65℃， T90℃: -30 ~ 80℃ 外壳防护等级：IP66/IP67 电气接口：1/2NPT内螺纹和M20外螺纹</t>
+  </si>
+  <si>
+    <t>4-20 mA[本安认证] 适用标准：GB3836.1-2010， GB3836.4-2010， GB3836.20-2010， GB3836.19-2010， GB12476.1-2013， GB12476.4-2010 证书编号：GYJ16.1423X Ex ia IIC T4/T5 Ga Ex ic IIC T4/T5 Gc Ex iaD [iaD 20] 21 IP6X T135°C 环境温度： - T4：-40 ~ 70°C，T5：-40 ~ 50°C (Ex ia) - -30 ~ 70°C (Ex iaD) - T4：-30 ~ 70°C，T5：-30 ~ 50°C (Ex ic) 外壳防护等级：IP66/IP67 过电压类别：I 电气参数(Ex ia) 电源/输出电路端子：+、- Ui = 30 V， Ii = 200 mA， Pi = 1.0 W， Ci = 22 nF， Li = 0 mH 传感器电路端子：1、2、3、4、5 Uo = 6 V， Io = 90 mA， Po = 135 mW， Co = 10 μF， Lo = 3.9 mH 电气参数(Ex ic) 电源/输出电路端子：+、- Ui = 30 V， Ci = 22 nF， Li = 0 mH 传感器电路端子：1、2、3、4、5 Uo = 6 V， Io = 90 mA， Po = 135 mW， Co = 10 μF， Lo = 3.9 mH 介电强度：500 V a.c.r.m.s.， 1分钟(不带/A)</t>
+  </si>
+  <si>
+    <t>现场总线[本安认证] 适用标准：GB3836.1-2010， GB3836.4-2010， GB3836.20-2010， GB3836.19-2010， GB12476.1-2013， GB12476.4-2010 证书编号：GYJ16.1423X Ex ia IIC T4 Ga Ex ic IIC T4 Gc Ex iaD [iaD 20] 21 IP6X T135°C 环境温度： - T4：-55 ~ 60°C (Ex ia) - -30 ~ 60°C (Ex iaD) - T4 (Ex ic): -30 ~ 70°C 外壳防护等级：IP66/IP67 过电压类别：I 电气参数(Ex ia) 电源/输出电路端子：+、- FISCO现场设备或Ui = 30 V， Ii = 300 mA， Pi = 1.2 W， Ci = 2.2 nF， Li = 0 mH 传感器电路端子：1、2、3、4、5 Uo = 6 V， Io = 90 mA， Po = 135 mW， Co = 10 μF， Lo = 3.9 mH 电气参数(Ex ic) 电源/输出电路端子：+、- FISCO现场设备或Ui = 32 V， Ci = 2.2 nF， Li = 0 mH 传感器电路端子：1、2、3、4、5 Uo = 6 V， Io = 90 mA， Po = 135 mW， Co = 10 μF， Lo = 3.9 mH 介电强度**：500 V a.c.r.m.s.， 1分钟(不带/A)</t>
+  </si>
+  <si>
+    <t>*1：适用于PT1、PT2、PT3金属保护管时，选择000。
+*2：插入长度≤50mm，材质与外保护管一致，如需其他，请注明。
+*3：带外保护套管时，此项可省略。
+*4：仅适用于YTA50、YTA70。
+*5：仅适用于HR。
+*6：仅适用于NEPSI防爆/N2。
+*7：产品如带外保护套管，仍需防尘防爆认证。
+*9：仅适用于NEPSI防爆/NS2。</t>
+  </si>
+  <si>
+    <t xml:space="preserve">*1 采用抱箍将感温片固定在测温点，需提供现场管道直径。 
+*2 将感温片焊接固定在测温点，需提供现场曲面半径。 
+*3 铠套端预留螺纹接口，便于在隔爆安装环境下安装。 </t>
+  </si>
+  <si>
+    <t>单位mm *注3，仅适用于SR)</t>
+  </si>
+  <si>
+    <t>如需强度计算书，请在订货时加以注明。
 订货时指定以下信息：
 1. 完整的型号规格代码
 2. 校验范围和单位
 1） 校验范围在温度变送器的测量范围内指定。
-2） 从℃、K、</t>
+2） 从℃、K、˚F或˚R中指定一个温度输入单位。当指定温度变送器附加规格代码D2时，可选˚F和˚R。
+3. 位号
+&lt;相关产品&gt;
+YTA610温度变送器：参照GS01C50H01-01CN 
+YTA710温度变送器：参照GS01C50G01-01CN 
+YTA70温度变送器：参照GS 01C50C03-00CN 
+YTA70P温度变送器：参照GS 01C50C05-01CN 
+YTA50温度变送器：参照GS 01C50C01-00CN
+&lt;参考&gt;
+HART：HART通讯基金会（美国）商标。</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+例：TG-A2-27GH22/16-250  
+(1)默认长度H=50mm，材质与外保护管一致，如需其他，请注明。
+(2)需提供现场工况过程参数(温度，压力，介质密度，介质黏度，介质流速，管道尺寸)。  
+(3)粗糙度Ra=0.8，长度不超过500mm。</t>
+  </si>
+  <si>
+    <t>例：TG-G2-050GH30/16-250
+(1)需提供现场工况过程参数(温度，压力，介质密度，介质黏度，介质流速，管道尺寸)。  
+(2)粗糙度Ra=0.8，长度不超过500mm。</t>
+  </si>
+  <si>
+    <t>例：TG-K2-H11PN-150GH-22/18 
+(1)需提供现场工况过程参数(温度，压力，介质密度，介质黏度，介质流速，管道尺寸)。 
+(2)粗糙度Ra=0.8，长度不超过500mm</t>
+  </si>
+  <si>
+    <t>例：TG-PT1-200RN-16
+粗糙度Ra=0.8，长度不超过500mm</t>
+  </si>
+  <si>
+    <t>例：TG-PT2-200/300RN27-16
+(1)：外径应小于连接螺纹的小径
+(2)默认长度H=50mm，材质与外保护管一致，如需其他，请注明。
+(3)粗糙度Ra=0.8，长度不超过500mm。</t>
+  </si>
+  <si>
+    <r>
+      <t>CENELEC ATEX （KEMA） 本安许可 
+  适用标准： EN 60079-0: 2006， EN 60079-11: 2007， EN 60079-26: 2007， 
+  EN 61241-0: 2006， EN 61241-11: 2006 
+  认证：KEMA 06 ATEX0191 
+  II1G Ex ia IIC T4 或 T6， II1D Ex iaD 
+ 防气的环境温度： -40 ~ 85℃ （-40 ~ 185</t>
     </r>
     <r>
       <rPr>
         <sz val="12"/>
         <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="2"/>
-        <charset val="134"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
       </rPr>
       <t>˚</t>
     </r>
@@ -1757,387 +1814,14 @@
         <family val="3"/>
         <charset val="134"/>
       </rPr>
-      <t>F或</t>
+      <t>F）， T6: -40 t ~ 60 C （-40 ~ 140</t>
     </r>
     <r>
       <rPr>
         <sz val="12"/>
         <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t>˚</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>R中指定一个温度输入单位。当指定温度变送器附加规格代码D2时，可选</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t>˚</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>F和</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t>˚</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>R。
-3. 位号
-&lt;相关产品&gt;
-YTA610温度变送器：参照GS01C50H01-01CN 
-YTA710温度变送器：参照GS01C50G01-01CN 
-YTA70温度变送器：参照GS 01C50C03-00CN 
-YTA70P温度变送器：参照GS 01C50C05-01CN 
-YTA50温度变送器：参照GS 01C50C01-00CN
-&lt;参考&gt;
-HART：HART通讯基金会（美国）商标。</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>表5-1 PT1型——无固定装置保护管</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>表5-2 PT2型——螺纹安装金属保护管</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>ATEX本安许可 *2 适用标准： EN 60079-0: 2006, EN 60079-11: 2007, EN 60079-26: 2007, EN 61241-0: 2006, EN 61241-11: 2006 认证： KEMA 10 ATEX0027 II 1G Ex ia IIC T4 或 T6, II 1D Ex iaD 密气情况下的环境温度T4：-40 ~ 85℃（-40 ~ 185</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>˚</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>F）, T6: -40 ~ 60℃（-40 ~ 140</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>˚</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>F） 防尘情况下的表面温度： T4: T105 C 环境温度：-40 ~ 85℃（-40 ~ 185</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>˚</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>F） T6: T85 C 环境温度： -40 ~ 60℃（-40 ~ 140</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>˚</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t xml:space="preserve">F） 电源/输出电路： Ui=30V, Ii=120mA, Pi=0.84W, Ci=1nF, Li=10μH 传感器电路： Uo=9.6V, Io=28mA, Po=67mW, Co=3.5F, Lo=35mH </t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>包含IECEx 本安 *5、FM 本安/非可燃性 和 ATEX 本安许可 （FM 和 ATEX 本安许可, 见/KS2 和 /DS2） IECEx 本安许可 适用标准：IEC 60079-0:2007-10, IEC 60079-11:2006, IEC 60079-26:2006, IEC 61241-11:2005 认证：IECEx KEM 10.0086 Ex ia IIC T4...T6 Ga, Ex ia IIIC T135℃...T80 C Da 环境温度：T4：-40 ~ 85℃ （-40 ~ 185</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>˚</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>F），T6： -40 ~ 45℃ （-40 ~ 113</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>˚</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>F） 电源/输出电路： Ui=30V, Ii=120mA, Pi=0.84W, Ci=1nF, Li=10μH 传感器电路：Uo=9.6V, Io=28mA, Po=67mW, Co=3.5μF , Lo=35mH</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>带避雷器 *5</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">ATEX, FM, IECEx, 与CSA本安许可 
-ATEX 本安许可 
-适用标准: EN 60079-0:2012, EN 60079-11:2012, EN 60079-26:2007 
-证书: DEKRA 14ATEX0106 X 
-II 1 G Ex ia IIC T5 Ga 防护等级: IP20 环境温度: ‒40 ~ 60℃ 
-II 1 D Ex ia IIIC Da 防护等级：IP6X 环境温度: ‒40 ~ 85℃ 
-电源与输出电路:Ui=30V, Ii=120mA, Pi=0.84W, Ci=1nF, Li=10μH 
-传感器电路: Uo=9.6V, Io=28mA, Po=67.2mW, Co=3.5μF, Lo=35mH 
-FM本安许可 
-适用标准: 3600级, 3610级, 3611级, 3810级, 
-ANSI/ISA-60079-0, ANSI/ISA-60079-11 
-本安： I级, 1区, A, B, C &amp; D组 
-I级, Zone 0, AEx ia, IIC组, T6
-环境温度: ‒40 ~ 60℃ 
-实际参数: V Max=30V, I Max=120mA, Pi=0.84W, Ci=1nF, Li=10μH 
-Vt=9.6V, It=28mA, Po=67.2mW, Ca=3.5μF, La=35mH 
-IECEx 本安许可 
-适用标准: IEC 60079-0: 2011, IEC 60079-11:2011, IEC 60079-26:2006 
-证书: IECEx DEK 14.0058X 
-Ex ia IIC T5 Ga 外壳: IP20 环境温度: ‒40 ~ 60℃ 
-Ex ia IIIC Da 外壳: IP6X 环境温度: ‒40 ~ 85℃ 
-电源与输出电路:Ui=30V, Ii=120mA, Pi=0.84W, Ci=1nF, Li=10μH 
-传感器电路: Uo=9.6V, Io=28mA, Po=67.2mW, Co=3.5μF, Lo=35mH 
-CSA本安许可 
-证书: 70009864 
-适用标准: CAN/CSA-C22.2 No.0-10, 
-CSA Std C22.2 No.142-M1987 （R2009）, CSA Std C22.2 No.157-92 （R2012） 
-CAN/CSA-C22.2 No.60079-0:11, CAN/CSA- C22.2 E60079-11:11, 
-I级, 1区, A, B, C &amp; D组, Ex ia IIC, Ga 
-UL Std No. 913 Ed. 8 , UL Std No. 916 Ed. 4, UL 60079-0 Ed 5, 
-UL Std No. 60079-11 Ed. 6 
-I级, 1区, A, B, C &amp; D组 
-I级, Zone 0, AEx ia IIC, Ga
-温度等级: T6 
-环境温度: ‒40 ~ 60℃ 
-输入实际参数: Ui（Vmax）=30V, Ii（I max）=120mA, Pi=0.84W, Ci=1nF, Li=10μH 
-输出实际参数: Uo（Uoc）=9.6V, Io（Isc）=28mA, Po（Pmax）=67.2mW, Co（Ca）=3.5μF, Lo
-（La）=35mH </t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>表1 温度传感器</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>表2 表面热电阻/偶选型代码</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>热电阻</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>抱箍式 *1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>焊接式 *2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>单位mm *注3，仅适用于SR)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>单位mm *3</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">*1 采用抱箍将感温片固定在测温点，需提供现场管道直径。 
-*2 将感温片焊接固定在测温点，需提供现场曲面半径。 
-*3 铠套端预留螺纹接口，便于在隔爆安装环境下安装。 </t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">现场总线[本安认证] 适用标准：GB3836.1-2010, GB3836.4-2010, GB3836.20-2010, GB3836.19-2010, GB12476.1-2013, GB12476.4-2010 证书编号：GYJ16.1423X Ex ia IIC T4 Ga Ex ic IIC T4 Gc Ex iaD [iaD 20] 21 IP6X T135°C 环境温度： - T4：-55 ~ 60°C (Ex ia) - -30 ~ 60°C (Ex iaD) - T4 (Ex ic): -30 ~ 70°C 外壳防护等级：IP66/IP67 过电压类别：I 电气参数(Ex ia) 电源/输出电路端子：+、- FISCO现场设备或Ui = 30 V, Ii = 300 mA, Pi = 1.2 W, Ci = 2.2 nF, Li = 0 mH 传感器电路端子：1、2、3、4、5 Uo = 6 V, Io = 90 mA, Po = 135 mW, Co = 10 </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="3"/>
-        <charset val="161"/>
-      </rPr>
-      <t>μ</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t xml:space="preserve">F, Lo = 3.9 mH 电气参数(Ex ic) 电源/输出电路端子：+、- FISCO现场设备或Ui = 32 V, Ci = 2.2 nF, Li = 0 mH 传感器电路端子：1、2、3、4、5 Uo = 6 V, Io = 90 mA, Po = 135 mW, Co = 10 </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="3"/>
-        <charset val="161"/>
-      </rPr>
-      <t>μ</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>F, Lo = 3.9 mH 介电强度**：500 V a.c.r.m.s., 1分钟(不带/A)</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>型号</t>
-  </si>
-  <si>
-    <t>A 型螺纹连接锥形保护套管</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>CENELEC ATEX （KEMA） 本安许可 
-  适用标准： EN 60079-0: 2006, EN 60079-11: 2007, EN 60079-26: 2007, 
-  EN 61241-0: 2006, EN 61241-11: 2006 
-  认证：KEMA 06 ATEX0191 
-  II1G Ex ia IIC T4 或 T6, II1D Ex iaD 
- 防气的环境温度： -40 ~ 85℃ （-40 ~ 185</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t>˚</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>F）, T6: -40 t ~ 60 C （-40 ~ 140</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="2"/>
-        <charset val="134"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
       </rPr>
       <t>˚</t>
     </r>
@@ -2157,9 +1841,8 @@
       <rPr>
         <sz val="12"/>
         <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="2"/>
-        <charset val="134"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
       </rPr>
       <t>˚</t>
     </r>
@@ -2178,9 +1861,8 @@
       <rPr>
         <sz val="12"/>
         <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="2"/>
-        <charset val="134"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
       </rPr>
       <t>˚</t>
     </r>
@@ -2193,7 +1875,7 @@
         <charset val="134"/>
       </rPr>
       <t>F） 
-  供电/输出电路：Ui=30V, Ii=120mA, Pi=0.84W, Ci=1nF, Li=10</t>
+  供电/输出电路：Ui=30V， Ii=120mA， Pi=0.84W， Ci=1nF， Li=10</t>
     </r>
     <r>
       <rPr>
@@ -2214,8 +1896,95 @@
         <charset val="134"/>
       </rPr>
       <t xml:space="preserve">H 
- 传感器电路：Uo=9.6V, Io=25mA, Po=60mW, Co=2.4F, Lo=33mH </t>
+ 传感器电路：Uo=9.6V， Io=25mA， Po=60mW， Co=2.4F， Lo=33mH </t>
     </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>包含FM 本安/非可燃性和 CENELEC ATEX本安许可 
+  （CENELEC ATEX 本安许可，见/KS2） 
+  [FM 本安/非可燃性许可] 
+  适用标准：FM 3600， FM 3610， FM 3611， FM 3810 
+  本安：I级，1区，A、B、C 和 D组 
+电源：Vmax=28V， Imax=120mA， Pmax=0.84W， Ci ≤1nF， Li≤ 10</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="3"/>
+        <charset val="161"/>
+      </rPr>
+      <t>μ</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>H 
+  非可燃性 ：I级， 2区， A、 B、 C 和 D组 
+  危险 （分类） 户内/户外 （4型） 
+  电源：Vmax=35V， Imax=150mA， Ci=0</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="3"/>
+        <charset val="161"/>
+      </rPr>
+      <t>μ</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>F， Li=10</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="3"/>
+        <charset val="161"/>
+      </rPr>
+      <t>μ</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">H 
+  环境温度：T6 Ta=5℃， T4 Ta=80℃ </t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>*1： 壁装时，请自备螺栓和螺母。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> *2： 不能在中国以外的国家或地区销售。 *3： 中国国内生产的产品随附中文铭牌和中文IM手册。 </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>套管形式</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -2223,7 +1992,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="12" x14ac:knownFonts="1">
+  <fonts count="11" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -2256,13 +2025,6 @@
     <font>
       <sz val="12"/>
       <color theme="1"/>
-      <name val="等线"/>
-      <family val="2"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <color theme="1"/>
       <name val="宋体"/>
       <family val="3"/>
       <charset val="134"/>
@@ -2271,13 +2033,6 @@
       <sz val="12"/>
       <color rgb="FF1F0909"/>
       <name val="宋体"/>
-      <family val="3"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <color theme="1"/>
-      <name val="等线"/>
       <family val="3"/>
       <charset val="134"/>
     </font>
@@ -2311,6 +2066,12 @@
       <name val="黑体"/>
       <family val="3"/>
       <charset val="134"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
     </font>
   </fonts>
   <fills count="2">
@@ -2386,84 +2147,93 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="25">
+  <cellXfs count="28">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="5" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -2783,8 +2553,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{17B63BF4-D215-4CE9-8F3E-45898E4D033A}">
   <dimension ref="A1:F118"/>
   <sheetViews>
-    <sheetView topLeftCell="A28" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection sqref="A1:D1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -2798,22 +2568,22 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="A1" s="21" t="s">
-        <v>287</v>
-      </c>
-      <c r="B1" s="21"/>
-      <c r="C1" s="21"/>
-      <c r="D1" s="21"/>
+      <c r="A1" s="20" t="s">
+        <v>277</v>
+      </c>
+      <c r="B1" s="20"/>
+      <c r="C1" s="20"/>
+      <c r="D1" s="20"/>
     </row>
     <row r="2" spans="1:4" ht="20.25" x14ac:dyDescent="0.2">
       <c r="A2" s="7" t="s">
-        <v>501</v>
+        <v>464</v>
       </c>
       <c r="B2" s="7" t="s">
-        <v>107</v>
+        <v>103</v>
       </c>
       <c r="C2" s="7" t="s">
-        <v>1</v>
+        <v>467</v>
       </c>
       <c r="D2" s="7" t="s">
         <v>0</v>
@@ -2821,62 +2591,64 @@
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A3" s="6" t="s">
-        <v>106</v>
-      </c>
-      <c r="B3" s="6"/>
+        <v>102</v>
+      </c>
+      <c r="B3" s="14" t="s">
+        <v>102</v>
+      </c>
       <c r="C3" s="6" t="s">
-        <v>112</v>
+        <v>108</v>
       </c>
       <c r="D3" s="6"/>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A4" s="6" t="s">
+        <v>109</v>
+      </c>
+      <c r="B4" s="5" t="s">
+        <v>279</v>
+      </c>
+      <c r="C4" s="6" t="s">
+        <v>110</v>
+      </c>
+      <c r="D4" s="6"/>
+    </row>
+    <row r="5" spans="1:4" ht="177" x14ac:dyDescent="0.2">
+      <c r="A5" s="22" t="s">
+        <v>112</v>
+      </c>
+      <c r="B5" s="6" t="s">
         <v>113</v>
       </c>
-      <c r="B4" s="5" t="s">
-        <v>290</v>
-      </c>
-      <c r="C4" s="6" t="s">
+      <c r="C5" s="6" t="s">
+        <v>493</v>
+      </c>
+      <c r="D5" s="6"/>
+    </row>
+    <row r="6" spans="1:4" ht="145.5" x14ac:dyDescent="0.2">
+      <c r="A6" s="23"/>
+      <c r="B6" s="6" t="s">
         <v>114</v>
       </c>
-      <c r="D4" s="6"/>
-    </row>
-    <row r="5" spans="1:4" ht="162.75" x14ac:dyDescent="0.2">
-      <c r="A5" s="16" t="s">
-        <v>116</v>
-      </c>
-      <c r="B5" s="6" t="s">
-        <v>117</v>
-      </c>
-      <c r="C5" s="6" t="s">
-        <v>503</v>
-      </c>
-      <c r="D5" s="6"/>
-    </row>
-    <row r="6" spans="1:4" ht="142.5" x14ac:dyDescent="0.2">
-      <c r="A6" s="18"/>
-      <c r="B6" s="6" t="s">
-        <v>118</v>
-      </c>
       <c r="C6" s="6" t="s">
-        <v>289</v>
+        <v>494</v>
       </c>
       <c r="D6" s="6"/>
     </row>
     <row r="8" spans="1:4" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="A8" s="21" t="s">
-        <v>288</v>
-      </c>
-      <c r="B8" s="21"/>
-      <c r="C8" s="21"/>
-      <c r="D8" s="21"/>
+      <c r="A8" s="20" t="s">
+        <v>278</v>
+      </c>
+      <c r="B8" s="20"/>
+      <c r="C8" s="20"/>
+      <c r="D8" s="20"/>
     </row>
     <row r="9" spans="1:4" ht="20.25" x14ac:dyDescent="0.2">
       <c r="A9" s="7" t="s">
-        <v>501</v>
+        <v>464</v>
       </c>
       <c r="B9" s="7" t="s">
-        <v>107</v>
+        <v>103</v>
       </c>
       <c r="C9" s="7" t="s">
         <v>1</v>
@@ -2887,84 +2659,86 @@
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A10" s="8" t="s">
-        <v>119</v>
-      </c>
-      <c r="B10" s="8"/>
+        <v>115</v>
+      </c>
+      <c r="B10" s="15" t="s">
+        <v>115</v>
+      </c>
       <c r="C10" s="8" t="s">
-        <v>478</v>
-      </c>
-      <c r="D10" s="22" t="s">
-        <v>291</v>
+        <v>451</v>
+      </c>
+      <c r="D10" s="17" t="s">
+        <v>468</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A11" s="19" t="s">
-        <v>108</v>
+      <c r="A11" s="21" t="s">
+        <v>104</v>
       </c>
       <c r="B11" s="8" t="s">
-        <v>120</v>
+        <v>116</v>
       </c>
       <c r="C11" s="8" t="s">
-        <v>479</v>
-      </c>
-      <c r="D11" s="23"/>
+        <v>452</v>
+      </c>
+      <c r="D11" s="18"/>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A12" s="19"/>
+      <c r="A12" s="21"/>
       <c r="B12" s="8" t="s">
-        <v>121</v>
+        <v>117</v>
       </c>
       <c r="C12" s="8" t="s">
-        <v>292</v>
-      </c>
-      <c r="D12" s="23"/>
-    </row>
-    <row r="13" spans="1:4" ht="104.25" x14ac:dyDescent="0.2">
-      <c r="A13" s="19" t="s">
-        <v>115</v>
+        <v>280</v>
+      </c>
+      <c r="D12" s="18"/>
+    </row>
+    <row r="13" spans="1:4" ht="99.75" x14ac:dyDescent="0.2">
+      <c r="A13" s="21" t="s">
+        <v>111</v>
       </c>
       <c r="B13" s="8" t="s">
-        <v>110</v>
+        <v>106</v>
       </c>
       <c r="C13" s="8" t="s">
-        <v>488</v>
-      </c>
-      <c r="D13" s="23"/>
+        <v>469</v>
+      </c>
+      <c r="D13" s="18"/>
     </row>
     <row r="14" spans="1:4" ht="71.25" x14ac:dyDescent="0.2">
-      <c r="A14" s="19"/>
+      <c r="A14" s="21"/>
       <c r="B14" s="8" t="s">
-        <v>111</v>
+        <v>107</v>
       </c>
       <c r="C14" s="8" t="s">
-        <v>293</v>
-      </c>
-      <c r="D14" s="23"/>
-    </row>
-    <row r="15" spans="1:4" ht="101.25" x14ac:dyDescent="0.2">
-      <c r="A15" s="19"/>
+        <v>470</v>
+      </c>
+      <c r="D14" s="18"/>
+    </row>
+    <row r="15" spans="1:4" ht="99.75" x14ac:dyDescent="0.2">
+      <c r="A15" s="21"/>
       <c r="B15" s="8" t="s">
-        <v>122</v>
+        <v>118</v>
       </c>
       <c r="C15" s="8" t="s">
-        <v>489</v>
-      </c>
-      <c r="D15" s="24"/>
+        <v>471</v>
+      </c>
+      <c r="D15" s="19"/>
     </row>
     <row r="17" spans="1:4" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="A17" s="21" t="s">
-        <v>394</v>
-      </c>
-      <c r="B17" s="21"/>
-      <c r="C17" s="21"/>
-      <c r="D17" s="21"/>
+      <c r="A17" s="20" t="s">
+        <v>373</v>
+      </c>
+      <c r="B17" s="20"/>
+      <c r="C17" s="20"/>
+      <c r="D17" s="20"/>
     </row>
     <row r="18" spans="1:4" ht="20.25" x14ac:dyDescent="0.2">
       <c r="A18" s="7" t="s">
-        <v>501</v>
+        <v>464</v>
       </c>
       <c r="B18" s="7" t="s">
-        <v>107</v>
+        <v>103</v>
       </c>
       <c r="C18" s="7" t="s">
         <v>1</v>
@@ -2975,45 +2749,47 @@
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A19" s="8" t="s">
-        <v>385</v>
-      </c>
-      <c r="B19" s="8"/>
+        <v>364</v>
+      </c>
+      <c r="B19" s="15" t="s">
+        <v>364</v>
+      </c>
       <c r="C19" s="8" t="s">
-        <v>386</v>
+        <v>365</v>
       </c>
       <c r="D19" s="8"/>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A20" s="22" t="s">
-        <v>387</v>
+      <c r="A20" s="17" t="s">
+        <v>366</v>
       </c>
       <c r="B20" s="8" t="s">
-        <v>388</v>
+        <v>367</v>
       </c>
       <c r="C20" s="8" t="s">
-        <v>389</v>
+        <v>368</v>
       </c>
       <c r="D20" s="8"/>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A21" s="24"/>
+      <c r="A21" s="19"/>
       <c r="B21" s="8" t="s">
-        <v>390</v>
+        <v>369</v>
       </c>
       <c r="C21" s="8" t="s">
-        <v>391</v>
+        <v>370</v>
       </c>
       <c r="D21" s="8"/>
     </row>
     <row r="22" spans="1:4" ht="409.5" x14ac:dyDescent="0.2">
       <c r="A22" s="8" t="s">
-        <v>392</v>
+        <v>371</v>
       </c>
       <c r="B22" s="8" t="s">
-        <v>393</v>
+        <v>372</v>
       </c>
       <c r="C22" s="8" t="s">
-        <v>491</v>
+        <v>472</v>
       </c>
       <c r="D22" s="8"/>
     </row>
@@ -3024,19 +2800,19 @@
       <c r="D23" s="1"/>
     </row>
     <row r="24" spans="1:4" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="A24" s="21" t="s">
-        <v>395</v>
-      </c>
-      <c r="B24" s="21"/>
-      <c r="C24" s="21"/>
-      <c r="D24" s="21"/>
+      <c r="A24" s="20" t="s">
+        <v>374</v>
+      </c>
+      <c r="B24" s="20"/>
+      <c r="C24" s="20"/>
+      <c r="D24" s="20"/>
     </row>
     <row r="25" spans="1:4" ht="20.25" x14ac:dyDescent="0.2">
       <c r="A25" s="9" t="s">
-        <v>501</v>
+        <v>464</v>
       </c>
       <c r="B25" s="9" t="s">
-        <v>107</v>
+        <v>103</v>
       </c>
       <c r="C25" s="9" t="s">
         <v>1</v>
@@ -3047,457 +2823,459 @@
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A26" s="8" t="s">
-        <v>396</v>
-      </c>
-      <c r="B26" s="8"/>
+        <v>375</v>
+      </c>
+      <c r="B26" s="15" t="s">
+        <v>375</v>
+      </c>
       <c r="C26" s="8" t="s">
-        <v>397</v>
+        <v>376</v>
       </c>
       <c r="D26" s="8"/>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A27" s="22" t="s">
-        <v>387</v>
+      <c r="A27" s="17" t="s">
+        <v>366</v>
       </c>
       <c r="B27" s="8" t="s">
-        <v>388</v>
+        <v>367</v>
       </c>
       <c r="C27" s="8" t="s">
-        <v>398</v>
+        <v>473</v>
       </c>
       <c r="D27" s="8"/>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A28" s="24"/>
+      <c r="A28" s="19"/>
       <c r="B28" s="8" t="s">
-        <v>399</v>
+        <v>377</v>
       </c>
       <c r="C28" s="8" t="s">
-        <v>400</v>
+        <v>378</v>
       </c>
       <c r="D28" s="8"/>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A29" s="22" t="s">
-        <v>401</v>
+      <c r="A29" s="17" t="s">
+        <v>379</v>
       </c>
       <c r="B29" s="8" t="s">
-        <v>402</v>
+        <v>380</v>
       </c>
       <c r="C29" s="8" t="s">
-        <v>306</v>
+        <v>290</v>
       </c>
       <c r="D29" s="8"/>
     </row>
     <row r="30" spans="1:4" ht="28.5" x14ac:dyDescent="0.2">
-      <c r="A30" s="24"/>
+      <c r="A30" s="19"/>
       <c r="B30" s="8" t="s">
-        <v>403</v>
+        <v>381</v>
       </c>
       <c r="C30" s="8" t="s">
-        <v>404</v>
+        <v>382</v>
       </c>
       <c r="D30" s="8" t="s">
-        <v>430</v>
+        <v>407</v>
       </c>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A31" s="22" t="s">
-        <v>405</v>
+      <c r="A31" s="17" t="s">
+        <v>383</v>
       </c>
       <c r="B31" s="8">
         <v>1</v>
       </c>
       <c r="C31" s="8" t="s">
-        <v>406</v>
+        <v>384</v>
       </c>
       <c r="D31" s="8"/>
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A32" s="24"/>
+      <c r="A32" s="19"/>
       <c r="B32" s="8">
         <v>2</v>
       </c>
       <c r="C32" s="8" t="s">
-        <v>407</v>
+        <v>385</v>
       </c>
       <c r="D32" s="8"/>
     </row>
     <row r="33" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A33" s="22" t="s">
-        <v>408</v>
+      <c r="A33" s="17" t="s">
+        <v>386</v>
       </c>
       <c r="B33" s="8" t="s">
-        <v>409</v>
+        <v>387</v>
       </c>
       <c r="C33" s="8" t="s">
-        <v>410</v>
+        <v>388</v>
       </c>
       <c r="D33" s="8"/>
     </row>
     <row r="34" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A34" s="24"/>
+      <c r="A34" s="19"/>
       <c r="B34" s="8" t="s">
-        <v>411</v>
+        <v>389</v>
       </c>
       <c r="C34" s="8" t="s">
-        <v>412</v>
+        <v>390</v>
       </c>
       <c r="D34" s="8"/>
     </row>
     <row r="35" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A35" s="22" t="s">
-        <v>413</v>
+      <c r="A35" s="17" t="s">
+        <v>391</v>
       </c>
       <c r="B35" s="8">
         <v>0</v>
       </c>
       <c r="C35" s="8" t="s">
-        <v>414</v>
+        <v>392</v>
       </c>
       <c r="D35" s="8"/>
     </row>
     <row r="36" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A36" s="23"/>
+      <c r="A36" s="18"/>
       <c r="B36" s="8">
         <v>2</v>
       </c>
       <c r="C36" s="8" t="s">
-        <v>415</v>
+        <v>393</v>
       </c>
       <c r="D36" s="8"/>
     </row>
     <row r="37" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A37" s="24"/>
+      <c r="A37" s="19"/>
       <c r="B37" s="8">
         <v>4</v>
       </c>
       <c r="C37" s="8" t="s">
-        <v>416</v>
+        <v>394</v>
       </c>
       <c r="D37" s="8"/>
     </row>
     <row r="38" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A38" s="22" t="s">
-        <v>417</v>
+      <c r="A38" s="17" t="s">
+        <v>395</v>
       </c>
       <c r="B38" s="8" t="s">
-        <v>418</v>
+        <v>396</v>
       </c>
       <c r="C38" s="8" t="s">
-        <v>419</v>
+        <v>397</v>
       </c>
       <c r="D38" s="8"/>
     </row>
     <row r="39" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A39" s="24"/>
+      <c r="A39" s="19"/>
       <c r="B39" s="8" t="s">
-        <v>420</v>
+        <v>398</v>
       </c>
       <c r="C39" s="8" t="s">
-        <v>421</v>
+        <v>399</v>
       </c>
       <c r="D39" s="8"/>
     </row>
     <row r="40" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A40" s="22" t="s">
-        <v>422</v>
+      <c r="A40" s="17" t="s">
+        <v>400</v>
       </c>
       <c r="B40" s="8" t="s">
-        <v>423</v>
+        <v>401</v>
       </c>
       <c r="C40" s="8" t="s">
-        <v>424</v>
+        <v>402</v>
       </c>
       <c r="D40" s="8" t="s">
-        <v>429</v>
+        <v>474</v>
       </c>
     </row>
     <row r="41" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A41" s="23"/>
+      <c r="A41" s="18"/>
       <c r="B41" s="8" t="s">
-        <v>418</v>
+        <v>396</v>
       </c>
       <c r="C41" s="8" t="s">
-        <v>425</v>
+        <v>403</v>
       </c>
       <c r="D41" s="8"/>
     </row>
     <row r="42" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A42" s="23"/>
+      <c r="A42" s="18"/>
       <c r="B42" s="8" t="s">
         <v>41</v>
       </c>
       <c r="C42" s="8" t="s">
-        <v>426</v>
+        <v>404</v>
       </c>
       <c r="D42" s="8" t="s">
-        <v>429</v>
+        <v>474</v>
       </c>
     </row>
     <row r="43" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A43" s="23"/>
+      <c r="A43" s="18"/>
       <c r="B43" s="8" t="s">
         <v>43</v>
       </c>
       <c r="C43" s="8" t="s">
-        <v>427</v>
+        <v>405</v>
       </c>
       <c r="D43" s="8"/>
     </row>
     <row r="44" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A44" s="24"/>
+      <c r="A44" s="19"/>
       <c r="B44" s="8" t="s">
-        <v>420</v>
+        <v>398</v>
       </c>
       <c r="C44" s="8" t="s">
-        <v>421</v>
+        <v>399</v>
       </c>
       <c r="D44" s="8"/>
     </row>
     <row r="45" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A45" s="8" t="s">
-        <v>115</v>
+        <v>111</v>
       </c>
       <c r="B45" s="8" t="s">
-        <v>184</v>
+        <v>180</v>
       </c>
       <c r="C45" s="8" t="s">
-        <v>428</v>
+        <v>406</v>
       </c>
       <c r="D45" s="8"/>
     </row>
     <row r="47" spans="1:5" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="A47" s="21" t="s">
-        <v>461</v>
-      </c>
-      <c r="B47" s="21"/>
-      <c r="C47" s="21"/>
-      <c r="D47" s="21"/>
-      <c r="E47" s="21"/>
+      <c r="A47" s="20" t="s">
+        <v>438</v>
+      </c>
+      <c r="B47" s="20"/>
+      <c r="C47" s="20"/>
+      <c r="D47" s="20"/>
+      <c r="E47" s="20"/>
     </row>
     <row r="48" spans="1:5" ht="20.25" x14ac:dyDescent="0.2">
       <c r="A48" s="7" t="s">
-        <v>501</v>
+        <v>464</v>
       </c>
       <c r="B48" s="4" t="s">
-        <v>475</v>
-      </c>
-      <c r="C48" s="20" t="s">
-        <v>476</v>
-      </c>
-      <c r="D48" s="20"/>
+        <v>448</v>
+      </c>
+      <c r="C48" s="24" t="s">
+        <v>449</v>
+      </c>
+      <c r="D48" s="24"/>
       <c r="E48" s="4" t="s">
-        <v>294</v>
+        <v>281</v>
       </c>
     </row>
     <row r="49" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A49" s="8" t="s">
-        <v>431</v>
+        <v>408</v>
       </c>
       <c r="B49" s="8" t="s">
+        <v>387</v>
+      </c>
+      <c r="C49" s="21" t="s">
         <v>409</v>
       </c>
-      <c r="C49" s="19" t="s">
-        <v>432</v>
-      </c>
-      <c r="D49" s="19"/>
-      <c r="E49" s="19" t="s">
-        <v>433</v>
+      <c r="D49" s="21"/>
+      <c r="E49" s="21" t="s">
+        <v>410</v>
       </c>
     </row>
     <row r="50" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A50" s="19" t="s">
-        <v>335</v>
+      <c r="A50" s="21" t="s">
+        <v>319</v>
       </c>
       <c r="B50" s="8" t="s">
-        <v>336</v>
-      </c>
-      <c r="C50" s="19" t="s">
-        <v>434</v>
+        <v>320</v>
+      </c>
+      <c r="C50" s="21" t="s">
+        <v>411</v>
       </c>
       <c r="D50" s="8" t="s">
-        <v>435</v>
-      </c>
-      <c r="E50" s="19"/>
+        <v>412</v>
+      </c>
+      <c r="E50" s="21"/>
     </row>
     <row r="51" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A51" s="19"/>
+      <c r="A51" s="21"/>
       <c r="B51" s="8" t="s">
-        <v>436</v>
-      </c>
-      <c r="C51" s="19"/>
+        <v>413</v>
+      </c>
+      <c r="C51" s="21"/>
       <c r="D51" s="8" t="s">
-        <v>437</v>
-      </c>
-      <c r="E51" s="19"/>
+        <v>414</v>
+      </c>
+      <c r="E51" s="21"/>
     </row>
     <row r="52" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A52" s="19"/>
+      <c r="A52" s="21"/>
       <c r="B52" s="8" t="s">
-        <v>337</v>
-      </c>
-      <c r="C52" s="19"/>
+        <v>321</v>
+      </c>
+      <c r="C52" s="21"/>
       <c r="D52" s="8" t="s">
-        <v>438</v>
-      </c>
-      <c r="E52" s="19"/>
+        <v>415</v>
+      </c>
+      <c r="E52" s="21"/>
     </row>
     <row r="53" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A53" s="19"/>
+      <c r="A53" s="21"/>
       <c r="B53" s="8" t="s">
-        <v>439</v>
+        <v>416</v>
       </c>
       <c r="C53" s="8" t="s">
-        <v>440</v>
+        <v>417</v>
       </c>
       <c r="D53" s="8" t="s">
-        <v>441</v>
-      </c>
-      <c r="E53" s="19"/>
+        <v>418</v>
+      </c>
+      <c r="E53" s="21"/>
     </row>
     <row r="54" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A54" s="19"/>
+      <c r="A54" s="21"/>
       <c r="B54" s="8" t="s">
-        <v>338</v>
+        <v>322</v>
       </c>
       <c r="C54" s="8" t="s">
-        <v>442</v>
+        <v>419</v>
       </c>
       <c r="D54" s="8" t="s">
-        <v>443</v>
-      </c>
-      <c r="E54" s="19"/>
+        <v>420</v>
+      </c>
+      <c r="E54" s="21"/>
     </row>
     <row r="55" spans="1:5" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A55" s="8" t="s">
-        <v>444</v>
+        <v>421</v>
       </c>
       <c r="B55" s="8" t="s">
-        <v>445</v>
-      </c>
-      <c r="C55" s="19" t="s">
-        <v>339</v>
-      </c>
-      <c r="D55" s="19"/>
-      <c r="E55" s="19"/>
+        <v>422</v>
+      </c>
+      <c r="C55" s="21" t="s">
+        <v>323</v>
+      </c>
+      <c r="D55" s="21"/>
+      <c r="E55" s="21"/>
     </row>
     <row r="56" spans="1:5" ht="28.5" x14ac:dyDescent="0.2">
-      <c r="A56" s="19" t="s">
-        <v>446</v>
+      <c r="A56" s="21" t="s">
+        <v>423</v>
       </c>
       <c r="B56" s="8" t="s">
-        <v>342</v>
-      </c>
-      <c r="C56" s="19" t="s">
-        <v>341</v>
+        <v>326</v>
+      </c>
+      <c r="C56" s="21" t="s">
+        <v>325</v>
       </c>
       <c r="D56" s="8" t="s">
-        <v>447</v>
-      </c>
-      <c r="E56" s="19"/>
+        <v>424</v>
+      </c>
+      <c r="E56" s="21"/>
     </row>
     <row r="57" spans="1:5" ht="28.5" x14ac:dyDescent="0.2">
-      <c r="A57" s="19"/>
+      <c r="A57" s="21"/>
       <c r="B57" s="8" t="s">
-        <v>343</v>
-      </c>
-      <c r="C57" s="19"/>
+        <v>327</v>
+      </c>
+      <c r="C57" s="21"/>
       <c r="D57" s="8" t="s">
-        <v>448</v>
-      </c>
-      <c r="E57" s="19"/>
+        <v>425</v>
+      </c>
+      <c r="E57" s="21"/>
     </row>
     <row r="58" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A58" s="8" t="s">
-        <v>449</v>
+        <v>426</v>
       </c>
       <c r="B58" s="8" t="s">
-        <v>450</v>
-      </c>
-      <c r="C58" s="19" t="s">
-        <v>451</v>
-      </c>
-      <c r="D58" s="19"/>
-      <c r="E58" s="19"/>
+        <v>427</v>
+      </c>
+      <c r="C58" s="21" t="s">
+        <v>428</v>
+      </c>
+      <c r="D58" s="21"/>
+      <c r="E58" s="21"/>
     </row>
     <row r="59" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A59" s="8" t="s">
-        <v>344</v>
+        <v>328</v>
       </c>
       <c r="B59" s="8" t="s">
-        <v>345</v>
-      </c>
-      <c r="C59" s="19" t="s">
-        <v>344</v>
-      </c>
-      <c r="D59" s="19"/>
-      <c r="E59" s="19"/>
+        <v>329</v>
+      </c>
+      <c r="C59" s="21" t="s">
+        <v>328</v>
+      </c>
+      <c r="D59" s="21"/>
+      <c r="E59" s="21"/>
     </row>
     <row r="60" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A60" s="8" t="s">
-        <v>452</v>
+        <v>429</v>
       </c>
       <c r="B60" s="8" t="s">
-        <v>453</v>
-      </c>
-      <c r="C60" s="19" t="s">
-        <v>454</v>
-      </c>
-      <c r="D60" s="19"/>
-      <c r="E60" s="19"/>
+        <v>430</v>
+      </c>
+      <c r="C60" s="21" t="s">
+        <v>431</v>
+      </c>
+      <c r="D60" s="21"/>
+      <c r="E60" s="21"/>
     </row>
     <row r="61" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A61" s="8" t="s">
-        <v>455</v>
+        <v>432</v>
       </c>
       <c r="B61" s="8" t="s">
-        <v>349</v>
-      </c>
-      <c r="C61" s="19" t="s">
-        <v>456</v>
-      </c>
-      <c r="D61" s="19"/>
-      <c r="E61" s="19"/>
+        <v>333</v>
+      </c>
+      <c r="C61" s="21" t="s">
+        <v>433</v>
+      </c>
+      <c r="D61" s="21"/>
+      <c r="E61" s="21"/>
     </row>
     <row r="62" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A62" s="19" t="s">
-        <v>457</v>
+      <c r="A62" s="21" t="s">
+        <v>434</v>
       </c>
       <c r="B62" s="8" t="s">
-        <v>458</v>
-      </c>
-      <c r="C62" s="19" t="s">
-        <v>459</v>
-      </c>
-      <c r="D62" s="19"/>
-      <c r="E62" s="19"/>
+        <v>435</v>
+      </c>
+      <c r="C62" s="21" t="s">
+        <v>436</v>
+      </c>
+      <c r="D62" s="21"/>
+      <c r="E62" s="21"/>
     </row>
     <row r="63" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A63" s="19"/>
+      <c r="A63" s="21"/>
       <c r="B63" s="8" t="s">
-        <v>350</v>
-      </c>
-      <c r="C63" s="19" t="s">
-        <v>460</v>
-      </c>
-      <c r="D63" s="19"/>
-      <c r="E63" s="19"/>
+        <v>334</v>
+      </c>
+      <c r="C63" s="21" t="s">
+        <v>437</v>
+      </c>
+      <c r="D63" s="21"/>
+      <c r="E63" s="21"/>
     </row>
     <row r="65" spans="1:4" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="A65" s="21" t="s">
-        <v>465</v>
-      </c>
-      <c r="B65" s="21"/>
-      <c r="C65" s="21"/>
-      <c r="D65" s="21"/>
+      <c r="A65" s="20" t="s">
+        <v>442</v>
+      </c>
+      <c r="B65" s="20"/>
+      <c r="C65" s="20"/>
+      <c r="D65" s="20"/>
     </row>
     <row r="66" spans="1:4" ht="20.25" x14ac:dyDescent="0.2">
       <c r="A66" s="7" t="s">
-        <v>501</v>
+        <v>464</v>
       </c>
       <c r="B66" s="7" t="s">
-        <v>107</v>
+        <v>103</v>
       </c>
       <c r="C66" s="7" t="s">
         <v>1</v>
@@ -3507,53 +3285,53 @@
       </c>
     </row>
     <row r="67" spans="1:4" ht="128.25" x14ac:dyDescent="0.2">
-      <c r="A67" s="19" t="s">
-        <v>466</v>
+      <c r="A67" s="21" t="s">
+        <v>443</v>
       </c>
       <c r="B67" s="8" t="s">
-        <v>381</v>
+        <v>361</v>
       </c>
       <c r="C67" s="8" t="s">
-        <v>468</v>
+        <v>475</v>
       </c>
       <c r="D67" s="8" t="s">
-        <v>467</v>
+        <v>444</v>
       </c>
     </row>
     <row r="68" spans="1:4" ht="327.75" x14ac:dyDescent="0.2">
-      <c r="A68" s="19"/>
+      <c r="A68" s="21"/>
       <c r="B68" s="8" t="s">
-        <v>382</v>
+        <v>362</v>
       </c>
       <c r="C68" s="8" t="s">
-        <v>469</v>
+        <v>476</v>
       </c>
       <c r="D68" s="8"/>
     </row>
     <row r="69" spans="1:4" ht="342" x14ac:dyDescent="0.2">
-      <c r="A69" s="19"/>
+      <c r="A69" s="21"/>
       <c r="B69" s="8" t="s">
-        <v>383</v>
+        <v>363</v>
       </c>
       <c r="C69" s="8" t="s">
-        <v>470</v>
+        <v>477</v>
       </c>
       <c r="D69" s="8"/>
     </row>
     <row r="71" spans="1:4" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="A71" s="21" t="s">
-        <v>462</v>
-      </c>
-      <c r="B71" s="21"/>
-      <c r="C71" s="21"/>
-      <c r="D71" s="21"/>
+      <c r="A71" s="20" t="s">
+        <v>439</v>
+      </c>
+      <c r="B71" s="20"/>
+      <c r="C71" s="20"/>
+      <c r="D71" s="20"/>
     </row>
     <row r="72" spans="1:4" ht="20.25" x14ac:dyDescent="0.2">
       <c r="A72" s="7" t="s">
-        <v>501</v>
+        <v>464</v>
       </c>
       <c r="B72" s="7" t="s">
-        <v>107</v>
+        <v>103</v>
       </c>
       <c r="C72" s="7" t="s">
         <v>1</v>
@@ -3562,479 +3340,485 @@
         <v>0</v>
       </c>
     </row>
-    <row r="73" spans="1:4" ht="42.75" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A73" s="8" t="s">
-        <v>295</v>
-      </c>
-      <c r="B73" s="8"/>
+        <v>282</v>
+      </c>
+      <c r="B73" s="15" t="s">
+        <v>282</v>
+      </c>
       <c r="C73" s="8" t="s">
-        <v>296</v>
-      </c>
-      <c r="D73" s="8" t="s">
-        <v>297</v>
-      </c>
+        <v>283</v>
+      </c>
+      <c r="D73" s="8"/>
     </row>
     <row r="74" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A74" s="22" t="s">
-        <v>113</v>
+      <c r="A74" s="17" t="s">
+        <v>109</v>
       </c>
       <c r="B74" s="8" t="s">
-        <v>298</v>
+        <v>284</v>
       </c>
       <c r="C74" s="8" t="s">
-        <v>299</v>
+        <v>478</v>
       </c>
       <c r="D74" s="8"/>
     </row>
     <row r="75" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A75" s="23"/>
+      <c r="A75" s="18"/>
       <c r="B75" s="8" t="s">
-        <v>300</v>
+        <v>285</v>
       </c>
       <c r="C75" s="8" t="s">
-        <v>301</v>
+        <v>479</v>
       </c>
       <c r="D75" s="8"/>
     </row>
     <row r="76" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A76" s="24"/>
+      <c r="A76" s="19"/>
       <c r="B76" s="8" t="s">
-        <v>302</v>
+        <v>286</v>
       </c>
       <c r="C76" s="8" t="s">
-        <v>303</v>
+        <v>287</v>
       </c>
       <c r="D76" s="8"/>
     </row>
     <row r="77" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A77" s="22" t="s">
-        <v>304</v>
+      <c r="A77" s="17" t="s">
+        <v>288</v>
       </c>
       <c r="B77" s="8" t="s">
-        <v>305</v>
+        <v>289</v>
       </c>
       <c r="C77" s="8" t="s">
-        <v>306</v>
+        <v>290</v>
       </c>
       <c r="D77" s="8"/>
     </row>
-    <row r="78" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A78" s="24"/>
+    <row r="78" spans="1:4" ht="28.5" x14ac:dyDescent="0.2">
+      <c r="A78" s="19"/>
       <c r="B78" s="8" t="s">
-        <v>307</v>
+        <v>291</v>
       </c>
       <c r="C78" s="8" t="s">
-        <v>308</v>
-      </c>
-      <c r="D78" s="8"/>
+        <v>292</v>
+      </c>
+      <c r="D78" s="8" t="s">
+        <v>496</v>
+      </c>
     </row>
     <row r="79" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A79" s="22" t="s">
-        <v>309</v>
+      <c r="A79" s="17" t="s">
+        <v>293</v>
       </c>
       <c r="B79" s="8">
         <v>1</v>
       </c>
       <c r="C79" s="8" t="s">
-        <v>310</v>
+        <v>294</v>
       </c>
       <c r="D79" s="8"/>
     </row>
     <row r="80" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A80" s="24"/>
+      <c r="A80" s="19"/>
       <c r="B80" s="8">
         <v>2</v>
       </c>
       <c r="C80" s="8" t="s">
-        <v>311</v>
+        <v>295</v>
       </c>
       <c r="D80" s="8"/>
     </row>
     <row r="81" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A81" s="22" t="s">
-        <v>312</v>
+      <c r="A81" s="17" t="s">
+        <v>296</v>
       </c>
       <c r="B81" s="8" t="s">
-        <v>305</v>
+        <v>289</v>
       </c>
       <c r="C81" s="8" t="s">
-        <v>313</v>
+        <v>297</v>
       </c>
       <c r="D81" s="8"/>
     </row>
     <row r="82" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A82" s="24"/>
+      <c r="A82" s="19"/>
       <c r="B82" s="8" t="s">
-        <v>314</v>
+        <v>298</v>
       </c>
       <c r="C82" s="8" t="s">
-        <v>315</v>
+        <v>299</v>
       </c>
       <c r="D82" s="8"/>
     </row>
     <row r="83" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A83" s="22" t="s">
-        <v>316</v>
+      <c r="A83" s="17" t="s">
+        <v>300</v>
       </c>
       <c r="B83" s="8">
         <v>0</v>
       </c>
       <c r="C83" s="8" t="s">
-        <v>317</v>
+        <v>301</v>
       </c>
       <c r="D83" s="8"/>
     </row>
     <row r="84" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A84" s="23"/>
+      <c r="A84" s="18"/>
       <c r="B84" s="8">
         <v>2</v>
       </c>
       <c r="C84" s="8" t="s">
-        <v>318</v>
+        <v>302</v>
       </c>
       <c r="D84" s="8"/>
     </row>
     <row r="85" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A85" s="24"/>
+      <c r="A85" s="19"/>
       <c r="B85" s="8">
         <v>4</v>
       </c>
       <c r="C85" s="8" t="s">
-        <v>319</v>
+        <v>303</v>
       </c>
       <c r="D85" s="8"/>
     </row>
     <row r="86" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A86" s="22" t="s">
-        <v>320</v>
+      <c r="A86" s="17" t="s">
+        <v>304</v>
       </c>
       <c r="B86" s="8" t="s">
-        <v>321</v>
+        <v>305</v>
       </c>
       <c r="C86" s="8" t="s">
-        <v>322</v>
+        <v>306</v>
       </c>
       <c r="D86" s="8"/>
     </row>
     <row r="87" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A87" s="24"/>
+      <c r="A87" s="19"/>
       <c r="B87" s="8" t="s">
-        <v>323</v>
+        <v>307</v>
       </c>
       <c r="C87" s="8" t="s">
-        <v>324</v>
+        <v>308</v>
       </c>
       <c r="D87" s="8"/>
     </row>
     <row r="88" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A88" s="22" t="s">
-        <v>325</v>
+      <c r="A88" s="17" t="s">
+        <v>309</v>
       </c>
       <c r="B88" s="8" t="s">
-        <v>307</v>
+        <v>291</v>
       </c>
       <c r="C88" s="8" t="s">
-        <v>326</v>
-      </c>
-      <c r="D88" s="8"/>
+        <v>310</v>
+      </c>
+      <c r="D88" s="8" t="s">
+        <v>495</v>
+      </c>
     </row>
     <row r="89" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A89" s="23"/>
+      <c r="A89" s="18"/>
       <c r="B89" s="8" t="s">
-        <v>321</v>
+        <v>305</v>
       </c>
       <c r="C89" s="8" t="s">
-        <v>327</v>
+        <v>311</v>
       </c>
       <c r="D89" s="8"/>
     </row>
     <row r="90" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A90" s="23"/>
+      <c r="A90" s="18"/>
       <c r="B90" s="8" t="s">
-        <v>328</v>
+        <v>312</v>
       </c>
       <c r="C90" s="8" t="s">
-        <v>329</v>
-      </c>
-      <c r="D90" s="8"/>
+        <v>313</v>
+      </c>
+      <c r="D90" s="8" t="s">
+        <v>495</v>
+      </c>
     </row>
     <row r="91" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A91" s="23"/>
+      <c r="A91" s="18"/>
       <c r="B91" s="8" t="s">
-        <v>330</v>
+        <v>314</v>
       </c>
       <c r="C91" s="8" t="s">
-        <v>331</v>
+        <v>315</v>
       </c>
       <c r="D91" s="8"/>
     </row>
     <row r="92" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A92" s="24"/>
+      <c r="A92" s="19"/>
       <c r="B92" s="8" t="s">
-        <v>332</v>
+        <v>316</v>
       </c>
       <c r="C92" s="8" t="s">
-        <v>324</v>
+        <v>308</v>
       </c>
       <c r="D92" s="8"/>
     </row>
     <row r="93" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A93" s="8" t="s">
-        <v>116</v>
+        <v>112</v>
       </c>
       <c r="B93" s="8" t="s">
-        <v>333</v>
+        <v>317</v>
       </c>
       <c r="C93" s="8" t="s">
-        <v>334</v>
+        <v>318</v>
       </c>
       <c r="D93" s="8"/>
     </row>
     <row r="95" spans="1:6" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="A95" s="21" t="s">
-        <v>463</v>
-      </c>
-      <c r="B95" s="21"/>
-      <c r="C95" s="21"/>
-      <c r="D95" s="21"/>
-      <c r="E95" s="21"/>
+      <c r="A95" s="20" t="s">
+        <v>440</v>
+      </c>
+      <c r="B95" s="20"/>
+      <c r="C95" s="20"/>
+      <c r="D95" s="20"/>
+      <c r="E95" s="20"/>
       <c r="F95" s="3"/>
     </row>
     <row r="96" spans="1:6" ht="20.25" x14ac:dyDescent="0.2">
       <c r="A96" s="7" t="s">
-        <v>501</v>
+        <v>464</v>
       </c>
       <c r="B96" s="4" t="s">
-        <v>475</v>
-      </c>
-      <c r="C96" s="20" t="s">
-        <v>476</v>
-      </c>
-      <c r="D96" s="20"/>
+        <v>448</v>
+      </c>
+      <c r="C96" s="24" t="s">
+        <v>449</v>
+      </c>
+      <c r="D96" s="24"/>
       <c r="E96" s="4" t="s">
-        <v>294</v>
+        <v>281</v>
       </c>
     </row>
     <row r="97" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A97" s="8" t="s">
-        <v>490</v>
+        <v>457</v>
       </c>
       <c r="B97" s="8" t="s">
-        <v>305</v>
-      </c>
-      <c r="C97" s="19" t="s">
-        <v>351</v>
-      </c>
-      <c r="D97" s="19"/>
-      <c r="E97" s="19" t="s">
-        <v>472</v>
+        <v>289</v>
+      </c>
+      <c r="C97" s="21" t="s">
+        <v>409</v>
+      </c>
+      <c r="D97" s="21"/>
+      <c r="E97" s="21" t="s">
+        <v>480</v>
       </c>
     </row>
     <row r="98" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A98" s="19" t="s">
+      <c r="A98" s="21" t="s">
+        <v>319</v>
+      </c>
+      <c r="B98" s="8" t="s">
+        <v>320</v>
+      </c>
+      <c r="C98" s="21" t="s">
         <v>335</v>
       </c>
-      <c r="B98" s="8" t="s">
+      <c r="D98" s="8" t="s">
         <v>336</v>
       </c>
-      <c r="C98" s="19" t="s">
-        <v>352</v>
-      </c>
-      <c r="D98" s="8" t="s">
-        <v>353</v>
-      </c>
-      <c r="E98" s="19"/>
+      <c r="E98" s="21"/>
     </row>
     <row r="99" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A99" s="19"/>
+      <c r="A99" s="21"/>
       <c r="B99" s="8" t="s">
-        <v>355</v>
-      </c>
-      <c r="C99" s="19"/>
+        <v>338</v>
+      </c>
+      <c r="C99" s="21"/>
       <c r="D99" s="8" t="s">
-        <v>354</v>
-      </c>
-      <c r="E99" s="19"/>
+        <v>337</v>
+      </c>
+      <c r="E99" s="21"/>
     </row>
     <row r="100" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A100" s="19"/>
+      <c r="A100" s="21"/>
       <c r="B100" s="8" t="s">
-        <v>337</v>
-      </c>
-      <c r="C100" s="19"/>
+        <v>321</v>
+      </c>
+      <c r="C100" s="21"/>
       <c r="D100" s="8" t="s">
-        <v>356</v>
-      </c>
-      <c r="E100" s="19"/>
+        <v>339</v>
+      </c>
+      <c r="E100" s="21"/>
     </row>
     <row r="101" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A101" s="19"/>
+      <c r="A101" s="21"/>
       <c r="B101" s="8" t="s">
-        <v>359</v>
+        <v>342</v>
       </c>
       <c r="C101" s="8" t="s">
-        <v>357</v>
+        <v>340</v>
       </c>
       <c r="D101" s="8" t="s">
-        <v>358</v>
-      </c>
-      <c r="E101" s="19"/>
+        <v>341</v>
+      </c>
+      <c r="E101" s="21"/>
     </row>
     <row r="102" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A102" s="19"/>
+      <c r="A102" s="21"/>
       <c r="B102" s="8" t="s">
-        <v>338</v>
+        <v>322</v>
       </c>
       <c r="C102" s="8" t="s">
-        <v>360</v>
+        <v>343</v>
       </c>
       <c r="D102" s="8" t="s">
-        <v>361</v>
-      </c>
-      <c r="E102" s="19"/>
+        <v>344</v>
+      </c>
+      <c r="E102" s="21"/>
     </row>
     <row r="103" spans="1:5" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A103" s="8" t="s">
-        <v>362</v>
+        <v>345</v>
       </c>
       <c r="B103" s="8" t="s">
-        <v>363</v>
-      </c>
-      <c r="C103" s="19" t="s">
-        <v>339</v>
-      </c>
-      <c r="D103" s="19"/>
-      <c r="E103" s="19"/>
+        <v>346</v>
+      </c>
+      <c r="C103" s="21" t="s">
+        <v>323</v>
+      </c>
+      <c r="D103" s="21"/>
+      <c r="E103" s="21"/>
     </row>
     <row r="104" spans="1:5" ht="28.5" x14ac:dyDescent="0.2">
-      <c r="A104" s="19" t="s">
-        <v>340</v>
+      <c r="A104" s="21" t="s">
+        <v>324</v>
       </c>
       <c r="B104" s="8" t="s">
-        <v>342</v>
-      </c>
-      <c r="C104" s="19" t="s">
-        <v>341</v>
+        <v>326</v>
+      </c>
+      <c r="C104" s="21" t="s">
+        <v>325</v>
       </c>
       <c r="D104" s="8" t="s">
-        <v>364</v>
-      </c>
-      <c r="E104" s="19"/>
+        <v>424</v>
+      </c>
+      <c r="E104" s="21"/>
     </row>
     <row r="105" spans="1:5" ht="28.5" x14ac:dyDescent="0.2">
-      <c r="A105" s="19"/>
+      <c r="A105" s="21"/>
       <c r="B105" s="8" t="s">
-        <v>343</v>
-      </c>
-      <c r="C105" s="19"/>
+        <v>327</v>
+      </c>
+      <c r="C105" s="21"/>
       <c r="D105" s="8" t="s">
-        <v>365</v>
-      </c>
-      <c r="E105" s="19"/>
+        <v>425</v>
+      </c>
+      <c r="E105" s="21"/>
     </row>
     <row r="106" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A106" s="8" t="s">
-        <v>366</v>
+        <v>347</v>
       </c>
       <c r="B106" s="8" t="s">
-        <v>368</v>
-      </c>
-      <c r="C106" s="19" t="s">
-        <v>367</v>
-      </c>
-      <c r="D106" s="19"/>
-      <c r="E106" s="19"/>
+        <v>349</v>
+      </c>
+      <c r="C106" s="21" t="s">
+        <v>348</v>
+      </c>
+      <c r="D106" s="21"/>
+      <c r="E106" s="21"/>
     </row>
     <row r="107" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A107" s="8" t="s">
-        <v>344</v>
+        <v>328</v>
       </c>
       <c r="B107" s="8" t="s">
-        <v>345</v>
-      </c>
-      <c r="C107" s="19" t="s">
-        <v>369</v>
-      </c>
-      <c r="D107" s="19"/>
-      <c r="E107" s="19"/>
+        <v>329</v>
+      </c>
+      <c r="C107" s="21" t="s">
+        <v>350</v>
+      </c>
+      <c r="D107" s="21"/>
+      <c r="E107" s="21"/>
     </row>
     <row r="108" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A108" s="8" t="s">
-        <v>370</v>
+        <v>351</v>
       </c>
       <c r="B108" s="8" t="s">
-        <v>372</v>
-      </c>
-      <c r="C108" s="19" t="s">
-        <v>371</v>
-      </c>
-      <c r="D108" s="19"/>
-      <c r="E108" s="19"/>
+        <v>353</v>
+      </c>
+      <c r="C108" s="21" t="s">
+        <v>352</v>
+      </c>
+      <c r="D108" s="21"/>
+      <c r="E108" s="21"/>
     </row>
     <row r="109" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A109" s="8" t="s">
-        <v>346</v>
+        <v>330</v>
       </c>
       <c r="B109" s="8" t="s">
-        <v>347</v>
-      </c>
-      <c r="C109" s="19" t="s">
-        <v>373</v>
-      </c>
-      <c r="D109" s="19"/>
-      <c r="E109" s="19"/>
+        <v>331</v>
+      </c>
+      <c r="C109" s="21" t="s">
+        <v>354</v>
+      </c>
+      <c r="D109" s="21"/>
+      <c r="E109" s="21"/>
     </row>
     <row r="110" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A110" s="8" t="s">
-        <v>348</v>
+        <v>332</v>
       </c>
       <c r="B110" s="8" t="s">
-        <v>349</v>
-      </c>
-      <c r="C110" s="19" t="s">
-        <v>374</v>
-      </c>
-      <c r="D110" s="19"/>
-      <c r="E110" s="19"/>
+        <v>333</v>
+      </c>
+      <c r="C110" s="21" t="s">
+        <v>355</v>
+      </c>
+      <c r="D110" s="21"/>
+      <c r="E110" s="21"/>
     </row>
     <row r="111" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A111" s="19" t="s">
-        <v>375</v>
+      <c r="A111" s="21" t="s">
+        <v>356</v>
       </c>
       <c r="B111" s="8" t="s">
-        <v>377</v>
-      </c>
-      <c r="C111" s="19" t="s">
-        <v>376</v>
-      </c>
-      <c r="D111" s="19"/>
-      <c r="E111" s="19"/>
+        <v>358</v>
+      </c>
+      <c r="C111" s="21" t="s">
+        <v>357</v>
+      </c>
+      <c r="D111" s="21"/>
+      <c r="E111" s="21"/>
     </row>
     <row r="112" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A112" s="19"/>
+      <c r="A112" s="21"/>
       <c r="B112" s="8" t="s">
-        <v>350</v>
-      </c>
-      <c r="C112" s="19" t="s">
-        <v>378</v>
-      </c>
-      <c r="D112" s="19"/>
-      <c r="E112" s="19"/>
+        <v>334</v>
+      </c>
+      <c r="C112" s="21" t="s">
+        <v>359</v>
+      </c>
+      <c r="D112" s="21"/>
+      <c r="E112" s="21"/>
     </row>
     <row r="114" spans="1:4" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="A114" s="21" t="s">
-        <v>464</v>
-      </c>
-      <c r="B114" s="21"/>
-      <c r="C114" s="21"/>
-      <c r="D114" s="21"/>
+      <c r="A114" s="20" t="s">
+        <v>441</v>
+      </c>
+      <c r="B114" s="20"/>
+      <c r="C114" s="20"/>
+      <c r="D114" s="20"/>
     </row>
     <row r="115" spans="1:4" ht="20.25" x14ac:dyDescent="0.2">
       <c r="A115" s="7" t="s">
-        <v>501</v>
+        <v>464</v>
       </c>
       <c r="B115" s="7" t="s">
-        <v>107</v>
+        <v>103</v>
       </c>
       <c r="C115" s="7" t="s">
         <v>1</v>
@@ -4044,55 +3828,73 @@
       </c>
     </row>
     <row r="116" spans="1:4" ht="71.25" x14ac:dyDescent="0.2">
-      <c r="A116" s="19" t="s">
-        <v>379</v>
+      <c r="A116" s="21" t="s">
+        <v>360</v>
       </c>
       <c r="B116" s="8" t="s">
-        <v>381</v>
+        <v>361</v>
       </c>
       <c r="C116" s="8" t="s">
-        <v>380</v>
-      </c>
-      <c r="D116" s="8" t="s">
-        <v>473</v>
+        <v>481</v>
+      </c>
+      <c r="D116" s="17" t="s">
+        <v>446</v>
       </c>
     </row>
     <row r="117" spans="1:4" ht="156.75" x14ac:dyDescent="0.2">
-      <c r="A117" s="19"/>
+      <c r="A117" s="21"/>
       <c r="B117" s="8" t="s">
-        <v>382</v>
+        <v>362</v>
       </c>
       <c r="C117" s="8" t="s">
-        <v>384</v>
-      </c>
-      <c r="D117" s="8"/>
-    </row>
-    <row r="118" spans="1:4" ht="145.5" x14ac:dyDescent="0.2">
-      <c r="A118" s="19"/>
+        <v>482</v>
+      </c>
+      <c r="D117" s="18"/>
+    </row>
+    <row r="118" spans="1:4" ht="156.75" x14ac:dyDescent="0.2">
+      <c r="A118" s="21"/>
       <c r="B118" s="8" t="s">
-        <v>383</v>
+        <v>363</v>
       </c>
       <c r="C118" s="8" t="s">
-        <v>500</v>
-      </c>
-      <c r="D118" s="8"/>
+        <v>483</v>
+      </c>
+      <c r="D118" s="19"/>
     </row>
   </sheetData>
-  <mergeCells count="61">
-    <mergeCell ref="A86:A87"/>
-    <mergeCell ref="A88:A92"/>
-    <mergeCell ref="A20:A21"/>
-    <mergeCell ref="A27:A28"/>
-    <mergeCell ref="A29:A30"/>
-    <mergeCell ref="A31:A32"/>
-    <mergeCell ref="A33:A34"/>
-    <mergeCell ref="A1:D1"/>
-    <mergeCell ref="A8:D8"/>
-    <mergeCell ref="A13:A15"/>
-    <mergeCell ref="A11:A12"/>
-    <mergeCell ref="A17:D17"/>
-    <mergeCell ref="D10:D15"/>
-    <mergeCell ref="A5:A6"/>
+  <mergeCells count="62">
+    <mergeCell ref="D116:D118"/>
+    <mergeCell ref="A116:A118"/>
+    <mergeCell ref="C48:D48"/>
+    <mergeCell ref="C49:D49"/>
+    <mergeCell ref="E49:E63"/>
+    <mergeCell ref="A50:A54"/>
+    <mergeCell ref="C50:C52"/>
+    <mergeCell ref="C55:D55"/>
+    <mergeCell ref="A56:A57"/>
+    <mergeCell ref="C56:C57"/>
+    <mergeCell ref="C58:D58"/>
+    <mergeCell ref="C59:D59"/>
+    <mergeCell ref="C60:D60"/>
+    <mergeCell ref="C61:D61"/>
+    <mergeCell ref="A62:A63"/>
+    <mergeCell ref="A114:D114"/>
+    <mergeCell ref="C111:D111"/>
+    <mergeCell ref="C103:D103"/>
+    <mergeCell ref="A104:A105"/>
+    <mergeCell ref="C104:C105"/>
+    <mergeCell ref="A71:D71"/>
+    <mergeCell ref="E97:E112"/>
+    <mergeCell ref="A95:E95"/>
+    <mergeCell ref="C97:D97"/>
+    <mergeCell ref="C96:D96"/>
+    <mergeCell ref="A98:A102"/>
+    <mergeCell ref="C98:C100"/>
+    <mergeCell ref="C106:D106"/>
+    <mergeCell ref="C107:D107"/>
+    <mergeCell ref="C108:D108"/>
+    <mergeCell ref="C109:D109"/>
+    <mergeCell ref="C110:D110"/>
     <mergeCell ref="C112:D112"/>
     <mergeCell ref="A111:A112"/>
     <mergeCell ref="A24:D24"/>
@@ -4109,37 +3911,20 @@
     <mergeCell ref="A81:A82"/>
     <mergeCell ref="A83:A85"/>
     <mergeCell ref="A47:E47"/>
-    <mergeCell ref="C103:D103"/>
-    <mergeCell ref="A104:A105"/>
-    <mergeCell ref="C104:C105"/>
-    <mergeCell ref="A71:D71"/>
-    <mergeCell ref="E97:E112"/>
-    <mergeCell ref="A95:E95"/>
-    <mergeCell ref="C97:D97"/>
-    <mergeCell ref="C96:D96"/>
-    <mergeCell ref="A98:A102"/>
-    <mergeCell ref="C98:C100"/>
-    <mergeCell ref="C106:D106"/>
-    <mergeCell ref="C107:D107"/>
-    <mergeCell ref="C108:D108"/>
-    <mergeCell ref="C109:D109"/>
-    <mergeCell ref="C110:D110"/>
-    <mergeCell ref="A116:A118"/>
-    <mergeCell ref="C48:D48"/>
-    <mergeCell ref="C49:D49"/>
-    <mergeCell ref="E49:E63"/>
-    <mergeCell ref="A50:A54"/>
-    <mergeCell ref="C50:C52"/>
-    <mergeCell ref="C55:D55"/>
-    <mergeCell ref="A56:A57"/>
-    <mergeCell ref="C56:C57"/>
-    <mergeCell ref="C58:D58"/>
-    <mergeCell ref="C59:D59"/>
-    <mergeCell ref="C60:D60"/>
-    <mergeCell ref="C61:D61"/>
-    <mergeCell ref="A62:A63"/>
-    <mergeCell ref="A114:D114"/>
-    <mergeCell ref="C111:D111"/>
+    <mergeCell ref="A86:A87"/>
+    <mergeCell ref="A1:D1"/>
+    <mergeCell ref="A8:D8"/>
+    <mergeCell ref="A13:A15"/>
+    <mergeCell ref="A11:A12"/>
+    <mergeCell ref="A17:D17"/>
+    <mergeCell ref="D10:D15"/>
+    <mergeCell ref="A5:A6"/>
+    <mergeCell ref="A88:A92"/>
+    <mergeCell ref="A20:A21"/>
+    <mergeCell ref="A27:A28"/>
+    <mergeCell ref="A29:A30"/>
+    <mergeCell ref="A31:A32"/>
+    <mergeCell ref="A33:A34"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -4151,8 +3936,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9315037E-38C6-43C1-8CB9-FAF24E20A72B}">
   <dimension ref="A1:D73"/>
   <sheetViews>
-    <sheetView topLeftCell="A34" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A53" sqref="A53"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection sqref="A1:D1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -4165,51 +3950,55 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="A1" s="15" t="s">
-        <v>492</v>
-      </c>
-      <c r="B1" s="15"/>
-      <c r="C1" s="15"/>
-      <c r="D1" s="15"/>
+      <c r="A1" s="25" t="s">
+        <v>458</v>
+      </c>
+      <c r="B1" s="25"/>
+      <c r="C1" s="25"/>
+      <c r="D1" s="25"/>
     </row>
     <row r="2" spans="1:4" ht="20.25" x14ac:dyDescent="0.2">
       <c r="A2" s="13" t="s">
-        <v>501</v>
+        <v>464</v>
       </c>
       <c r="B2" s="13" t="s">
-        <v>474</v>
+        <v>447</v>
       </c>
       <c r="C2" s="13" t="s">
-        <v>471</v>
+        <v>445</v>
       </c>
       <c r="D2" s="13" t="s">
-        <v>477</v>
+        <v>450</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A3" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="6"/>
+      <c r="B3" s="14" t="s">
+        <v>2</v>
+      </c>
       <c r="C3" s="6" t="s">
-        <v>494</v>
-      </c>
-      <c r="D3" s="16" t="s">
-        <v>78</v>
+        <v>460</v>
+      </c>
+      <c r="D3" s="22" t="s">
+        <v>484</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A4" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="B4" s="6"/>
+      <c r="B4" s="14" t="s">
+        <v>4</v>
+      </c>
       <c r="C4" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="D4" s="17"/>
+      <c r="D4" s="27"/>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A5" s="14" t="s">
+      <c r="A5" s="26" t="s">
         <v>6</v>
       </c>
       <c r="B5" s="6" t="s">
@@ -4218,20 +4007,20 @@
       <c r="C5" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="D5" s="17"/>
+      <c r="D5" s="27"/>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A6" s="14"/>
+      <c r="A6" s="26"/>
       <c r="B6" s="6" t="s">
         <v>9</v>
       </c>
       <c r="C6" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="D6" s="17"/>
+      <c r="D6" s="27"/>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A7" s="14" t="s">
+      <c r="A7" s="26" t="s">
         <v>11</v>
       </c>
       <c r="B7" s="6">
@@ -4240,70 +4029,70 @@
       <c r="C7" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="D7" s="17"/>
+      <c r="D7" s="27"/>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A8" s="14"/>
+      <c r="A8" s="26"/>
       <c r="B8" s="6">
         <v>4</v>
       </c>
       <c r="C8" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="D8" s="17"/>
+      <c r="D8" s="27"/>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A9" s="14"/>
+      <c r="A9" s="26"/>
       <c r="B9" s="6">
         <v>5</v>
       </c>
       <c r="C9" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="D9" s="17"/>
+      <c r="D9" s="27"/>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A10" s="14"/>
+      <c r="A10" s="26"/>
       <c r="B10" s="6">
         <v>6</v>
       </c>
       <c r="C10" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="D10" s="17"/>
+      <c r="D10" s="27"/>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A11" s="14"/>
+      <c r="A11" s="26"/>
       <c r="B11" s="6">
         <v>8</v>
       </c>
       <c r="C11" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="D11" s="17"/>
+      <c r="D11" s="27"/>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A12" s="14"/>
+      <c r="A12" s="26"/>
       <c r="B12" s="6">
         <v>10</v>
       </c>
       <c r="C12" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="D12" s="17"/>
+      <c r="D12" s="27"/>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A13" s="14"/>
+      <c r="A13" s="26"/>
       <c r="B13" s="6" t="s">
         <v>18</v>
       </c>
       <c r="C13" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="D13" s="17"/>
+      <c r="D13" s="27"/>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A14" s="14" t="s">
+      <c r="A14" s="26" t="s">
         <v>20</v>
       </c>
       <c r="B14" s="6" t="s">
@@ -4312,50 +4101,50 @@
       <c r="C14" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="D14" s="17"/>
+      <c r="D14" s="27"/>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A15" s="14"/>
+      <c r="A15" s="26"/>
       <c r="B15" s="6" t="s">
         <v>23</v>
       </c>
       <c r="C15" s="6" t="s">
         <v>24</v>
       </c>
-      <c r="D15" s="17"/>
+      <c r="D15" s="27"/>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A16" s="14"/>
+      <c r="A16" s="26"/>
       <c r="B16" s="6" t="s">
         <v>25</v>
       </c>
       <c r="C16" s="6" t="s">
         <v>26</v>
       </c>
-      <c r="D16" s="17"/>
+      <c r="D16" s="27"/>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A17" s="14"/>
+      <c r="A17" s="26"/>
       <c r="B17" s="6" t="s">
         <v>27</v>
       </c>
       <c r="C17" s="6" t="s">
         <v>28</v>
       </c>
-      <c r="D17" s="17"/>
+      <c r="D17" s="27"/>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A18" s="14"/>
+      <c r="A18" s="26"/>
       <c r="B18" s="6" t="s">
         <v>18</v>
       </c>
       <c r="C18" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="D18" s="17"/>
+      <c r="D18" s="27"/>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A19" s="14" t="s">
+      <c r="A19" s="26" t="s">
         <v>29</v>
       </c>
       <c r="B19" s="6">
@@ -4364,50 +4153,50 @@
       <c r="C19" s="6" t="s">
         <v>30</v>
       </c>
-      <c r="D19" s="17"/>
+      <c r="D19" s="27"/>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A20" s="14"/>
+      <c r="A20" s="26"/>
       <c r="B20" s="6">
         <v>100</v>
       </c>
       <c r="C20" s="6" t="s">
         <v>31</v>
       </c>
-      <c r="D20" s="17"/>
+      <c r="D20" s="27"/>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A21" s="14"/>
+      <c r="A21" s="26"/>
       <c r="B21" s="6">
         <v>150</v>
       </c>
       <c r="C21" s="6" t="s">
         <v>32</v>
       </c>
-      <c r="D21" s="17"/>
+      <c r="D21" s="27"/>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A22" s="14"/>
+      <c r="A22" s="26"/>
       <c r="B22" s="6">
         <v>200</v>
       </c>
       <c r="C22" s="6" t="s">
         <v>33</v>
       </c>
-      <c r="D22" s="17"/>
+      <c r="D22" s="27"/>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A23" s="14"/>
+      <c r="A23" s="26"/>
       <c r="B23" s="6" t="s">
         <v>34</v>
       </c>
       <c r="C23" s="6" t="s">
         <v>35</v>
       </c>
-      <c r="D23" s="17"/>
+      <c r="D23" s="27"/>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A24" s="14" t="s">
+      <c r="A24" s="26" t="s">
         <v>36</v>
       </c>
       <c r="B24" s="6">
@@ -4416,70 +4205,70 @@
       <c r="C24" s="6" t="s">
         <v>37</v>
       </c>
-      <c r="D24" s="17"/>
+      <c r="D24" s="27"/>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A25" s="14"/>
+      <c r="A25" s="26"/>
       <c r="B25" s="6">
         <v>4</v>
       </c>
       <c r="C25" s="6" t="s">
         <v>38</v>
       </c>
-      <c r="D25" s="17"/>
+      <c r="D25" s="27"/>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A26" s="14"/>
+      <c r="A26" s="26"/>
       <c r="B26" s="6" t="s">
         <v>39</v>
       </c>
       <c r="C26" s="6" t="s">
         <v>40</v>
       </c>
-      <c r="D26" s="17"/>
+      <c r="D26" s="27"/>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A27" s="14"/>
+      <c r="A27" s="26"/>
       <c r="B27" s="6" t="s">
         <v>41</v>
       </c>
       <c r="C27" s="6" t="s">
         <v>42</v>
       </c>
-      <c r="D27" s="17"/>
+      <c r="D27" s="27"/>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A28" s="14"/>
+      <c r="A28" s="26"/>
       <c r="B28" s="6" t="s">
         <v>43</v>
       </c>
       <c r="C28" s="6" t="s">
         <v>44</v>
       </c>
-      <c r="D28" s="17"/>
+      <c r="D28" s="27"/>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A29" s="14"/>
+      <c r="A29" s="26"/>
       <c r="B29" s="6" t="s">
         <v>45</v>
       </c>
       <c r="C29" s="6" t="s">
         <v>46</v>
       </c>
-      <c r="D29" s="17"/>
+      <c r="D29" s="27"/>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A30" s="14"/>
+      <c r="A30" s="26"/>
       <c r="B30" s="6" t="s">
         <v>18</v>
       </c>
       <c r="C30" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="D30" s="17"/>
+      <c r="D30" s="27"/>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A31" s="14" t="s">
+      <c r="A31" s="26" t="s">
         <v>47</v>
       </c>
       <c r="B31" s="6">
@@ -4488,30 +4277,30 @@
       <c r="C31" s="6" t="s">
         <v>48</v>
       </c>
-      <c r="D31" s="17"/>
+      <c r="D31" s="27"/>
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A32" s="14"/>
+      <c r="A32" s="26"/>
       <c r="B32" s="6">
         <v>-2</v>
       </c>
       <c r="C32" s="6" t="s">
         <v>49</v>
       </c>
-      <c r="D32" s="17"/>
+      <c r="D32" s="27"/>
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A33" s="14"/>
+      <c r="A33" s="26"/>
       <c r="B33" s="6">
         <v>-3</v>
       </c>
       <c r="C33" s="6" t="s">
         <v>50</v>
       </c>
-      <c r="D33" s="17"/>
+      <c r="D33" s="27"/>
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A34" s="14" t="s">
+      <c r="A34" s="26" t="s">
         <v>51</v>
       </c>
       <c r="B34" s="6">
@@ -4520,20 +4309,20 @@
       <c r="C34" s="6" t="s">
         <v>52</v>
       </c>
-      <c r="D34" s="17"/>
+      <c r="D34" s="27"/>
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A35" s="14"/>
+      <c r="A35" s="26"/>
       <c r="B35" s="6">
         <v>2</v>
       </c>
       <c r="C35" s="6" t="s">
         <v>53</v>
       </c>
-      <c r="D35" s="17"/>
+      <c r="D35" s="27"/>
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A36" s="14" t="s">
+      <c r="A36" s="26" t="s">
         <v>54</v>
       </c>
       <c r="B36" s="6">
@@ -4542,67 +4331,67 @@
       <c r="C36" s="6" t="s">
         <v>55</v>
       </c>
-      <c r="D36" s="17"/>
+      <c r="D36" s="27"/>
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A37" s="14"/>
+      <c r="A37" s="26"/>
       <c r="B37" s="6">
         <v>1</v>
       </c>
       <c r="C37" s="6" t="s">
         <v>56</v>
       </c>
-      <c r="D37" s="17"/>
+      <c r="D37" s="27"/>
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A38" s="14"/>
+      <c r="A38" s="26"/>
       <c r="B38" s="6">
         <v>2</v>
       </c>
       <c r="C38" s="6" t="s">
         <v>57</v>
       </c>
-      <c r="D38" s="17"/>
+      <c r="D38" s="27"/>
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A39" s="14"/>
+      <c r="A39" s="26"/>
       <c r="B39" s="6">
         <v>3</v>
       </c>
       <c r="C39" s="6" t="s">
         <v>58</v>
       </c>
-      <c r="D39" s="17"/>
+      <c r="D39" s="27"/>
     </row>
     <row r="40" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A40" s="14"/>
+      <c r="A40" s="26"/>
       <c r="B40" s="6">
         <v>4</v>
       </c>
       <c r="C40" s="6" t="s">
         <v>59</v>
       </c>
-      <c r="D40" s="17"/>
+      <c r="D40" s="27"/>
     </row>
     <row r="41" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A41" s="14"/>
+      <c r="A41" s="26"/>
       <c r="B41" s="6">
         <v>5</v>
       </c>
       <c r="C41" s="6" t="s">
         <v>60</v>
       </c>
-      <c r="D41" s="17"/>
+      <c r="D41" s="27"/>
     </row>
     <row r="42" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A42" s="14"/>
+      <c r="A42" s="26"/>
       <c r="B42" s="6">
         <v>6</v>
       </c>
       <c r="C42" s="6" t="s">
         <v>61</v>
       </c>
-      <c r="D42" s="17"/>
+      <c r="D42" s="27"/>
     </row>
     <row r="43" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A43" s="6" t="s">
@@ -4614,10 +4403,10 @@
       <c r="C43" s="6" t="s">
         <v>64</v>
       </c>
-      <c r="D43" s="17"/>
+      <c r="D43" s="27"/>
     </row>
     <row r="44" spans="1:4" ht="57" x14ac:dyDescent="0.2">
-      <c r="A44" s="14" t="s">
+      <c r="A44" s="26" t="s">
         <v>65</v>
       </c>
       <c r="B44" s="6" t="s">
@@ -4626,287 +4415,291 @@
       <c r="C44" s="6" t="s">
         <v>67</v>
       </c>
-      <c r="D44" s="17"/>
+      <c r="D44" s="27"/>
     </row>
     <row r="45" spans="1:4" ht="57" x14ac:dyDescent="0.2">
-      <c r="A45" s="14"/>
+      <c r="A45" s="26"/>
       <c r="B45" s="6" t="s">
         <v>68</v>
       </c>
       <c r="C45" s="6" t="s">
         <v>69</v>
       </c>
-      <c r="D45" s="17"/>
+      <c r="D45" s="27"/>
     </row>
     <row r="46" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A46" s="14"/>
+      <c r="A46" s="26"/>
       <c r="B46" s="6" t="s">
         <v>70</v>
       </c>
       <c r="C46" s="6" t="s">
         <v>71</v>
       </c>
-      <c r="D46" s="17"/>
+      <c r="D46" s="27"/>
     </row>
     <row r="47" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A47" s="14"/>
+      <c r="A47" s="26"/>
       <c r="B47" s="6" t="s">
         <v>72</v>
       </c>
       <c r="C47" s="6" t="s">
         <v>73</v>
       </c>
-      <c r="D47" s="17"/>
+      <c r="D47" s="27"/>
     </row>
     <row r="48" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A48" s="14"/>
+      <c r="A48" s="26"/>
       <c r="B48" s="6" t="s">
         <v>74</v>
       </c>
       <c r="C48" s="6" t="s">
         <v>75</v>
       </c>
-      <c r="D48" s="17"/>
+      <c r="D48" s="27"/>
     </row>
     <row r="49" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A49" s="14"/>
+      <c r="A49" s="26"/>
       <c r="B49" s="6" t="s">
         <v>76</v>
       </c>
       <c r="C49" s="6" t="s">
         <v>77</v>
       </c>
-      <c r="D49" s="18"/>
+      <c r="D49" s="23"/>
     </row>
     <row r="51" spans="1:4" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="A51" s="15" t="s">
-        <v>493</v>
-      </c>
-      <c r="B51" s="15"/>
-      <c r="C51" s="15"/>
-      <c r="D51" s="15"/>
+      <c r="A51" s="25" t="s">
+        <v>459</v>
+      </c>
+      <c r="B51" s="25"/>
+      <c r="C51" s="25"/>
+      <c r="D51" s="25"/>
     </row>
     <row r="52" spans="1:4" ht="20.25" x14ac:dyDescent="0.2">
       <c r="A52" s="13" t="s">
-        <v>501</v>
+        <v>464</v>
       </c>
       <c r="B52" s="13" t="s">
-        <v>474</v>
+        <v>447</v>
       </c>
       <c r="C52" s="13" t="s">
-        <v>471</v>
+        <v>445</v>
       </c>
       <c r="D52" s="13" t="s">
-        <v>477</v>
+        <v>450</v>
       </c>
     </row>
     <row r="53" spans="1:4" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A53" s="6" t="s">
-        <v>79</v>
-      </c>
-      <c r="B53" s="6"/>
+        <v>78</v>
+      </c>
+      <c r="B53" s="14" t="s">
+        <v>78</v>
+      </c>
       <c r="C53" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="D53" s="16" t="s">
-        <v>499</v>
+      <c r="D53" s="22" t="s">
+        <v>485</v>
       </c>
     </row>
     <row r="54" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A54" s="6" t="s">
-        <v>80</v>
-      </c>
-      <c r="B54" s="6"/>
+        <v>79</v>
+      </c>
+      <c r="B54" s="14" t="s">
+        <v>79</v>
+      </c>
       <c r="C54" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="D54" s="17"/>
+      <c r="D54" s="27"/>
     </row>
     <row r="55" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A55" s="14" t="s">
-        <v>81</v>
+      <c r="A55" s="26" t="s">
+        <v>80</v>
       </c>
       <c r="B55" s="6" t="s">
         <v>7</v>
       </c>
       <c r="C55" s="6" t="s">
-        <v>82</v>
-      </c>
-      <c r="D55" s="17"/>
+        <v>81</v>
+      </c>
+      <c r="D55" s="27"/>
     </row>
     <row r="56" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A56" s="14"/>
+      <c r="A56" s="26"/>
       <c r="B56" s="6" t="s">
         <v>9</v>
       </c>
       <c r="C56" s="6" t="s">
+        <v>82</v>
+      </c>
+      <c r="D56" s="27"/>
+    </row>
+    <row r="57" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A57" s="26" t="s">
         <v>83</v>
-      </c>
-      <c r="D56" s="17"/>
-    </row>
-    <row r="57" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A57" s="14" t="s">
-        <v>84</v>
       </c>
       <c r="B57" s="6">
         <v>4</v>
       </c>
       <c r="C57" s="6" t="s">
-        <v>85</v>
-      </c>
-      <c r="D57" s="17"/>
+        <v>84</v>
+      </c>
+      <c r="D57" s="27"/>
     </row>
     <row r="58" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A58" s="14"/>
+      <c r="A58" s="26"/>
       <c r="B58" s="6">
         <v>5</v>
       </c>
       <c r="C58" s="6" t="s">
-        <v>86</v>
-      </c>
-      <c r="D58" s="17"/>
+        <v>85</v>
+      </c>
+      <c r="D58" s="27"/>
     </row>
     <row r="59" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A59" s="14"/>
+      <c r="A59" s="26"/>
       <c r="B59" s="6">
         <v>6</v>
       </c>
       <c r="C59" s="6" t="s">
+        <v>86</v>
+      </c>
+      <c r="D59" s="27"/>
+    </row>
+    <row r="60" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A60" s="26" t="s">
         <v>87</v>
-      </c>
-      <c r="D59" s="17"/>
-    </row>
-    <row r="60" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A60" s="14" t="s">
-        <v>88</v>
       </c>
       <c r="B60" s="6" t="s">
         <v>21</v>
       </c>
       <c r="C60" s="6" t="s">
+        <v>88</v>
+      </c>
+      <c r="D60" s="27"/>
+    </row>
+    <row r="61" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A61" s="26"/>
+      <c r="B61" s="6" t="s">
         <v>89</v>
       </c>
-      <c r="D60" s="17"/>
-    </row>
-    <row r="61" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A61" s="14"/>
-      <c r="B61" s="6" t="s">
+      <c r="C61" s="6" t="s">
         <v>90</v>
       </c>
-      <c r="C61" s="6" t="s">
-        <v>91</v>
-      </c>
-      <c r="D61" s="17"/>
+      <c r="D61" s="27"/>
     </row>
     <row r="62" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A62" s="14"/>
+      <c r="A62" s="26"/>
       <c r="B62" s="6" t="s">
         <v>23</v>
       </c>
       <c r="C62" s="6" t="s">
+        <v>91</v>
+      </c>
+      <c r="D62" s="27"/>
+    </row>
+    <row r="63" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A63" s="26" t="s">
         <v>92</v>
-      </c>
-      <c r="D62" s="17"/>
-    </row>
-    <row r="63" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A63" s="14" t="s">
-        <v>93</v>
       </c>
       <c r="B63" s="6">
         <v>3</v>
       </c>
       <c r="C63" s="6" t="s">
-        <v>94</v>
-      </c>
-      <c r="D63" s="17"/>
+        <v>93</v>
+      </c>
+      <c r="D63" s="27"/>
     </row>
     <row r="64" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A64" s="14"/>
+      <c r="A64" s="26"/>
       <c r="B64" s="6">
         <v>4</v>
       </c>
       <c r="C64" s="6" t="s">
-        <v>95</v>
-      </c>
-      <c r="D64" s="17"/>
+        <v>94</v>
+      </c>
+      <c r="D64" s="27"/>
     </row>
     <row r="65" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A65" s="14"/>
+      <c r="A65" s="26"/>
       <c r="B65" s="6" t="s">
         <v>39</v>
       </c>
       <c r="C65" s="6" t="s">
         <v>40</v>
       </c>
-      <c r="D65" s="17"/>
+      <c r="D65" s="27"/>
     </row>
     <row r="66" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A66" s="14"/>
+      <c r="A66" s="26"/>
       <c r="B66" s="6" t="s">
         <v>43</v>
       </c>
       <c r="C66" s="6" t="s">
-        <v>96</v>
-      </c>
-      <c r="D66" s="17"/>
+        <v>95</v>
+      </c>
+      <c r="D66" s="27"/>
     </row>
     <row r="67" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A67" s="6" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="B67" s="6" t="s">
         <v>34</v>
       </c>
       <c r="C67" s="6" t="s">
+        <v>97</v>
+      </c>
+      <c r="D67" s="27"/>
+    </row>
+    <row r="68" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A68" s="26" t="s">
         <v>98</v>
-      </c>
-      <c r="D67" s="17"/>
-    </row>
-    <row r="68" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A68" s="14" t="s">
-        <v>99</v>
       </c>
       <c r="B68" s="6" t="s">
         <v>7</v>
       </c>
       <c r="C68" s="6" t="s">
-        <v>495</v>
-      </c>
-      <c r="D68" s="17"/>
+        <v>461</v>
+      </c>
+      <c r="D68" s="27"/>
     </row>
     <row r="69" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A69" s="14"/>
+      <c r="A69" s="26"/>
       <c r="B69" s="6" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="C69" s="6" t="s">
-        <v>496</v>
-      </c>
-      <c r="D69" s="17"/>
+        <v>462</v>
+      </c>
+      <c r="D69" s="27"/>
     </row>
     <row r="70" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A70" s="6" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="B70" s="6" t="s">
         <v>34</v>
       </c>
       <c r="C70" s="6" t="s">
-        <v>498</v>
-      </c>
-      <c r="D70" s="17"/>
+        <v>463</v>
+      </c>
+      <c r="D70" s="27"/>
     </row>
     <row r="71" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A71" s="6" t="s">
-        <v>105</v>
+        <v>101</v>
       </c>
       <c r="B71" s="6" t="s">
         <v>34</v>
       </c>
       <c r="C71" s="6" t="s">
-        <v>497</v>
-      </c>
-      <c r="D71" s="18"/>
+        <v>486</v>
+      </c>
+      <c r="D71" s="23"/>
     </row>
     <row r="72" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A72" s="11"/>
@@ -4922,11 +4715,6 @@
     </row>
   </sheetData>
   <mergeCells count="18">
-    <mergeCell ref="A1:D1"/>
-    <mergeCell ref="A5:A6"/>
-    <mergeCell ref="A7:A13"/>
-    <mergeCell ref="A14:A18"/>
-    <mergeCell ref="A19:A23"/>
     <mergeCell ref="A68:A69"/>
     <mergeCell ref="A36:A42"/>
     <mergeCell ref="A44:A49"/>
@@ -4940,6 +4728,11 @@
     <mergeCell ref="A24:A30"/>
     <mergeCell ref="A31:A33"/>
     <mergeCell ref="A34:A35"/>
+    <mergeCell ref="A1:D1"/>
+    <mergeCell ref="A5:A6"/>
+    <mergeCell ref="A7:A13"/>
+    <mergeCell ref="A14:A18"/>
+    <mergeCell ref="A19:A23"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -4948,10 +4741,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FED13C2D-9ED5-47F9-B234-C17BDCC88024}">
-  <dimension ref="A1:D232"/>
+  <dimension ref="A1:D210"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A112" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A142" sqref="A142:A145"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection sqref="A1:D1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -4964,19 +4757,19 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="A1" s="15" t="s">
-        <v>282</v>
-      </c>
-      <c r="B1" s="15"/>
-      <c r="C1" s="15"/>
-      <c r="D1" s="15"/>
+      <c r="A1" s="25" t="s">
+        <v>272</v>
+      </c>
+      <c r="B1" s="25"/>
+      <c r="C1" s="25"/>
+      <c r="D1" s="25"/>
     </row>
     <row r="2" spans="1:4" ht="20.25" x14ac:dyDescent="0.2">
       <c r="A2" s="12" t="s">
-        <v>501</v>
+        <v>464</v>
       </c>
       <c r="B2" s="12" t="s">
-        <v>107</v>
+        <v>103</v>
       </c>
       <c r="C2" s="12" t="s">
         <v>1</v>
@@ -4987,192 +4780,194 @@
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A3" s="6" t="s">
+        <v>119</v>
+      </c>
+      <c r="B3" s="14" t="s">
+        <v>119</v>
+      </c>
+      <c r="C3" s="6" t="s">
+        <v>120</v>
+      </c>
+      <c r="D3" s="6" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A4" s="26" t="s">
+        <v>122</v>
+      </c>
+      <c r="B4" s="10" t="s">
         <v>123</v>
       </c>
-      <c r="B3" s="6"/>
-      <c r="C3" s="6" t="s">
+      <c r="C4" s="6" t="s">
         <v>124</v>
       </c>
-      <c r="D3" s="6" t="s">
+      <c r="D4" s="26" t="s">
+        <v>487</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A5" s="26"/>
+      <c r="B5" s="10" t="s">
         <v>125</v>
       </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A4" s="14" t="s">
+      <c r="C5" s="6" t="s">
         <v>126</v>
       </c>
-      <c r="B4" s="10" t="s">
+      <c r="D5" s="26"/>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A6" s="26"/>
+      <c r="B6" s="10" t="s">
         <v>127</v>
       </c>
-      <c r="C4" s="6" t="s">
+      <c r="C6" s="6" t="s">
         <v>128</v>
       </c>
-      <c r="D4" s="14" t="s">
-        <v>485</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A5" s="14"/>
-      <c r="B5" s="10" t="s">
+      <c r="D6" s="26"/>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A7" s="26" t="s">
         <v>129</v>
       </c>
-      <c r="C5" s="6" t="s">
+      <c r="B7" s="10" t="s">
         <v>130</v>
       </c>
-      <c r="D5" s="14"/>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A6" s="14"/>
-      <c r="B6" s="10" t="s">
+      <c r="C7" s="6" t="s">
+        <v>124</v>
+      </c>
+      <c r="D7" s="26"/>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A8" s="26"/>
+      <c r="B8" s="10" t="s">
         <v>131</v>
       </c>
-      <c r="C6" s="6" t="s">
+      <c r="C8" s="6" t="s">
+        <v>126</v>
+      </c>
+      <c r="D8" s="26"/>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A9" s="26"/>
+      <c r="B9" s="10" t="s">
         <v>132</v>
       </c>
-      <c r="D6" s="14"/>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A7" s="14" t="s">
+      <c r="C9" s="6" t="s">
+        <v>128</v>
+      </c>
+      <c r="D9" s="26"/>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A10" s="26" t="s">
         <v>133</v>
       </c>
-      <c r="B7" s="10" t="s">
+      <c r="B10" s="10" t="s">
         <v>134</v>
       </c>
-      <c r="C7" s="6" t="s">
+      <c r="C10" s="6" t="s">
+        <v>124</v>
+      </c>
+      <c r="D10" s="26"/>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A11" s="26"/>
+      <c r="B11" s="10" t="s">
+        <v>135</v>
+      </c>
+      <c r="C11" s="6" t="s">
+        <v>126</v>
+      </c>
+      <c r="D11" s="26"/>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A12" s="26"/>
+      <c r="B12" s="10" t="s">
+        <v>136</v>
+      </c>
+      <c r="C12" s="6" t="s">
         <v>128</v>
       </c>
-      <c r="D7" s="14"/>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A8" s="14"/>
-      <c r="B8" s="10" t="s">
-        <v>135</v>
-      </c>
-      <c r="C8" s="6" t="s">
-        <v>130</v>
-      </c>
-      <c r="D8" s="14"/>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A9" s="14"/>
-      <c r="B9" s="10" t="s">
-        <v>136</v>
-      </c>
-      <c r="C9" s="6" t="s">
-        <v>132</v>
-      </c>
-      <c r="D9" s="14"/>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A10" s="14" t="s">
+      <c r="D12" s="26"/>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A13" s="26" t="s">
         <v>137</v>
       </c>
-      <c r="B10" s="10" t="s">
+      <c r="B13" s="10" t="s">
         <v>138</v>
       </c>
-      <c r="C10" s="6" t="s">
+      <c r="C13" s="6" t="s">
+        <v>124</v>
+      </c>
+      <c r="D13" s="26"/>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A14" s="26"/>
+      <c r="B14" s="10" t="s">
+        <v>139</v>
+      </c>
+      <c r="C14" s="6" t="s">
+        <v>126</v>
+      </c>
+      <c r="D14" s="26"/>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A15" s="26"/>
+      <c r="B15" s="10" t="s">
+        <v>140</v>
+      </c>
+      <c r="C15" s="6" t="s">
         <v>128</v>
       </c>
-      <c r="D10" s="14"/>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A11" s="14"/>
-      <c r="B11" s="10" t="s">
-        <v>139</v>
-      </c>
-      <c r="C11" s="6" t="s">
-        <v>130</v>
-      </c>
-      <c r="D11" s="14"/>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A12" s="14"/>
-      <c r="B12" s="10" t="s">
-        <v>140</v>
-      </c>
-      <c r="C12" s="6" t="s">
-        <v>132</v>
-      </c>
-      <c r="D12" s="14"/>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A13" s="14" t="s">
+      <c r="D15" s="26"/>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A16" s="26" t="s">
         <v>141</v>
       </c>
-      <c r="B13" s="10" t="s">
+      <c r="B16" s="10" t="s">
         <v>142</v>
       </c>
-      <c r="C13" s="6" t="s">
-        <v>128</v>
-      </c>
-      <c r="D13" s="14"/>
-    </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A14" s="14"/>
-      <c r="B14" s="10" t="s">
+      <c r="C16" s="6" t="s">
         <v>143</v>
       </c>
-      <c r="C14" s="6" t="s">
-        <v>130</v>
-      </c>
-      <c r="D14" s="14"/>
-    </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A15" s="14"/>
-      <c r="B15" s="10" t="s">
+      <c r="D16" s="26"/>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A17" s="26"/>
+      <c r="B17" s="10" t="s">
         <v>144</v>
       </c>
-      <c r="C15" s="6" t="s">
-        <v>132</v>
-      </c>
-      <c r="D15" s="14"/>
-    </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A16" s="14" t="s">
+      <c r="C17" s="6" t="s">
         <v>145</v>
       </c>
-      <c r="B16" s="10" t="s">
+      <c r="D17" s="26"/>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A18" s="26"/>
+      <c r="B18" s="10" t="s">
         <v>146</v>
       </c>
-      <c r="C16" s="6" t="s">
+      <c r="C18" s="6" t="s">
         <v>147</v>
       </c>
-      <c r="D16" s="14"/>
-    </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A17" s="14"/>
-      <c r="B17" s="10" t="s">
-        <v>148</v>
-      </c>
-      <c r="C17" s="6" t="s">
-        <v>149</v>
-      </c>
-      <c r="D17" s="14"/>
-    </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A18" s="14"/>
-      <c r="B18" s="10" t="s">
-        <v>150</v>
-      </c>
-      <c r="C18" s="6" t="s">
-        <v>151</v>
-      </c>
-      <c r="D18" s="14"/>
+      <c r="D18" s="26"/>
     </row>
     <row r="20" spans="1:4" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="A20" s="15" t="s">
-        <v>283</v>
-      </c>
-      <c r="B20" s="15"/>
-      <c r="C20" s="15"/>
-      <c r="D20" s="15"/>
+      <c r="A20" s="25" t="s">
+        <v>273</v>
+      </c>
+      <c r="B20" s="25"/>
+      <c r="C20" s="25"/>
+      <c r="D20" s="25"/>
     </row>
     <row r="21" spans="1:4" ht="20.25" x14ac:dyDescent="0.2">
       <c r="A21" s="12" t="s">
-        <v>501</v>
+        <v>464</v>
       </c>
       <c r="B21" s="12" t="s">
-        <v>107</v>
+        <v>103</v>
       </c>
       <c r="C21" s="12" t="s">
         <v>1</v>
@@ -5183,277 +4978,277 @@
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A22" s="6" t="s">
-        <v>123</v>
-      </c>
-      <c r="B22" s="6" t="s">
+        <v>119</v>
+      </c>
+      <c r="B22" s="14" t="s">
+        <v>119</v>
+      </c>
+      <c r="C22" s="6" t="s">
+        <v>120</v>
+      </c>
+      <c r="D22" s="26" t="s">
+        <v>488</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A23" s="26" t="s">
+        <v>148</v>
+      </c>
+      <c r="B23" s="6" t="s">
+        <v>105</v>
+      </c>
+      <c r="C23" s="6" t="s">
+        <v>465</v>
+      </c>
+      <c r="D23" s="26"/>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A24" s="26"/>
+      <c r="B24" s="6" t="s">
+        <v>149</v>
+      </c>
+      <c r="C24" s="6" t="s">
+        <v>150</v>
+      </c>
+      <c r="D24" s="26"/>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A25" s="26"/>
+      <c r="B25" s="6" t="s">
+        <v>151</v>
+      </c>
+      <c r="C25" s="6" t="s">
         <v>152</v>
       </c>
-      <c r="C22" s="6" t="s">
-        <v>124</v>
-      </c>
-      <c r="D22" s="14" t="s">
-        <v>481</v>
-      </c>
-    </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A23" s="14" t="s">
-        <v>152</v>
-      </c>
-      <c r="B23" s="6" t="s">
-        <v>109</v>
-      </c>
-      <c r="C23" s="6" t="s">
-        <v>502</v>
-      </c>
-      <c r="D23" s="14"/>
-    </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A24" s="14"/>
-      <c r="B24" s="6" t="s">
+      <c r="D25" s="26"/>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A26" s="26" t="s">
         <v>153</v>
-      </c>
-      <c r="C24" s="6" t="s">
-        <v>154</v>
-      </c>
-      <c r="D24" s="14"/>
-    </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A25" s="14"/>
-      <c r="B25" s="6" t="s">
-        <v>155</v>
-      </c>
-      <c r="C25" s="6" t="s">
-        <v>156</v>
-      </c>
-      <c r="D25" s="14"/>
-    </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A26" s="14" t="s">
-        <v>157</v>
       </c>
       <c r="B26" s="6">
         <v>1</v>
       </c>
       <c r="C26" s="6" t="s">
-        <v>482</v>
-      </c>
-      <c r="D26" s="14"/>
+        <v>453</v>
+      </c>
+      <c r="D26" s="26"/>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A27" s="14"/>
+      <c r="A27" s="26"/>
       <c r="B27" s="6">
         <v>2</v>
       </c>
       <c r="C27" s="6" t="s">
-        <v>158</v>
-      </c>
-      <c r="D27" s="14"/>
+        <v>154</v>
+      </c>
+      <c r="D27" s="26"/>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A28" s="14"/>
+      <c r="A28" s="26"/>
       <c r="B28" s="6">
         <v>3</v>
       </c>
       <c r="C28" s="6" t="s">
-        <v>159</v>
-      </c>
-      <c r="D28" s="14"/>
+        <v>155</v>
+      </c>
+      <c r="D28" s="26"/>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A29" s="14"/>
+      <c r="A29" s="26"/>
       <c r="B29" s="6">
         <v>4</v>
       </c>
       <c r="C29" s="6" t="s">
         <v>59</v>
       </c>
-      <c r="D29" s="14"/>
+      <c r="D29" s="26"/>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A30" s="14"/>
+      <c r="A30" s="26"/>
       <c r="B30" s="6">
         <v>5</v>
       </c>
       <c r="C30" s="6" t="s">
-        <v>160</v>
-      </c>
-      <c r="D30" s="14"/>
+        <v>156</v>
+      </c>
+      <c r="D30" s="26"/>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A31" s="14"/>
+      <c r="A31" s="26"/>
       <c r="B31" s="6">
         <v>6</v>
       </c>
       <c r="C31" s="6" t="s">
         <v>61</v>
       </c>
-      <c r="D31" s="14"/>
+      <c r="D31" s="26"/>
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A32" s="14" t="s">
-        <v>161</v>
+      <c r="A32" s="26" t="s">
+        <v>157</v>
       </c>
       <c r="B32" s="6">
         <v>-12</v>
       </c>
       <c r="C32" s="6" t="s">
-        <v>162</v>
-      </c>
-      <c r="D32" s="14"/>
+        <v>158</v>
+      </c>
+      <c r="D32" s="26"/>
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A33" s="14"/>
+      <c r="A33" s="26"/>
       <c r="B33" s="6">
         <v>-34</v>
       </c>
       <c r="C33" s="6" t="s">
-        <v>163</v>
-      </c>
-      <c r="D33" s="14"/>
+        <v>159</v>
+      </c>
+      <c r="D33" s="26"/>
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A34" s="14"/>
+      <c r="A34" s="26"/>
       <c r="B34" s="6">
         <v>-10</v>
       </c>
       <c r="C34" s="6" t="s">
-        <v>164</v>
-      </c>
-      <c r="D34" s="14"/>
+        <v>160</v>
+      </c>
+      <c r="D34" s="26"/>
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A35" s="14"/>
+      <c r="A35" s="26"/>
       <c r="B35" s="6">
         <v>-20</v>
       </c>
       <c r="C35" s="6" t="s">
-        <v>165</v>
-      </c>
-      <c r="D35" s="14"/>
+        <v>161</v>
+      </c>
+      <c r="D35" s="26"/>
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A36" s="14"/>
+      <c r="A36" s="26"/>
       <c r="B36" s="6">
         <v>-27</v>
       </c>
       <c r="C36" s="6" t="s">
-        <v>159</v>
-      </c>
-      <c r="D36" s="14"/>
+        <v>155</v>
+      </c>
+      <c r="D36" s="26"/>
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A37" s="14"/>
+      <c r="A37" s="26"/>
       <c r="B37" s="6">
         <v>-33</v>
       </c>
       <c r="C37" s="6" t="s">
+        <v>162</v>
+      </c>
+      <c r="D37" s="26"/>
+    </row>
+    <row r="38" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A38" s="26"/>
+      <c r="B38" s="6" t="s">
+        <v>163</v>
+      </c>
+      <c r="C38" s="6" t="s">
+        <v>164</v>
+      </c>
+      <c r="D38" s="26"/>
+    </row>
+    <row r="39" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A39" s="26"/>
+      <c r="B39" s="6" t="s">
+        <v>165</v>
+      </c>
+      <c r="C39" s="6" t="s">
         <v>166</v>
       </c>
-      <c r="D37" s="14"/>
-    </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A38" s="14"/>
-      <c r="B38" s="6" t="s">
+      <c r="D39" s="26"/>
+    </row>
+    <row r="40" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A40" s="26"/>
+      <c r="B40" s="6" t="s">
         <v>167</v>
       </c>
-      <c r="C38" s="6" t="s">
+      <c r="C40" s="6" t="s">
         <v>168</v>
       </c>
-      <c r="D38" s="14"/>
-    </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A39" s="14"/>
-      <c r="B39" s="6" t="s">
+      <c r="D40" s="26"/>
+    </row>
+    <row r="41" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A41" s="26"/>
+      <c r="B41" s="6" t="s">
         <v>169</v>
-      </c>
-      <c r="C39" s="6" t="s">
-        <v>170</v>
-      </c>
-      <c r="D39" s="14"/>
-    </row>
-    <row r="40" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A40" s="14"/>
-      <c r="B40" s="6" t="s">
-        <v>171</v>
-      </c>
-      <c r="C40" s="6" t="s">
-        <v>172</v>
-      </c>
-      <c r="D40" s="14"/>
-    </row>
-    <row r="41" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A41" s="14"/>
-      <c r="B41" s="6" t="s">
-        <v>173</v>
       </c>
       <c r="C41" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="D41" s="14"/>
+      <c r="D41" s="26"/>
     </row>
     <row r="42" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A42" s="6" t="s">
-        <v>174</v>
+        <v>170</v>
       </c>
       <c r="B42" s="6" t="s">
-        <v>175</v>
+        <v>171</v>
       </c>
       <c r="C42" s="6" t="s">
-        <v>176</v>
-      </c>
-      <c r="D42" s="14"/>
+        <v>172</v>
+      </c>
+      <c r="D42" s="26"/>
     </row>
     <row r="43" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A43" s="6" t="s">
-        <v>177</v>
+        <v>173</v>
       </c>
       <c r="B43" s="6" t="s">
         <v>34</v>
       </c>
       <c r="C43" s="6" t="s">
-        <v>178</v>
-      </c>
-      <c r="D43" s="14"/>
+        <v>174</v>
+      </c>
+      <c r="D43" s="26"/>
     </row>
     <row r="44" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A44" s="6" t="s">
-        <v>179</v>
+        <v>175</v>
       </c>
       <c r="B44" s="6" t="s">
-        <v>180</v>
+        <v>176</v>
       </c>
       <c r="C44" s="6" t="s">
-        <v>178</v>
-      </c>
-      <c r="D44" s="14"/>
+        <v>174</v>
+      </c>
+      <c r="D44" s="26"/>
     </row>
     <row r="45" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A45" s="6" t="s">
-        <v>181</v>
+        <v>177</v>
       </c>
       <c r="B45" s="6" t="s">
         <v>63</v>
       </c>
       <c r="C45" s="6" t="s">
-        <v>182</v>
-      </c>
-      <c r="D45" s="14"/>
+        <v>178</v>
+      </c>
+      <c r="D45" s="26"/>
     </row>
     <row r="46" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A46" s="6" t="s">
-        <v>183</v>
+        <v>179</v>
       </c>
       <c r="B46" s="6" t="s">
-        <v>184</v>
+        <v>180</v>
       </c>
       <c r="C46" s="6" t="s">
-        <v>185</v>
-      </c>
-      <c r="D46" s="14"/>
+        <v>181</v>
+      </c>
+      <c r="D46" s="26"/>
     </row>
     <row r="47" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A47" s="14" t="s">
-        <v>152</v>
+      <c r="A47" s="26" t="s">
+        <v>148</v>
       </c>
       <c r="B47" s="6" t="s">
         <v>72</v>
@@ -5461,92 +5256,92 @@
       <c r="C47" s="6" t="s">
         <v>73</v>
       </c>
-      <c r="D47" s="14"/>
+      <c r="D47" s="26"/>
     </row>
     <row r="48" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A48" s="14"/>
+      <c r="A48" s="26"/>
       <c r="B48" s="6" t="s">
+        <v>182</v>
+      </c>
+      <c r="C48" s="6" t="s">
+        <v>183</v>
+      </c>
+      <c r="D48" s="26"/>
+    </row>
+    <row r="49" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A49" s="26"/>
+      <c r="B49" s="6" t="s">
+        <v>184</v>
+      </c>
+      <c r="C49" s="6" t="s">
+        <v>185</v>
+      </c>
+      <c r="D49" s="26"/>
+    </row>
+    <row r="50" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A50" s="26"/>
+      <c r="B50" s="6" t="s">
         <v>186</v>
       </c>
-      <c r="C48" s="6" t="s">
+      <c r="C50" s="6" t="s">
         <v>187</v>
       </c>
-      <c r="D48" s="14"/>
-    </row>
-    <row r="49" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A49" s="14"/>
-      <c r="B49" s="6" t="s">
+      <c r="D50" s="26"/>
+    </row>
+    <row r="51" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A51" s="26"/>
+      <c r="B51" s="6" t="s">
         <v>188</v>
       </c>
-      <c r="C49" s="6" t="s">
+      <c r="C51" s="6" t="s">
         <v>189</v>
       </c>
-      <c r="D49" s="14"/>
-    </row>
-    <row r="50" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A50" s="14"/>
-      <c r="B50" s="6" t="s">
+      <c r="D51" s="26"/>
+    </row>
+    <row r="52" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A52" s="26"/>
+      <c r="B52" s="6" t="s">
         <v>190</v>
       </c>
-      <c r="C50" s="6" t="s">
+      <c r="C52" s="6" t="s">
         <v>191</v>
       </c>
-      <c r="D50" s="14"/>
-    </row>
-    <row r="51" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A51" s="14"/>
-      <c r="B51" s="6" t="s">
+      <c r="D52" s="26"/>
+    </row>
+    <row r="53" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A53" s="26"/>
+      <c r="B53" s="6" t="s">
         <v>192</v>
       </c>
-      <c r="C51" s="6" t="s">
+      <c r="C53" s="6" t="s">
         <v>193</v>
       </c>
-      <c r="D51" s="14"/>
-    </row>
-    <row r="52" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A52" s="14"/>
-      <c r="B52" s="6" t="s">
+      <c r="D53" s="26"/>
+    </row>
+    <row r="54" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A54" s="26"/>
+      <c r="B54" s="6" t="s">
         <v>194</v>
       </c>
-      <c r="C52" s="6" t="s">
+      <c r="C54" s="6" t="s">
         <v>195</v>
       </c>
-      <c r="D52" s="14"/>
-    </row>
-    <row r="53" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A53" s="14"/>
-      <c r="B53" s="6" t="s">
-        <v>196</v>
-      </c>
-      <c r="C53" s="6" t="s">
-        <v>197</v>
-      </c>
-      <c r="D53" s="14"/>
-    </row>
-    <row r="54" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A54" s="14"/>
-      <c r="B54" s="6" t="s">
-        <v>198</v>
-      </c>
-      <c r="C54" s="6" t="s">
-        <v>199</v>
-      </c>
-      <c r="D54" s="14"/>
+      <c r="D54" s="26"/>
     </row>
     <row r="56" spans="1:4" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="A56" s="15" t="s">
-        <v>284</v>
-      </c>
-      <c r="B56" s="15"/>
-      <c r="C56" s="15"/>
-      <c r="D56" s="15"/>
+      <c r="A56" s="25" t="s">
+        <v>274</v>
+      </c>
+      <c r="B56" s="25"/>
+      <c r="C56" s="25"/>
+      <c r="D56" s="25"/>
     </row>
     <row r="57" spans="1:4" ht="20.25" x14ac:dyDescent="0.2">
       <c r="A57" s="12" t="s">
-        <v>501</v>
+        <v>464</v>
       </c>
       <c r="B57" s="12" t="s">
-        <v>107</v>
+        <v>103</v>
       </c>
       <c r="C57" s="12" t="s">
         <v>1</v>
@@ -5557,51 +5352,53 @@
     </row>
     <row r="58" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A58" s="6" t="s">
-        <v>123</v>
-      </c>
-      <c r="B58" s="6"/>
+        <v>119</v>
+      </c>
+      <c r="B58" s="14" t="s">
+        <v>119</v>
+      </c>
       <c r="C58" s="6" t="s">
-        <v>124</v>
-      </c>
-      <c r="D58" s="14" t="s">
-        <v>480</v>
+        <v>120</v>
+      </c>
+      <c r="D58" s="26" t="s">
+        <v>489</v>
       </c>
     </row>
     <row r="59" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A59" s="14" t="s">
-        <v>152</v>
+      <c r="A59" s="26" t="s">
+        <v>148</v>
       </c>
       <c r="B59" s="6" t="s">
+        <v>196</v>
+      </c>
+      <c r="C59" s="6" t="s">
+        <v>197</v>
+      </c>
+      <c r="D59" s="26"/>
+    </row>
+    <row r="60" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A60" s="26"/>
+      <c r="B60" s="6" t="s">
+        <v>198</v>
+      </c>
+      <c r="C60" s="6" t="s">
+        <v>199</v>
+      </c>
+      <c r="D60" s="26"/>
+    </row>
+    <row r="61" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A61" s="26"/>
+      <c r="B61" s="6" t="s">
+        <v>117</v>
+      </c>
+      <c r="C61" s="6" t="s">
         <v>200</v>
       </c>
-      <c r="C59" s="6" t="s">
+      <c r="D61" s="26"/>
+    </row>
+    <row r="62" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A62" s="26" t="s">
         <v>201</v>
-      </c>
-      <c r="D59" s="14"/>
-    </row>
-    <row r="60" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A60" s="14"/>
-      <c r="B60" s="6" t="s">
-        <v>202</v>
-      </c>
-      <c r="C60" s="6" t="s">
-        <v>203</v>
-      </c>
-      <c r="D60" s="14"/>
-    </row>
-    <row r="61" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A61" s="14"/>
-      <c r="B61" s="6" t="s">
-        <v>121</v>
-      </c>
-      <c r="C61" s="6" t="s">
-        <v>204</v>
-      </c>
-      <c r="D61" s="14"/>
-    </row>
-    <row r="62" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A62" s="14" t="s">
-        <v>205</v>
       </c>
       <c r="B62" s="6">
         <v>1</v>
@@ -5609,234 +5406,234 @@
       <c r="C62" s="6" t="s">
         <v>56</v>
       </c>
-      <c r="D62" s="14"/>
+      <c r="D62" s="26"/>
     </row>
     <row r="63" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A63" s="14"/>
+      <c r="A63" s="26"/>
       <c r="B63" s="6">
         <v>2</v>
       </c>
       <c r="C63" s="6" t="s">
         <v>57</v>
       </c>
-      <c r="D63" s="14"/>
+      <c r="D63" s="26"/>
     </row>
     <row r="64" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A64" s="14"/>
+      <c r="A64" s="26"/>
       <c r="B64" s="6">
         <v>3</v>
       </c>
       <c r="C64" s="6" t="s">
         <v>58</v>
       </c>
-      <c r="D64" s="14"/>
+      <c r="D64" s="26"/>
     </row>
     <row r="65" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A65" s="14"/>
+      <c r="A65" s="26"/>
       <c r="B65" s="6">
         <v>4</v>
       </c>
       <c r="C65" s="6" t="s">
         <v>59</v>
       </c>
-      <c r="D65" s="14"/>
+      <c r="D65" s="26"/>
     </row>
     <row r="66" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A66" s="14"/>
+      <c r="A66" s="26"/>
       <c r="B66" s="6">
         <v>5</v>
       </c>
       <c r="C66" s="6" t="s">
-        <v>160</v>
-      </c>
-      <c r="D66" s="14"/>
+        <v>156</v>
+      </c>
+      <c r="D66" s="26"/>
     </row>
     <row r="67" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A67" s="14"/>
+      <c r="A67" s="26"/>
       <c r="B67" s="6">
         <v>6</v>
       </c>
       <c r="C67" s="6" t="s">
         <v>61</v>
       </c>
-      <c r="D67" s="14"/>
+      <c r="D67" s="26"/>
     </row>
     <row r="68" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A68" s="6" t="s">
-        <v>206</v>
+        <v>202</v>
       </c>
       <c r="B68" s="6" t="s">
         <v>63</v>
       </c>
       <c r="C68" s="6" t="s">
-        <v>207</v>
-      </c>
-      <c r="D68" s="14"/>
+        <v>203</v>
+      </c>
+      <c r="D68" s="26"/>
     </row>
     <row r="69" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A69" s="6" t="s">
-        <v>174</v>
+        <v>170</v>
       </c>
       <c r="B69" s="6" t="s">
-        <v>175</v>
+        <v>171</v>
       </c>
       <c r="C69" s="6" t="s">
-        <v>176</v>
-      </c>
-      <c r="D69" s="14"/>
+        <v>172</v>
+      </c>
+      <c r="D69" s="26"/>
     </row>
     <row r="70" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A70" s="6" t="s">
+        <v>204</v>
+      </c>
+      <c r="B70" s="6" t="s">
+        <v>205</v>
+      </c>
+      <c r="C70" s="6" t="s">
+        <v>97</v>
+      </c>
+      <c r="D70" s="26"/>
+    </row>
+    <row r="71" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A71" s="26" t="s">
+        <v>206</v>
+      </c>
+      <c r="B71" s="6" t="s">
+        <v>207</v>
+      </c>
+      <c r="C71" s="6" t="s">
         <v>208</v>
       </c>
-      <c r="B70" s="6" t="s">
+      <c r="D71" s="26"/>
+    </row>
+    <row r="72" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A72" s="26"/>
+      <c r="B72" s="6" t="s">
         <v>209</v>
       </c>
-      <c r="C70" s="6" t="s">
-        <v>98</v>
-      </c>
-      <c r="D70" s="14"/>
-    </row>
-    <row r="71" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A71" s="14" t="s">
+      <c r="C72" s="6" t="s">
         <v>210</v>
       </c>
-      <c r="B71" s="6" t="s">
+      <c r="D72" s="26"/>
+    </row>
+    <row r="73" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A73" s="26"/>
+      <c r="B73" s="6" t="s">
         <v>211</v>
       </c>
-      <c r="C71" s="6" t="s">
+      <c r="C73" s="6" t="s">
         <v>212</v>
       </c>
-      <c r="D71" s="14"/>
-    </row>
-    <row r="72" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A72" s="14"/>
-      <c r="B72" s="6" t="s">
+      <c r="D73" s="26"/>
+    </row>
+    <row r="74" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A74" s="26"/>
+      <c r="B74" s="6" t="s">
         <v>213</v>
       </c>
-      <c r="C72" s="6" t="s">
+      <c r="C74" s="6" t="s">
         <v>214</v>
       </c>
-      <c r="D72" s="14"/>
-    </row>
-    <row r="73" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A73" s="14"/>
-      <c r="B73" s="6" t="s">
-        <v>215</v>
-      </c>
-      <c r="C73" s="6" t="s">
-        <v>216</v>
-      </c>
-      <c r="D73" s="14"/>
-    </row>
-    <row r="74" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A74" s="14"/>
-      <c r="B74" s="6" t="s">
-        <v>217</v>
-      </c>
-      <c r="C74" s="6" t="s">
-        <v>218</v>
-      </c>
-      <c r="D74" s="14"/>
+      <c r="D74" s="26"/>
     </row>
     <row r="75" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A75" s="6" t="s">
-        <v>219</v>
+        <v>215</v>
       </c>
       <c r="B75" s="6" t="s">
         <v>63</v>
       </c>
       <c r="C75" s="6" t="s">
-        <v>98</v>
-      </c>
-      <c r="D75" s="14"/>
+        <v>97</v>
+      </c>
+      <c r="D75" s="26"/>
     </row>
     <row r="76" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A76" s="14" t="s">
+      <c r="A76" s="26" t="s">
+        <v>179</v>
+      </c>
+      <c r="B76" s="6" t="s">
+        <v>182</v>
+      </c>
+      <c r="C76" s="6" t="s">
         <v>183</v>
       </c>
-      <c r="B76" s="6" t="s">
+      <c r="D76" s="26"/>
+    </row>
+    <row r="77" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A77" s="26"/>
+      <c r="B77" s="6" t="s">
+        <v>184</v>
+      </c>
+      <c r="C77" s="6" t="s">
+        <v>185</v>
+      </c>
+      <c r="D77" s="26"/>
+    </row>
+    <row r="78" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A78" s="26"/>
+      <c r="B78" s="6" t="s">
         <v>186</v>
       </c>
-      <c r="C76" s="6" t="s">
+      <c r="C78" s="6" t="s">
         <v>187</v>
       </c>
-      <c r="D76" s="14"/>
-    </row>
-    <row r="77" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A77" s="14"/>
-      <c r="B77" s="6" t="s">
+      <c r="D78" s="26"/>
+    </row>
+    <row r="79" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A79" s="26"/>
+      <c r="B79" s="6" t="s">
         <v>188</v>
       </c>
-      <c r="C77" s="6" t="s">
+      <c r="C79" s="6" t="s">
         <v>189</v>
       </c>
-      <c r="D77" s="14"/>
-    </row>
-    <row r="78" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A78" s="14"/>
-      <c r="B78" s="6" t="s">
+      <c r="D79" s="26"/>
+    </row>
+    <row r="80" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A80" s="26"/>
+      <c r="B80" s="6" t="s">
         <v>190</v>
       </c>
-      <c r="C78" s="6" t="s">
+      <c r="C80" s="6" t="s">
         <v>191</v>
       </c>
-      <c r="D78" s="14"/>
-    </row>
-    <row r="79" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A79" s="14"/>
-      <c r="B79" s="6" t="s">
+      <c r="D80" s="26"/>
+    </row>
+    <row r="81" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A81" s="26"/>
+      <c r="B81" s="6" t="s">
         <v>192</v>
       </c>
-      <c r="C79" s="6" t="s">
+      <c r="C81" s="6" t="s">
         <v>193</v>
       </c>
-      <c r="D79" s="14"/>
-    </row>
-    <row r="80" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A80" s="14"/>
-      <c r="B80" s="6" t="s">
+      <c r="D81" s="26"/>
+    </row>
+    <row r="82" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A82" s="26"/>
+      <c r="B82" s="6" t="s">
         <v>194</v>
       </c>
-      <c r="C80" s="6" t="s">
+      <c r="C82" s="6" t="s">
         <v>195</v>
       </c>
-      <c r="D80" s="14"/>
-    </row>
-    <row r="81" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A81" s="14"/>
-      <c r="B81" s="6" t="s">
-        <v>196</v>
-      </c>
-      <c r="C81" s="6" t="s">
-        <v>197</v>
-      </c>
-      <c r="D81" s="14"/>
-    </row>
-    <row r="82" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A82" s="14"/>
-      <c r="B82" s="6" t="s">
-        <v>198</v>
-      </c>
-      <c r="C82" s="6" t="s">
-        <v>199</v>
-      </c>
-      <c r="D82" s="14"/>
+      <c r="D82" s="26"/>
     </row>
     <row r="84" spans="1:4" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="A84" s="15" t="s">
-        <v>285</v>
-      </c>
-      <c r="B84" s="15"/>
-      <c r="C84" s="15"/>
-      <c r="D84" s="15"/>
+      <c r="A84" s="25" t="s">
+        <v>275</v>
+      </c>
+      <c r="B84" s="25"/>
+      <c r="C84" s="25"/>
+      <c r="D84" s="25"/>
     </row>
     <row r="85" spans="1:4" ht="20.25" x14ac:dyDescent="0.2">
       <c r="A85" s="12" t="s">
-        <v>501</v>
+        <v>464</v>
       </c>
       <c r="B85" s="12" t="s">
-        <v>107</v>
+        <v>103</v>
       </c>
       <c r="C85" s="12" t="s">
         <v>1</v>
@@ -5847,51 +5644,53 @@
     </row>
     <row r="86" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A86" s="6" t="s">
-        <v>123</v>
-      </c>
-      <c r="B86" s="6"/>
+        <v>119</v>
+      </c>
+      <c r="B86" s="14" t="s">
+        <v>119</v>
+      </c>
       <c r="C86" s="6" t="s">
-        <v>124</v>
-      </c>
-      <c r="D86" s="14" t="s">
+        <v>120</v>
+      </c>
+      <c r="D86" s="26" t="s">
+        <v>490</v>
+      </c>
+    </row>
+    <row r="87" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A87" s="26" t="s">
+        <v>148</v>
+      </c>
+      <c r="B87" s="6" t="s">
+        <v>216</v>
+      </c>
+      <c r="C87" s="6" t="s">
+        <v>217</v>
+      </c>
+      <c r="D87" s="26"/>
+    </row>
+    <row r="88" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A88" s="26"/>
+      <c r="B88" s="6" t="s">
+        <v>218</v>
+      </c>
+      <c r="C88" s="6" t="s">
+        <v>219</v>
+      </c>
+      <c r="D88" s="26"/>
+    </row>
+    <row r="89" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A89" s="26"/>
+      <c r="B89" s="6" t="s">
         <v>220</v>
       </c>
-    </row>
-    <row r="87" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A87" s="14" t="s">
-        <v>152</v>
-      </c>
-      <c r="B87" s="6" t="s">
+      <c r="C89" s="6" t="s">
         <v>221</v>
       </c>
-      <c r="C87" s="6" t="s">
+      <c r="D89" s="26"/>
+    </row>
+    <row r="90" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A90" s="26" t="s">
         <v>222</v>
-      </c>
-      <c r="D87" s="14"/>
-    </row>
-    <row r="88" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A88" s="14"/>
-      <c r="B88" s="6" t="s">
-        <v>223</v>
-      </c>
-      <c r="C88" s="6" t="s">
-        <v>224</v>
-      </c>
-      <c r="D88" s="14"/>
-    </row>
-    <row r="89" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A89" s="14"/>
-      <c r="B89" s="6" t="s">
-        <v>225</v>
-      </c>
-      <c r="C89" s="6" t="s">
-        <v>226</v>
-      </c>
-      <c r="D89" s="14"/>
-    </row>
-    <row r="90" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A90" s="14" t="s">
-        <v>227</v>
       </c>
       <c r="B90" s="6">
         <v>1</v>
@@ -5899,478 +5698,478 @@
       <c r="C90" s="6" t="s">
         <v>56</v>
       </c>
-      <c r="D90" s="14"/>
+      <c r="D90" s="26"/>
     </row>
     <row r="91" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A91" s="14"/>
+      <c r="A91" s="26"/>
       <c r="B91" s="6">
         <v>2</v>
       </c>
       <c r="C91" s="6" t="s">
         <v>57</v>
       </c>
-      <c r="D91" s="14"/>
+      <c r="D91" s="26"/>
     </row>
     <row r="92" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A92" s="14"/>
+      <c r="A92" s="26"/>
       <c r="B92" s="6">
         <v>3</v>
       </c>
       <c r="C92" s="6" t="s">
         <v>58</v>
       </c>
-      <c r="D92" s="14"/>
+      <c r="D92" s="26"/>
     </row>
     <row r="93" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A93" s="14"/>
+      <c r="A93" s="26"/>
       <c r="B93" s="6">
         <v>4</v>
       </c>
       <c r="C93" s="6" t="s">
         <v>59</v>
       </c>
-      <c r="D93" s="14"/>
+      <c r="D93" s="26"/>
     </row>
     <row r="94" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A94" s="14"/>
+      <c r="A94" s="26"/>
       <c r="B94" s="6">
         <v>5</v>
       </c>
       <c r="C94" s="6" t="s">
-        <v>160</v>
-      </c>
-      <c r="D94" s="14"/>
+        <v>156</v>
+      </c>
+      <c r="D94" s="26"/>
     </row>
     <row r="95" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A95" s="14"/>
+      <c r="A95" s="26"/>
       <c r="B95" s="6">
         <v>6</v>
       </c>
       <c r="C95" s="6" t="s">
         <v>61</v>
       </c>
-      <c r="D95" s="14"/>
+      <c r="D95" s="26"/>
     </row>
     <row r="96" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A96" s="14" t="s">
-        <v>228</v>
+      <c r="A96" s="26" t="s">
+        <v>223</v>
       </c>
       <c r="B96" s="6" t="s">
-        <v>109</v>
+        <v>105</v>
       </c>
       <c r="C96" s="6" t="s">
-        <v>229</v>
-      </c>
-      <c r="D96" s="14"/>
+        <v>224</v>
+      </c>
+      <c r="D96" s="26"/>
     </row>
     <row r="97" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A97" s="14"/>
+      <c r="A97" s="26"/>
       <c r="B97" s="6" t="s">
         <v>9</v>
       </c>
       <c r="C97" s="6" t="s">
-        <v>230</v>
-      </c>
-      <c r="D97" s="14"/>
+        <v>225</v>
+      </c>
+      <c r="D97" s="26"/>
     </row>
     <row r="98" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A98" s="14"/>
+      <c r="A98" s="26"/>
       <c r="B98" s="6" t="s">
-        <v>200</v>
+        <v>196</v>
       </c>
       <c r="C98" s="6" t="s">
-        <v>231</v>
-      </c>
-      <c r="D98" s="14"/>
+        <v>226</v>
+      </c>
+      <c r="D98" s="26"/>
     </row>
     <row r="99" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A99" s="14"/>
+      <c r="A99" s="26"/>
       <c r="B99" s="6" t="s">
-        <v>202</v>
+        <v>198</v>
       </c>
       <c r="C99" s="6" t="s">
-        <v>232</v>
-      </c>
-      <c r="D99" s="14"/>
+        <v>227</v>
+      </c>
+      <c r="D99" s="26"/>
     </row>
     <row r="100" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A100" s="14"/>
+      <c r="A100" s="26"/>
       <c r="B100" s="6" t="s">
-        <v>173</v>
+        <v>169</v>
       </c>
       <c r="C100" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="D100" s="14"/>
+      <c r="D100" s="26"/>
     </row>
     <row r="101" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A101" s="14" t="s">
-        <v>233</v>
+      <c r="A101" s="26" t="s">
+        <v>228</v>
       </c>
       <c r="B101" s="6">
         <v>1</v>
       </c>
       <c r="C101" s="6" t="s">
-        <v>234</v>
-      </c>
-      <c r="D101" s="14"/>
+        <v>229</v>
+      </c>
+      <c r="D101" s="26"/>
     </row>
     <row r="102" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A102" s="14"/>
+      <c r="A102" s="26"/>
       <c r="B102" s="6">
         <v>2</v>
       </c>
       <c r="C102" s="6" t="s">
-        <v>235</v>
-      </c>
-      <c r="D102" s="14"/>
+        <v>230</v>
+      </c>
+      <c r="D102" s="26"/>
     </row>
     <row r="103" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A103" s="14"/>
+      <c r="A103" s="26"/>
       <c r="B103" s="6">
         <v>3</v>
       </c>
       <c r="C103" s="6" t="s">
-        <v>236</v>
-      </c>
-      <c r="D103" s="14"/>
+        <v>231</v>
+      </c>
+      <c r="D103" s="26"/>
     </row>
     <row r="104" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A104" s="14"/>
+      <c r="A104" s="26"/>
       <c r="B104" s="6" t="s">
         <v>18</v>
       </c>
       <c r="C104" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="D104" s="14"/>
+      <c r="D104" s="26"/>
     </row>
     <row r="105" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A105" s="14" t="s">
-        <v>237</v>
+      <c r="A105" s="26" t="s">
+        <v>232</v>
       </c>
       <c r="B105" s="6">
         <v>1</v>
       </c>
       <c r="C105" s="6" t="s">
-        <v>238</v>
-      </c>
-      <c r="D105" s="14"/>
+        <v>233</v>
+      </c>
+      <c r="D105" s="26"/>
     </row>
     <row r="106" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A106" s="14"/>
+      <c r="A106" s="26"/>
       <c r="B106" s="6">
         <v>2</v>
       </c>
       <c r="C106" s="6" t="s">
-        <v>239</v>
-      </c>
-      <c r="D106" s="14"/>
+        <v>234</v>
+      </c>
+      <c r="D106" s="26"/>
     </row>
     <row r="107" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A107" s="14"/>
+      <c r="A107" s="26"/>
       <c r="B107" s="6">
         <v>3</v>
       </c>
       <c r="C107" s="6" t="s">
-        <v>240</v>
-      </c>
-      <c r="D107" s="14"/>
+        <v>235</v>
+      </c>
+      <c r="D107" s="26"/>
     </row>
     <row r="108" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A108" s="14"/>
+      <c r="A108" s="26"/>
       <c r="B108" s="6">
         <v>4</v>
       </c>
       <c r="C108" s="6" t="s">
-        <v>241</v>
-      </c>
-      <c r="D108" s="14"/>
+        <v>236</v>
+      </c>
+      <c r="D108" s="26"/>
     </row>
     <row r="109" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A109" s="14"/>
+      <c r="A109" s="26"/>
       <c r="B109" s="6">
         <v>5</v>
       </c>
       <c r="C109" s="6" t="s">
-        <v>242</v>
-      </c>
-      <c r="D109" s="14"/>
+        <v>237</v>
+      </c>
+      <c r="D109" s="26"/>
     </row>
     <row r="110" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A110" s="14"/>
+      <c r="A110" s="26"/>
       <c r="B110" s="6">
         <v>6</v>
       </c>
       <c r="C110" s="6" t="s">
-        <v>243</v>
-      </c>
-      <c r="D110" s="14"/>
+        <v>238</v>
+      </c>
+      <c r="D110" s="26"/>
     </row>
     <row r="111" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A111" s="14"/>
+      <c r="A111" s="26"/>
       <c r="B111" s="6">
         <v>7</v>
       </c>
       <c r="C111" s="6" t="s">
-        <v>244</v>
-      </c>
-      <c r="D111" s="14"/>
+        <v>239</v>
+      </c>
+      <c r="D111" s="26"/>
     </row>
     <row r="112" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A112" s="14"/>
+      <c r="A112" s="26"/>
       <c r="B112" s="6">
         <v>8</v>
       </c>
       <c r="C112" s="6" t="s">
-        <v>245</v>
-      </c>
-      <c r="D112" s="14"/>
+        <v>240</v>
+      </c>
+      <c r="D112" s="26"/>
     </row>
     <row r="113" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A113" s="14"/>
+      <c r="A113" s="26"/>
       <c r="B113" s="6">
         <v>9</v>
       </c>
       <c r="C113" s="6" t="s">
-        <v>246</v>
-      </c>
-      <c r="D113" s="14"/>
+        <v>241</v>
+      </c>
+      <c r="D113" s="26"/>
     </row>
     <row r="114" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A114" s="14"/>
+      <c r="A114" s="26"/>
       <c r="B114" s="6">
         <v>10</v>
       </c>
       <c r="C114" s="6" t="s">
-        <v>247</v>
-      </c>
-      <c r="D114" s="14"/>
+        <v>242</v>
+      </c>
+      <c r="D114" s="26"/>
     </row>
     <row r="115" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A115" s="14"/>
+      <c r="A115" s="26"/>
       <c r="B115" s="6">
         <v>11</v>
       </c>
       <c r="C115" s="6" t="s">
-        <v>248</v>
-      </c>
-      <c r="D115" s="14"/>
+        <v>243</v>
+      </c>
+      <c r="D115" s="26"/>
     </row>
     <row r="116" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A116" s="14"/>
+      <c r="A116" s="26"/>
       <c r="B116" s="6" t="s">
         <v>18</v>
       </c>
       <c r="C116" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="D116" s="14"/>
+      <c r="D116" s="26"/>
     </row>
     <row r="117" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A117" s="6" t="s">
-        <v>249</v>
+        <v>244</v>
       </c>
       <c r="B117" s="6" t="s">
-        <v>175</v>
+        <v>171</v>
       </c>
       <c r="C117" s="6" t="s">
-        <v>176</v>
-      </c>
-      <c r="D117" s="14"/>
+        <v>172</v>
+      </c>
+      <c r="D117" s="26"/>
     </row>
     <row r="118" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A118" s="6" t="s">
-        <v>219</v>
+        <v>215</v>
       </c>
       <c r="B118" s="6" t="s">
         <v>63</v>
       </c>
       <c r="C118" s="6" t="s">
-        <v>98</v>
-      </c>
-      <c r="D118" s="14"/>
+        <v>97</v>
+      </c>
+      <c r="D118" s="26"/>
     </row>
     <row r="119" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A119" s="6" t="s">
-        <v>250</v>
+        <v>245</v>
       </c>
       <c r="B119" s="6" t="s">
-        <v>175</v>
+        <v>171</v>
       </c>
       <c r="C119" s="6" t="s">
-        <v>176</v>
-      </c>
-      <c r="D119" s="14"/>
+        <v>172</v>
+      </c>
+      <c r="D119" s="26"/>
     </row>
     <row r="120" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A120" s="14" t="s">
-        <v>208</v>
+      <c r="A120" s="26" t="s">
+        <v>204</v>
       </c>
       <c r="B120" s="6">
         <v>-22</v>
       </c>
       <c r="C120" s="6" t="s">
-        <v>216</v>
-      </c>
-      <c r="D120" s="14"/>
+        <v>212</v>
+      </c>
+      <c r="D120" s="26"/>
     </row>
     <row r="121" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A121" s="14"/>
+      <c r="A121" s="26"/>
       <c r="B121" s="6">
         <v>-27</v>
       </c>
       <c r="C121" s="6" t="s">
-        <v>251</v>
-      </c>
-      <c r="D121" s="14"/>
+        <v>246</v>
+      </c>
+      <c r="D121" s="26"/>
     </row>
     <row r="122" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A122" s="14"/>
+      <c r="A122" s="26"/>
       <c r="B122" s="6" t="s">
         <v>63</v>
       </c>
       <c r="C122" s="6" t="s">
-        <v>98</v>
-      </c>
-      <c r="D122" s="14"/>
+        <v>97</v>
+      </c>
+      <c r="D122" s="26"/>
     </row>
     <row r="123" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A123" s="14" t="s">
-        <v>210</v>
+      <c r="A123" s="26" t="s">
+        <v>206</v>
       </c>
       <c r="B123" s="6">
         <v>-16</v>
       </c>
       <c r="C123" s="6" t="s">
-        <v>212</v>
-      </c>
-      <c r="D123" s="14"/>
+        <v>208</v>
+      </c>
+      <c r="D123" s="26"/>
     </row>
     <row r="124" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A124" s="14"/>
+      <c r="A124" s="26"/>
       <c r="B124" s="6">
         <v>-18</v>
       </c>
       <c r="C124" s="6" t="s">
-        <v>214</v>
-      </c>
-      <c r="D124" s="14"/>
+        <v>210</v>
+      </c>
+      <c r="D124" s="26"/>
     </row>
     <row r="125" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A125" s="14"/>
+      <c r="A125" s="26"/>
       <c r="B125" s="6">
         <v>-22</v>
       </c>
       <c r="C125" s="6" t="s">
-        <v>216</v>
-      </c>
-      <c r="D125" s="14"/>
+        <v>212</v>
+      </c>
+      <c r="D125" s="26"/>
     </row>
     <row r="126" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A126" s="14"/>
+      <c r="A126" s="26"/>
       <c r="B126" s="6" t="s">
         <v>63</v>
       </c>
       <c r="C126" s="6" t="s">
-        <v>218</v>
-      </c>
-      <c r="D126" s="14"/>
+        <v>214</v>
+      </c>
+      <c r="D126" s="26"/>
     </row>
     <row r="127" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A127" s="14" t="s">
+      <c r="A127" s="26" t="s">
+        <v>179</v>
+      </c>
+      <c r="B127" s="6" t="s">
+        <v>182</v>
+      </c>
+      <c r="C127" s="6" t="s">
         <v>183</v>
       </c>
-      <c r="B127" s="6" t="s">
+      <c r="D127" s="26"/>
+    </row>
+    <row r="128" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A128" s="26"/>
+      <c r="B128" s="6" t="s">
+        <v>184</v>
+      </c>
+      <c r="C128" s="6" t="s">
+        <v>185</v>
+      </c>
+      <c r="D128" s="26"/>
+    </row>
+    <row r="129" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A129" s="26"/>
+      <c r="B129" s="6" t="s">
         <v>186</v>
       </c>
-      <c r="C127" s="6" t="s">
+      <c r="C129" s="6" t="s">
         <v>187</v>
       </c>
-      <c r="D127" s="14"/>
-    </row>
-    <row r="128" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A128" s="14"/>
-      <c r="B128" s="6" t="s">
+      <c r="D129" s="26"/>
+    </row>
+    <row r="130" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A130" s="26"/>
+      <c r="B130" s="6" t="s">
         <v>188</v>
       </c>
-      <c r="C128" s="6" t="s">
+      <c r="C130" s="6" t="s">
         <v>189</v>
       </c>
-      <c r="D128" s="14"/>
-    </row>
-    <row r="129" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A129" s="14"/>
-      <c r="B129" s="6" t="s">
+      <c r="D130" s="26"/>
+    </row>
+    <row r="131" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A131" s="26"/>
+      <c r="B131" s="6" t="s">
         <v>190</v>
       </c>
-      <c r="C129" s="6" t="s">
+      <c r="C131" s="6" t="s">
         <v>191</v>
       </c>
-      <c r="D129" s="14"/>
-    </row>
-    <row r="130" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A130" s="14"/>
-      <c r="B130" s="6" t="s">
+      <c r="D131" s="26"/>
+    </row>
+    <row r="132" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A132" s="26"/>
+      <c r="B132" s="6" t="s">
         <v>192</v>
       </c>
-      <c r="C130" s="6" t="s">
+      <c r="C132" s="6" t="s">
         <v>193</v>
       </c>
-      <c r="D130" s="14"/>
-    </row>
-    <row r="131" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A131" s="14"/>
-      <c r="B131" s="6" t="s">
+      <c r="D132" s="26"/>
+    </row>
+    <row r="133" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A133" s="26"/>
+      <c r="B133" s="6" t="s">
         <v>194</v>
       </c>
-      <c r="C131" s="6" t="s">
+      <c r="C133" s="6" t="s">
         <v>195</v>
       </c>
-      <c r="D131" s="14"/>
-    </row>
-    <row r="132" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A132" s="14"/>
-      <c r="B132" s="6" t="s">
-        <v>196</v>
-      </c>
-      <c r="C132" s="6" t="s">
-        <v>197</v>
-      </c>
-      <c r="D132" s="14"/>
-    </row>
-    <row r="133" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A133" s="14"/>
-      <c r="B133" s="6" t="s">
-        <v>198</v>
-      </c>
-      <c r="C133" s="6" t="s">
-        <v>199</v>
-      </c>
-      <c r="D133" s="14"/>
+      <c r="D133" s="26"/>
     </row>
     <row r="135" spans="1:4" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="A135" s="15" t="s">
-        <v>286</v>
-      </c>
-      <c r="B135" s="15"/>
-      <c r="C135" s="15"/>
-      <c r="D135" s="15"/>
+      <c r="A135" s="25" t="s">
+        <v>276</v>
+      </c>
+      <c r="B135" s="25"/>
+      <c r="C135" s="25"/>
+      <c r="D135" s="25"/>
     </row>
     <row r="136" spans="1:4" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="A136" s="15" t="s">
-        <v>486</v>
-      </c>
-      <c r="B136" s="15"/>
-      <c r="C136" s="15"/>
-      <c r="D136" s="15"/>
+      <c r="A136" s="25" t="s">
+        <v>455</v>
+      </c>
+      <c r="B136" s="25"/>
+      <c r="C136" s="25"/>
+      <c r="D136" s="25"/>
     </row>
     <row r="137" spans="1:4" ht="20.25" x14ac:dyDescent="0.2">
       <c r="A137" s="12" t="s">
-        <v>501</v>
+        <v>464</v>
       </c>
       <c r="B137" s="12" t="s">
-        <v>107</v>
+        <v>103</v>
       </c>
       <c r="C137" s="12" t="s">
         <v>1</v>
@@ -6381,140 +6180,142 @@
     </row>
     <row r="138" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A138" s="6" t="s">
-        <v>123</v>
-      </c>
-      <c r="B138" s="6"/>
+        <v>119</v>
+      </c>
+      <c r="B138" s="14" t="s">
+        <v>119</v>
+      </c>
       <c r="C138" s="6" t="s">
-        <v>124</v>
-      </c>
-      <c r="D138" s="14" t="s">
-        <v>252</v>
+        <v>120</v>
+      </c>
+      <c r="D138" s="26" t="s">
+        <v>491</v>
       </c>
     </row>
     <row r="139" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A139" s="6" t="s">
-        <v>253</v>
+        <v>497</v>
       </c>
       <c r="B139" s="6" t="s">
-        <v>146</v>
+        <v>142</v>
       </c>
       <c r="C139" s="6" t="s">
-        <v>254</v>
-      </c>
-      <c r="D139" s="14"/>
+        <v>248</v>
+      </c>
+      <c r="D139" s="26"/>
     </row>
     <row r="140" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A140" s="6" t="s">
-        <v>219</v>
+        <v>215</v>
       </c>
       <c r="B140" s="6" t="s">
         <v>63</v>
       </c>
       <c r="C140" s="6" t="s">
-        <v>98</v>
-      </c>
-      <c r="D140" s="14"/>
+        <v>97</v>
+      </c>
+      <c r="D140" s="26"/>
     </row>
     <row r="141" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A141" s="6" t="s">
-        <v>174</v>
+        <v>170</v>
       </c>
       <c r="B141" s="6" t="s">
-        <v>209</v>
+        <v>205</v>
       </c>
       <c r="C141" s="6" t="s">
-        <v>255</v>
-      </c>
-      <c r="D141" s="14"/>
+        <v>249</v>
+      </c>
+      <c r="D141" s="26"/>
     </row>
     <row r="142" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A142" s="14" t="s">
-        <v>256</v>
+      <c r="A142" s="26" t="s">
+        <v>466</v>
       </c>
       <c r="B142" s="6">
         <v>-12</v>
       </c>
       <c r="C142" s="6" t="s">
-        <v>257</v>
-      </c>
-      <c r="D142" s="14"/>
+        <v>251</v>
+      </c>
+      <c r="D142" s="26"/>
     </row>
     <row r="143" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A143" s="14"/>
+      <c r="A143" s="26"/>
       <c r="B143" s="6">
         <v>-16</v>
       </c>
       <c r="C143" s="6" t="s">
-        <v>212</v>
-      </c>
-      <c r="D143" s="14"/>
+        <v>208</v>
+      </c>
+      <c r="D143" s="26"/>
     </row>
     <row r="144" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A144" s="14"/>
+      <c r="A144" s="26"/>
       <c r="B144" s="6">
         <v>-20</v>
       </c>
       <c r="C144" s="6" t="s">
-        <v>258</v>
-      </c>
-      <c r="D144" s="14"/>
+        <v>252</v>
+      </c>
+      <c r="D144" s="26"/>
     </row>
     <row r="145" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A145" s="14"/>
+      <c r="A145" s="26"/>
       <c r="B145" s="6" t="s">
         <v>63</v>
       </c>
       <c r="C145" s="6" t="s">
-        <v>218</v>
-      </c>
-      <c r="D145" s="14"/>
+        <v>214</v>
+      </c>
+      <c r="D145" s="26"/>
     </row>
     <row r="146" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A146" s="14" t="s">
-        <v>183</v>
+      <c r="A146" s="26" t="s">
+        <v>179</v>
       </c>
       <c r="B146" s="6" t="s">
-        <v>188</v>
+        <v>184</v>
       </c>
       <c r="C146" s="6" t="s">
-        <v>189</v>
-      </c>
-      <c r="D146" s="14"/>
+        <v>185</v>
+      </c>
+      <c r="D146" s="26"/>
     </row>
     <row r="147" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A147" s="14"/>
+      <c r="A147" s="26"/>
       <c r="B147" s="6" t="s">
+        <v>190</v>
+      </c>
+      <c r="C147" s="6" t="s">
+        <v>191</v>
+      </c>
+      <c r="D147" s="26"/>
+    </row>
+    <row r="148" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A148" s="26"/>
+      <c r="B148" s="6" t="s">
         <v>194</v>
       </c>
-      <c r="C147" s="6" t="s">
+      <c r="C148" s="6" t="s">
         <v>195</v>
       </c>
-      <c r="D147" s="14"/>
-    </row>
-    <row r="148" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A148" s="14"/>
-      <c r="B148" s="6" t="s">
-        <v>198</v>
-      </c>
-      <c r="C148" s="6" t="s">
-        <v>199</v>
-      </c>
-      <c r="D148" s="14"/>
+      <c r="D148" s="26"/>
     </row>
     <row r="150" spans="1:4" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="A150" s="15" t="s">
-        <v>487</v>
-      </c>
-      <c r="B150" s="15"/>
-      <c r="C150" s="15"/>
-      <c r="D150" s="15"/>
+      <c r="A150" s="25" t="s">
+        <v>456</v>
+      </c>
+      <c r="B150" s="25"/>
+      <c r="C150" s="25"/>
+      <c r="D150" s="25"/>
     </row>
     <row r="151" spans="1:4" ht="20.25" x14ac:dyDescent="0.2">
       <c r="A151" s="12" t="s">
-        <v>501</v>
+        <v>464</v>
       </c>
       <c r="B151" s="12" t="s">
-        <v>107</v>
+        <v>103</v>
       </c>
       <c r="C151" s="12" t="s">
         <v>1</v>
@@ -6525,201 +6326,203 @@
     </row>
     <row r="152" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A152" s="6" t="s">
-        <v>123</v>
-      </c>
-      <c r="B152" s="6"/>
+        <v>119</v>
+      </c>
+      <c r="B152" s="14" t="s">
+        <v>119</v>
+      </c>
       <c r="C152" s="6" t="s">
-        <v>124</v>
-      </c>
-      <c r="D152" s="14" t="s">
-        <v>259</v>
+        <v>120</v>
+      </c>
+      <c r="D152" s="26" t="s">
+        <v>492</v>
       </c>
     </row>
     <row r="153" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A153" s="6" t="s">
-        <v>152</v>
+      <c r="A153" s="16" t="s">
+        <v>247</v>
       </c>
       <c r="B153" s="6" t="s">
-        <v>148</v>
+        <v>144</v>
       </c>
       <c r="C153" s="6" t="s">
-        <v>260</v>
-      </c>
-      <c r="D153" s="14"/>
+        <v>253</v>
+      </c>
+      <c r="D153" s="26"/>
     </row>
     <row r="154" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A154" s="6" t="s">
-        <v>219</v>
+        <v>215</v>
       </c>
       <c r="B154" s="6" t="s">
         <v>63</v>
       </c>
       <c r="C154" s="6" t="s">
-        <v>98</v>
-      </c>
-      <c r="D154" s="14"/>
+        <v>97</v>
+      </c>
+      <c r="D154" s="26"/>
     </row>
     <row r="155" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A155" s="6" t="s">
-        <v>261</v>
+        <v>254</v>
       </c>
       <c r="B155" s="6" t="s">
         <v>63</v>
       </c>
       <c r="C155" s="6" t="s">
-        <v>98</v>
-      </c>
-      <c r="D155" s="14"/>
+        <v>97</v>
+      </c>
+      <c r="D155" s="26"/>
     </row>
     <row r="156" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A156" s="6" t="s">
-        <v>174</v>
+        <v>170</v>
       </c>
       <c r="B156" s="6" t="s">
-        <v>209</v>
+        <v>205</v>
       </c>
       <c r="C156" s="6" t="s">
+        <v>249</v>
+      </c>
+      <c r="D156" s="26"/>
+    </row>
+    <row r="157" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A157" s="26" t="s">
         <v>255</v>
-      </c>
-      <c r="D156" s="14"/>
-    </row>
-    <row r="157" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A157" s="14" t="s">
-        <v>262</v>
       </c>
       <c r="B157" s="6">
         <v>12</v>
       </c>
       <c r="C157" s="6" t="s">
-        <v>162</v>
-      </c>
-      <c r="D157" s="14"/>
+        <v>158</v>
+      </c>
+      <c r="D157" s="26"/>
     </row>
     <row r="158" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A158" s="14"/>
+      <c r="A158" s="26"/>
       <c r="B158" s="6">
         <v>34</v>
       </c>
       <c r="C158" s="6" t="s">
-        <v>163</v>
-      </c>
-      <c r="D158" s="14"/>
+        <v>159</v>
+      </c>
+      <c r="D158" s="26"/>
     </row>
     <row r="159" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A159" s="14"/>
+      <c r="A159" s="26"/>
       <c r="B159" s="6">
         <v>10</v>
       </c>
       <c r="C159" s="6" t="s">
-        <v>164</v>
-      </c>
-      <c r="D159" s="14"/>
+        <v>160</v>
+      </c>
+      <c r="D159" s="26"/>
     </row>
     <row r="160" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A160" s="14"/>
+      <c r="A160" s="26"/>
       <c r="B160" s="6">
         <v>14</v>
       </c>
       <c r="C160" s="6" t="s">
-        <v>263</v>
-      </c>
-      <c r="D160" s="14"/>
+        <v>256</v>
+      </c>
+      <c r="D160" s="26"/>
     </row>
     <row r="161" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A161" s="14"/>
+      <c r="A161" s="26"/>
       <c r="B161" s="6">
         <v>15</v>
       </c>
       <c r="C161" s="6" t="s">
-        <v>264</v>
-      </c>
-      <c r="D161" s="14"/>
+        <v>257</v>
+      </c>
+      <c r="D161" s="26"/>
     </row>
     <row r="162" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A162" s="14"/>
+      <c r="A162" s="26"/>
       <c r="B162" s="6">
         <v>20</v>
       </c>
       <c r="C162" s="6" t="s">
-        <v>165</v>
-      </c>
-      <c r="D162" s="14"/>
+        <v>161</v>
+      </c>
+      <c r="D162" s="26"/>
     </row>
     <row r="163" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A163" s="14"/>
+      <c r="A163" s="26"/>
       <c r="B163" s="6">
         <v>27</v>
       </c>
       <c r="C163" s="6" t="s">
-        <v>159</v>
-      </c>
-      <c r="D163" s="14"/>
+        <v>155</v>
+      </c>
+      <c r="D163" s="26"/>
     </row>
     <row r="164" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A164" s="14"/>
+      <c r="A164" s="26"/>
       <c r="B164" s="6">
         <v>33</v>
       </c>
       <c r="C164" s="6" t="s">
-        <v>166</v>
-      </c>
-      <c r="D164" s="14"/>
+        <v>162</v>
+      </c>
+      <c r="D164" s="26"/>
     </row>
     <row r="165" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A165" s="14"/>
+      <c r="A165" s="26"/>
       <c r="B165" s="6" t="s">
         <v>18</v>
       </c>
       <c r="C165" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="D165" s="14"/>
+      <c r="D165" s="26"/>
     </row>
     <row r="166" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A166" s="14" t="s">
-        <v>265</v>
+      <c r="A166" s="26" t="s">
+        <v>258</v>
       </c>
       <c r="B166" s="6">
         <v>-12</v>
       </c>
       <c r="C166" s="6" t="s">
-        <v>257</v>
-      </c>
-      <c r="D166" s="14"/>
+        <v>251</v>
+      </c>
+      <c r="D166" s="26"/>
     </row>
     <row r="167" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A167" s="14"/>
+      <c r="A167" s="26"/>
       <c r="B167" s="6">
         <v>-16</v>
       </c>
       <c r="C167" s="6" t="s">
-        <v>212</v>
-      </c>
-      <c r="D167" s="14"/>
+        <v>208</v>
+      </c>
+      <c r="D167" s="26"/>
     </row>
     <row r="168" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A168" s="14"/>
+      <c r="A168" s="26"/>
       <c r="B168" s="6">
         <v>-20</v>
       </c>
       <c r="C168" s="6" t="s">
-        <v>258</v>
-      </c>
-      <c r="D168" s="14"/>
+        <v>252</v>
+      </c>
+      <c r="D168" s="26"/>
     </row>
     <row r="169" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A169" s="14"/>
+      <c r="A169" s="26"/>
       <c r="B169" s="6" t="s">
-        <v>266</v>
+        <v>259</v>
       </c>
       <c r="C169" s="6" t="s">
-        <v>218</v>
-      </c>
-      <c r="D169" s="14"/>
+        <v>214</v>
+      </c>
+      <c r="D169" s="26"/>
     </row>
     <row r="170" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A170" s="14" t="s">
-        <v>183</v>
+      <c r="A170" s="26" t="s">
+        <v>179</v>
       </c>
       <c r="B170" s="6" t="s">
         <v>72</v>
@@ -6727,52 +6530,52 @@
       <c r="C170" s="6" t="s">
         <v>73</v>
       </c>
-      <c r="D170" s="14"/>
+      <c r="D170" s="26"/>
     </row>
     <row r="171" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A171" s="14"/>
+      <c r="A171" s="26"/>
       <c r="B171" s="6" t="s">
-        <v>188</v>
+        <v>184</v>
       </c>
       <c r="C171" s="6" t="s">
-        <v>189</v>
-      </c>
-      <c r="D171" s="14"/>
+        <v>185</v>
+      </c>
+      <c r="D171" s="26"/>
     </row>
     <row r="172" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A172" s="14"/>
+      <c r="A172" s="26"/>
       <c r="B172" s="6" t="s">
+        <v>190</v>
+      </c>
+      <c r="C172" s="6" t="s">
+        <v>191</v>
+      </c>
+      <c r="D172" s="26"/>
+    </row>
+    <row r="173" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A173" s="26"/>
+      <c r="B173" s="6" t="s">
         <v>194</v>
       </c>
-      <c r="C172" s="6" t="s">
+      <c r="C173" s="6" t="s">
         <v>195</v>
       </c>
-      <c r="D172" s="14"/>
-    </row>
-    <row r="173" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A173" s="14"/>
-      <c r="B173" s="6" t="s">
-        <v>198</v>
-      </c>
-      <c r="C173" s="6" t="s">
-        <v>199</v>
-      </c>
-      <c r="D173" s="14"/>
+      <c r="D173" s="26"/>
     </row>
     <row r="175" spans="1:4" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="A175" s="15" t="s">
-        <v>484</v>
-      </c>
-      <c r="B175" s="15"/>
-      <c r="C175" s="15"/>
-      <c r="D175" s="15"/>
+      <c r="A175" s="25" t="s">
+        <v>454</v>
+      </c>
+      <c r="B175" s="25"/>
+      <c r="C175" s="25"/>
+      <c r="D175" s="25"/>
     </row>
     <row r="176" spans="1:4" ht="20.25" x14ac:dyDescent="0.2">
       <c r="A176" s="12" t="s">
-        <v>501</v>
+        <v>464</v>
       </c>
       <c r="B176" s="12" t="s">
-        <v>107</v>
+        <v>103</v>
       </c>
       <c r="C176" s="12" t="s">
         <v>1</v>
@@ -6783,604 +6586,395 @@
     </row>
     <row r="177" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A177" s="6" t="s">
-        <v>123</v>
-      </c>
-      <c r="B177" s="6"/>
+        <v>119</v>
+      </c>
+      <c r="B177" s="14" t="s">
+        <v>119</v>
+      </c>
       <c r="C177" s="6" t="s">
-        <v>124</v>
-      </c>
-      <c r="D177" s="14" t="s">
-        <v>267</v>
+        <v>120</v>
+      </c>
+      <c r="D177" s="26" t="s">
+        <v>260</v>
       </c>
     </row>
     <row r="178" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A178" s="6" t="s">
-        <v>152</v>
+      <c r="A178" s="16" t="s">
+        <v>247</v>
       </c>
       <c r="B178" s="6" t="s">
-        <v>150</v>
+        <v>146</v>
       </c>
       <c r="C178" s="6" t="s">
-        <v>268</v>
-      </c>
-      <c r="D178" s="14"/>
+        <v>261</v>
+      </c>
+      <c r="D178" s="26"/>
     </row>
     <row r="179" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A179" s="6" t="s">
-        <v>219</v>
+        <v>215</v>
       </c>
       <c r="B179" s="6" t="s">
         <v>63</v>
       </c>
       <c r="C179" s="6" t="s">
-        <v>98</v>
-      </c>
-      <c r="D179" s="14"/>
+        <v>97</v>
+      </c>
+      <c r="D179" s="26"/>
     </row>
     <row r="180" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A180" s="6" t="s">
-        <v>261</v>
+        <v>254</v>
       </c>
       <c r="B180" s="6" t="s">
-        <v>180</v>
+        <v>176</v>
       </c>
       <c r="C180" s="6" t="s">
-        <v>98</v>
-      </c>
-      <c r="D180" s="14"/>
+        <v>97</v>
+      </c>
+      <c r="D180" s="26"/>
     </row>
     <row r="181" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A181" s="6" t="s">
-        <v>269</v>
+        <v>262</v>
       </c>
       <c r="B181" s="6" t="s">
-        <v>209</v>
+        <v>205</v>
       </c>
       <c r="C181" s="6" t="s">
-        <v>255</v>
-      </c>
-      <c r="D181" s="14"/>
+        <v>249</v>
+      </c>
+      <c r="D181" s="26"/>
     </row>
     <row r="182" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A182" s="14" t="s">
-        <v>256</v>
+      <c r="A182" s="26" t="s">
+        <v>250</v>
       </c>
       <c r="B182" s="6">
         <v>-12</v>
       </c>
       <c r="C182" s="6" t="s">
-        <v>257</v>
-      </c>
-      <c r="D182" s="14"/>
+        <v>251</v>
+      </c>
+      <c r="D182" s="26"/>
     </row>
     <row r="183" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A183" s="14"/>
+      <c r="A183" s="26"/>
       <c r="B183" s="6">
         <v>-16</v>
       </c>
       <c r="C183" s="6" t="s">
-        <v>212</v>
-      </c>
-      <c r="D183" s="14"/>
+        <v>208</v>
+      </c>
+      <c r="D183" s="26"/>
     </row>
     <row r="184" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A184" s="14"/>
+      <c r="A184" s="26"/>
       <c r="B184" s="6">
         <v>-20</v>
       </c>
       <c r="C184" s="6" t="s">
-        <v>258</v>
-      </c>
-      <c r="D184" s="14"/>
+        <v>252</v>
+      </c>
+      <c r="D184" s="26"/>
     </row>
     <row r="185" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A185" s="14"/>
+      <c r="A185" s="26"/>
       <c r="B185" s="6" t="s">
         <v>34</v>
       </c>
       <c r="C185" s="6" t="s">
-        <v>218</v>
-      </c>
-      <c r="D185" s="14"/>
+        <v>214</v>
+      </c>
+      <c r="D185" s="26"/>
     </row>
     <row r="186" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A186" s="14" t="s">
-        <v>228</v>
+      <c r="A186" s="26" t="s">
+        <v>223</v>
       </c>
       <c r="B186" s="6" t="s">
-        <v>109</v>
+        <v>105</v>
       </c>
       <c r="C186" s="6" t="s">
-        <v>229</v>
-      </c>
-      <c r="D186" s="14"/>
+        <v>224</v>
+      </c>
+      <c r="D186" s="26"/>
     </row>
     <row r="187" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A187" s="14"/>
+      <c r="A187" s="26"/>
       <c r="B187" s="6" t="s">
         <v>9</v>
       </c>
       <c r="C187" s="6" t="s">
-        <v>230</v>
-      </c>
-      <c r="D187" s="14"/>
+        <v>225</v>
+      </c>
+      <c r="D187" s="26"/>
     </row>
     <row r="188" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A188" s="14"/>
+      <c r="A188" s="26"/>
       <c r="B188" s="6" t="s">
-        <v>200</v>
+        <v>196</v>
       </c>
       <c r="C188" s="6" t="s">
-        <v>270</v>
-      </c>
-      <c r="D188" s="14"/>
+        <v>263</v>
+      </c>
+      <c r="D188" s="26"/>
     </row>
     <row r="189" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A189" s="14"/>
+      <c r="A189" s="26"/>
       <c r="B189" s="6" t="s">
-        <v>202</v>
+        <v>198</v>
       </c>
       <c r="C189" s="6" t="s">
-        <v>232</v>
-      </c>
-      <c r="D189" s="14"/>
+        <v>227</v>
+      </c>
+      <c r="D189" s="26"/>
     </row>
     <row r="190" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A190" s="14"/>
+      <c r="A190" s="26"/>
       <c r="B190" s="6" t="s">
-        <v>173</v>
+        <v>169</v>
       </c>
       <c r="C190" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="D190" s="14"/>
+      <c r="D190" s="26"/>
     </row>
     <row r="191" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A191" s="14" t="s">
-        <v>271</v>
+      <c r="A191" s="26" t="s">
+        <v>264</v>
       </c>
       <c r="B191" s="6">
         <v>1</v>
       </c>
       <c r="C191" s="6" t="s">
-        <v>272</v>
-      </c>
-      <c r="D191" s="14"/>
+        <v>265</v>
+      </c>
+      <c r="D191" s="26"/>
     </row>
     <row r="192" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A192" s="14"/>
+      <c r="A192" s="26"/>
       <c r="B192" s="6">
         <v>2</v>
       </c>
       <c r="C192" s="6" t="s">
-        <v>273</v>
-      </c>
-      <c r="D192" s="14"/>
+        <v>266</v>
+      </c>
+      <c r="D192" s="26"/>
     </row>
     <row r="193" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A193" s="14"/>
+      <c r="A193" s="26"/>
       <c r="B193" s="6">
         <v>3</v>
       </c>
       <c r="C193" s="6" t="s">
-        <v>274</v>
-      </c>
-      <c r="D193" s="14"/>
+        <v>267</v>
+      </c>
+      <c r="D193" s="26"/>
     </row>
     <row r="194" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A194" s="14"/>
+      <c r="A194" s="26"/>
       <c r="B194" s="6" t="s">
         <v>18</v>
       </c>
       <c r="C194" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="D194" s="14"/>
+      <c r="D194" s="26"/>
     </row>
     <row r="195" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A195" s="14" t="s">
-        <v>237</v>
+      <c r="A195" s="26" t="s">
+        <v>232</v>
       </c>
       <c r="B195" s="6">
         <v>1</v>
       </c>
       <c r="C195" s="6" t="s">
-        <v>238</v>
-      </c>
-      <c r="D195" s="14"/>
+        <v>233</v>
+      </c>
+      <c r="D195" s="26"/>
     </row>
     <row r="196" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A196" s="14"/>
+      <c r="A196" s="26"/>
       <c r="B196" s="6">
         <v>2</v>
       </c>
       <c r="C196" s="6" t="s">
-        <v>239</v>
-      </c>
-      <c r="D196" s="14"/>
+        <v>234</v>
+      </c>
+      <c r="D196" s="26"/>
     </row>
     <row r="197" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A197" s="14"/>
+      <c r="A197" s="26"/>
       <c r="B197" s="6">
         <v>3</v>
       </c>
       <c r="C197" s="6" t="s">
-        <v>244</v>
-      </c>
-      <c r="D197" s="14"/>
+        <v>239</v>
+      </c>
+      <c r="D197" s="26"/>
     </row>
     <row r="198" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A198" s="14"/>
+      <c r="A198" s="26"/>
       <c r="B198" s="6">
         <v>4</v>
       </c>
       <c r="C198" s="6" t="s">
-        <v>245</v>
-      </c>
-      <c r="D198" s="14"/>
+        <v>240</v>
+      </c>
+      <c r="D198" s="26"/>
     </row>
     <row r="199" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A199" s="14"/>
+      <c r="A199" s="26"/>
       <c r="B199" s="6">
         <v>5</v>
       </c>
       <c r="C199" s="6" t="s">
-        <v>246</v>
-      </c>
-      <c r="D199" s="14"/>
+        <v>241</v>
+      </c>
+      <c r="D199" s="26"/>
     </row>
     <row r="200" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A200" s="14"/>
+      <c r="A200" s="26"/>
       <c r="B200" s="6">
         <v>6</v>
       </c>
       <c r="C200" s="6" t="s">
-        <v>247</v>
-      </c>
-      <c r="D200" s="14"/>
+        <v>242</v>
+      </c>
+      <c r="D200" s="26"/>
     </row>
     <row r="201" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A201" s="14"/>
+      <c r="A201" s="26"/>
       <c r="B201" s="6">
         <v>7</v>
       </c>
       <c r="C201" s="6" t="s">
-        <v>248</v>
-      </c>
-      <c r="D201" s="14"/>
+        <v>243</v>
+      </c>
+      <c r="D201" s="26"/>
     </row>
     <row r="202" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A202" s="14"/>
+      <c r="A202" s="26"/>
       <c r="B202" s="6" t="s">
         <v>18</v>
       </c>
       <c r="C202" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="D202" s="14"/>
+      <c r="D202" s="26"/>
     </row>
     <row r="203" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A203" s="14" t="s">
-        <v>249</v>
+      <c r="A203" s="26" t="s">
+        <v>244</v>
       </c>
       <c r="B203" s="6" t="s">
-        <v>275</v>
+        <v>268</v>
       </c>
       <c r="C203" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="D203" s="14"/>
+      <c r="D203" s="26"/>
     </row>
     <row r="204" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A204" s="14"/>
+      <c r="A204" s="26"/>
       <c r="B204" s="6" t="s">
-        <v>276</v>
+        <v>269</v>
       </c>
       <c r="C204" s="6" t="s">
         <v>24</v>
       </c>
-      <c r="D204" s="14"/>
+      <c r="D204" s="26"/>
     </row>
     <row r="205" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A205" s="14"/>
+      <c r="A205" s="26"/>
       <c r="B205" s="6" t="s">
-        <v>277</v>
+        <v>270</v>
       </c>
       <c r="C205" s="6" t="s">
         <v>26</v>
       </c>
-      <c r="D205" s="14"/>
+      <c r="D205" s="26"/>
     </row>
     <row r="206" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A206" s="14"/>
+      <c r="A206" s="26"/>
       <c r="B206" s="6" t="s">
-        <v>278</v>
+        <v>271</v>
       </c>
       <c r="C206" s="6" t="s">
         <v>28</v>
       </c>
-      <c r="D206" s="14"/>
+      <c r="D206" s="26"/>
     </row>
     <row r="207" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A207" s="14"/>
+      <c r="A207" s="26"/>
       <c r="B207" s="6" t="s">
         <v>18</v>
       </c>
       <c r="C207" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="D207" s="14"/>
+      <c r="D207" s="26"/>
     </row>
     <row r="208" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A208" s="14" t="s">
-        <v>183</v>
+      <c r="A208" s="26" t="s">
+        <v>179</v>
       </c>
       <c r="B208" s="6" t="s">
-        <v>188</v>
+        <v>184</v>
       </c>
       <c r="C208" s="6" t="s">
-        <v>189</v>
-      </c>
-      <c r="D208" s="14"/>
+        <v>185</v>
+      </c>
+      <c r="D208" s="26"/>
     </row>
     <row r="209" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A209" s="14"/>
+      <c r="A209" s="26"/>
       <c r="B209" s="6" t="s">
+        <v>190</v>
+      </c>
+      <c r="C209" s="6" t="s">
+        <v>191</v>
+      </c>
+      <c r="D209" s="26"/>
+    </row>
+    <row r="210" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A210" s="26"/>
+      <c r="B210" s="6" t="s">
         <v>194</v>
       </c>
-      <c r="C209" s="6" t="s">
+      <c r="C210" s="6" t="s">
         <v>195</v>
       </c>
-      <c r="D209" s="14"/>
-    </row>
-    <row r="210" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A210" s="14"/>
-      <c r="B210" s="6" t="s">
-        <v>198</v>
-      </c>
-      <c r="C210" s="6" t="s">
-        <v>199</v>
-      </c>
-      <c r="D210" s="14"/>
-    </row>
-    <row r="212" spans="1:4" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="A212" s="15" t="s">
-        <v>483</v>
-      </c>
-      <c r="B212" s="15"/>
-      <c r="C212" s="15"/>
-      <c r="D212" s="15"/>
-    </row>
-    <row r="213" spans="1:4" ht="20.25" x14ac:dyDescent="0.2">
-      <c r="A213" s="12" t="s">
-        <v>501</v>
-      </c>
-      <c r="B213" s="12" t="s">
-        <v>107</v>
-      </c>
-      <c r="C213" s="12" t="s">
-        <v>1</v>
-      </c>
-      <c r="D213" s="12" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="214" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A214" s="6" t="s">
-        <v>79</v>
-      </c>
-      <c r="B214" s="6"/>
-      <c r="C214" s="6" t="s">
-        <v>3</v>
-      </c>
-      <c r="D214" s="14" t="s">
-        <v>279</v>
-      </c>
-    </row>
-    <row r="215" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A215" s="6" t="s">
-        <v>80</v>
-      </c>
-      <c r="B215" s="6"/>
-      <c r="C215" s="6" t="s">
-        <v>5</v>
-      </c>
-      <c r="D215" s="14"/>
-    </row>
-    <row r="216" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A216" s="14" t="s">
-        <v>81</v>
-      </c>
-      <c r="B216" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="C216" s="6" t="s">
-        <v>82</v>
-      </c>
-      <c r="D216" s="14"/>
-    </row>
-    <row r="217" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A217" s="14"/>
-      <c r="B217" s="6" t="s">
-        <v>9</v>
-      </c>
-      <c r="C217" s="6" t="s">
-        <v>83</v>
-      </c>
-      <c r="D217" s="14"/>
-    </row>
-    <row r="218" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A218" s="14" t="s">
-        <v>280</v>
-      </c>
-      <c r="B218" s="6">
-        <v>4</v>
-      </c>
-      <c r="C218" s="6" t="s">
-        <v>85</v>
-      </c>
-      <c r="D218" s="14"/>
-    </row>
-    <row r="219" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A219" s="14"/>
-      <c r="B219" s="6">
-        <v>5</v>
-      </c>
-      <c r="C219" s="6" t="s">
-        <v>86</v>
-      </c>
-      <c r="D219" s="14"/>
-    </row>
-    <row r="220" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A220" s="14"/>
-      <c r="B220" s="6">
-        <v>6</v>
-      </c>
-      <c r="C220" s="6" t="s">
-        <v>87</v>
-      </c>
-      <c r="D220" s="14"/>
-    </row>
-    <row r="221" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A221" s="14" t="s">
-        <v>281</v>
-      </c>
-      <c r="B221" s="6" t="s">
-        <v>21</v>
-      </c>
-      <c r="C221" s="6" t="s">
-        <v>89</v>
-      </c>
-      <c r="D221" s="14"/>
-    </row>
-    <row r="222" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A222" s="14"/>
-      <c r="B222" s="6" t="s">
-        <v>90</v>
-      </c>
-      <c r="C222" s="6" t="s">
-        <v>91</v>
-      </c>
-      <c r="D222" s="14"/>
-    </row>
-    <row r="223" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A223" s="14"/>
-      <c r="B223" s="6" t="s">
-        <v>23</v>
-      </c>
-      <c r="C223" s="6" t="s">
-        <v>92</v>
-      </c>
-      <c r="D223" s="14"/>
-    </row>
-    <row r="224" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A224" s="14" t="s">
-        <v>93</v>
-      </c>
-      <c r="B224" s="6">
-        <v>3</v>
-      </c>
-      <c r="C224" s="6" t="s">
-        <v>94</v>
-      </c>
-      <c r="D224" s="14"/>
-    </row>
-    <row r="225" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A225" s="14"/>
-      <c r="B225" s="6">
-        <v>4</v>
-      </c>
-      <c r="C225" s="6" t="s">
-        <v>95</v>
-      </c>
-      <c r="D225" s="14"/>
-    </row>
-    <row r="226" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A226" s="14"/>
-      <c r="B226" s="6" t="s">
-        <v>39</v>
-      </c>
-      <c r="C226" s="6" t="s">
-        <v>40</v>
-      </c>
-      <c r="D226" s="14"/>
-    </row>
-    <row r="227" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A227" s="14"/>
-      <c r="B227" s="6" t="s">
-        <v>43</v>
-      </c>
-      <c r="C227" s="6" t="s">
-        <v>96</v>
-      </c>
-      <c r="D227" s="14"/>
-    </row>
-    <row r="228" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A228" s="6" t="s">
-        <v>105</v>
-      </c>
-      <c r="B228" s="6" t="s">
-        <v>34</v>
-      </c>
-      <c r="C228" s="6" t="s">
-        <v>98</v>
-      </c>
-      <c r="D228" s="14"/>
-    </row>
-    <row r="229" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A229" s="14" t="s">
-        <v>99</v>
-      </c>
-      <c r="B229" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="C229" s="6" t="s">
-        <v>100</v>
-      </c>
-      <c r="D229" s="14"/>
-    </row>
-    <row r="230" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A230" s="14"/>
-      <c r="B230" s="6" t="s">
-        <v>101</v>
-      </c>
-      <c r="C230" s="6" t="s">
-        <v>102</v>
-      </c>
-      <c r="D230" s="14"/>
-    </row>
-    <row r="231" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A231" s="6" t="s">
-        <v>103</v>
-      </c>
-      <c r="B231" s="6" t="s">
-        <v>34</v>
-      </c>
-      <c r="C231" s="6" t="s">
-        <v>104</v>
-      </c>
-      <c r="D231" s="14"/>
-    </row>
-    <row r="232" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A232" s="6" t="s">
-        <v>105</v>
-      </c>
-      <c r="B232" s="6" t="s">
-        <v>34</v>
-      </c>
-      <c r="C232" s="6" t="s">
-        <v>104</v>
-      </c>
-      <c r="D232" s="14"/>
+      <c r="D210" s="26"/>
     </row>
   </sheetData>
-  <mergeCells count="54">
-    <mergeCell ref="D4:D18"/>
-    <mergeCell ref="A7:A9"/>
-    <mergeCell ref="A10:A12"/>
-    <mergeCell ref="A13:A15"/>
-    <mergeCell ref="A4:A6"/>
-    <mergeCell ref="A16:A18"/>
+  <mergeCells count="47">
+    <mergeCell ref="A1:D1"/>
+    <mergeCell ref="A182:A185"/>
+    <mergeCell ref="A186:A190"/>
+    <mergeCell ref="A191:A194"/>
+    <mergeCell ref="A195:A202"/>
+    <mergeCell ref="A203:A207"/>
+    <mergeCell ref="A208:A210"/>
+    <mergeCell ref="A150:D150"/>
+    <mergeCell ref="D152:D173"/>
+    <mergeCell ref="A166:A169"/>
+    <mergeCell ref="A170:A173"/>
+    <mergeCell ref="A175:D175"/>
+    <mergeCell ref="A123:A126"/>
+    <mergeCell ref="A127:A133"/>
+    <mergeCell ref="A135:D135"/>
+    <mergeCell ref="A136:D136"/>
+    <mergeCell ref="D138:D148"/>
+    <mergeCell ref="A142:A145"/>
+    <mergeCell ref="A146:A148"/>
+    <mergeCell ref="A20:D20"/>
+    <mergeCell ref="D22:D54"/>
+    <mergeCell ref="A23:A25"/>
+    <mergeCell ref="A26:A31"/>
+    <mergeCell ref="A32:A41"/>
+    <mergeCell ref="A47:A54"/>
     <mergeCell ref="D177:D210"/>
     <mergeCell ref="A56:D56"/>
     <mergeCell ref="D58:D82"/>
@@ -7397,40 +6991,15 @@
     <mergeCell ref="A105:A116"/>
     <mergeCell ref="A120:A122"/>
     <mergeCell ref="A157:A165"/>
-    <mergeCell ref="A20:D20"/>
-    <mergeCell ref="D22:D54"/>
-    <mergeCell ref="A23:A25"/>
-    <mergeCell ref="A26:A31"/>
-    <mergeCell ref="A32:A41"/>
-    <mergeCell ref="A47:A54"/>
-    <mergeCell ref="A166:A169"/>
-    <mergeCell ref="A170:A173"/>
-    <mergeCell ref="A175:D175"/>
-    <mergeCell ref="A123:A126"/>
-    <mergeCell ref="A127:A133"/>
-    <mergeCell ref="A135:D135"/>
-    <mergeCell ref="A136:D136"/>
-    <mergeCell ref="D138:D148"/>
-    <mergeCell ref="A142:A145"/>
-    <mergeCell ref="A146:A148"/>
-    <mergeCell ref="A1:D1"/>
-    <mergeCell ref="A212:D212"/>
-    <mergeCell ref="D214:D232"/>
-    <mergeCell ref="A216:A217"/>
-    <mergeCell ref="A218:A220"/>
-    <mergeCell ref="A221:A223"/>
-    <mergeCell ref="A224:A227"/>
-    <mergeCell ref="A229:A230"/>
-    <mergeCell ref="A182:A185"/>
-    <mergeCell ref="A186:A190"/>
-    <mergeCell ref="A191:A194"/>
-    <mergeCell ref="A195:A202"/>
-    <mergeCell ref="A203:A207"/>
-    <mergeCell ref="A208:A210"/>
-    <mergeCell ref="A150:D150"/>
-    <mergeCell ref="D152:D173"/>
+    <mergeCell ref="D4:D18"/>
+    <mergeCell ref="A7:A9"/>
+    <mergeCell ref="A10:A12"/>
+    <mergeCell ref="A13:A15"/>
+    <mergeCell ref="A4:A6"/>
+    <mergeCell ref="A16:A18"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>